--- a/estoque.XLSX
+++ b/estoque.XLSX
@@ -1753,10 +1753,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>340.000</v>
+        <v>417.000</v>
       </c>
       <c r="H2" s="3">
-        <v>1230.14</v>
+        <v>1508.71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1779,10 +1779,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <v>1951.000</v>
+        <v>1866.000</v>
       </c>
       <c r="H3" s="3">
-        <v>255703.67</v>
+        <v>244563.86</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1987,10 +1987,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>3998.000</v>
+        <v>3984.000</v>
       </c>
       <c r="H11" s="3">
-        <v>122657.28</v>
+        <v>122227.77</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2013,10 +2013,10 @@
         <v>5</v>
       </c>
       <c r="G12" s="2">
-        <v>58.000</v>
+        <v>78.000</v>
       </c>
       <c r="H12" s="3">
-        <v>4952.64</v>
+        <v>6660.45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2117,10 +2117,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>1671.000</v>
+        <v>1639.000</v>
       </c>
       <c r="H16" s="3">
-        <v>142816.28</v>
+        <v>140081.29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="2">
-        <v>2395.000</v>
+        <v>2663.000</v>
       </c>
       <c r="H20" s="3">
-        <v>202717.53</v>
+        <v>225401.66</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2299,10 +2299,10 @@
         <v>5</v>
       </c>
       <c r="G23" s="2">
-        <v>66.000</v>
+        <v>67.000</v>
       </c>
       <c r="H23" s="3">
-        <v>9633.90</v>
+        <v>9779.87</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2325,10 +2325,10 @@
         <v>5</v>
       </c>
       <c r="G24" s="2">
-        <v>133.000</v>
+        <v>149.000</v>
       </c>
       <c r="H24" s="3">
-        <v>60119.05</v>
+        <v>67351.70</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2429,10 +2429,10 @@
         <v>52</v>
       </c>
       <c r="G28" s="2">
-        <v>294.480</v>
+        <v>469.480</v>
       </c>
       <c r="H28" s="3">
-        <v>11144.53</v>
+        <v>17748.73</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2455,10 +2455,10 @@
         <v>52</v>
       </c>
       <c r="G29" s="2">
-        <v>193.890</v>
+        <v>192.890</v>
       </c>
       <c r="H29" s="3">
-        <v>4970.02</v>
+        <v>4944.38</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2481,10 +2481,10 @@
         <v>52</v>
       </c>
       <c r="G30" s="2">
-        <v>754.600</v>
+        <v>620.600</v>
       </c>
       <c r="H30" s="3">
-        <v>8837.42</v>
+        <v>7268.09</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2585,10 +2585,10 @@
         <v>5</v>
       </c>
       <c r="G34" s="2">
-        <v>289.000</v>
+        <v>286.000</v>
       </c>
       <c r="H34" s="3">
-        <v>5362.39</v>
+        <v>5306.73</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2871,10 +2871,10 @@
         <v>5</v>
       </c>
       <c r="G45" s="2">
-        <v>9.000</v>
+        <v>10.000</v>
       </c>
       <c r="H45" s="3">
-        <v>878.23</v>
+        <v>975.81</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2975,10 +2975,10 @@
         <v>5</v>
       </c>
       <c r="G49" s="2">
-        <v>16.000</v>
+        <v>22.000</v>
       </c>
       <c r="H49" s="3">
-        <v>1767.79</v>
+        <v>2430.71</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3027,10 +3027,10 @@
         <v>5</v>
       </c>
       <c r="G51" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="H51" s="3">
-        <v>57.33</v>
+        <v>229.34</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3131,10 +3131,10 @@
         <v>52</v>
       </c>
       <c r="G55" s="2">
-        <v>199.900</v>
+        <v>195.900</v>
       </c>
       <c r="H55" s="3">
-        <v>4118.18</v>
+        <v>4208.31</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3264,7 +3264,7 @@
         <v>1.000</v>
       </c>
       <c r="H60" s="3">
-        <v>3608.81</v>
+        <v>3716.19</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3290,7 +3290,7 @@
         <v>1.000</v>
       </c>
       <c r="H61" s="3">
-        <v>1676.79</v>
+        <v>1707.25</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3313,10 +3313,10 @@
         <v>5</v>
       </c>
       <c r="G62" s="2">
-        <v>10.000</v>
+        <v>14.000</v>
       </c>
       <c r="H62" s="3">
-        <v>5661.51</v>
+        <v>7926.11</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3573,10 +3573,10 @@
         <v>5</v>
       </c>
       <c r="G72" s="2">
-        <v>382.000</v>
+        <v>441.000</v>
       </c>
       <c r="H72" s="3">
-        <v>8605.07</v>
+        <v>9934.13</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3677,10 +3677,10 @@
         <v>5</v>
       </c>
       <c r="G76" s="2">
-        <v>17.000</v>
+        <v>16.000</v>
       </c>
       <c r="H76" s="3">
-        <v>1025.55</v>
+        <v>965.23</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3703,10 +3703,10 @@
         <v>5</v>
       </c>
       <c r="G77" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="H77" s="3">
-        <v>23.34</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3758,7 +3758,7 @@
         <v>62.000</v>
       </c>
       <c r="H79" s="3">
-        <v>11239.67</v>
+        <v>11556.75</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3784,7 +3784,7 @@
         <v>317.000</v>
       </c>
       <c r="H80" s="3">
-        <v>5495.56</v>
+        <v>5495.51</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3963,10 +3963,10 @@
         <v>5</v>
       </c>
       <c r="G87" s="2">
-        <v>3996.000</v>
+        <v>4024.000</v>
       </c>
       <c r="H87" s="3">
-        <v>72888.35</v>
+        <v>73399.08</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4171,10 +4171,10 @@
         <v>5</v>
       </c>
       <c r="G95" s="2">
-        <v>24.000</v>
+        <v>27.000</v>
       </c>
       <c r="H95" s="3">
-        <v>365.03</v>
+        <v>410.66</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4197,10 +4197,10 @@
         <v>5</v>
       </c>
       <c r="G96" s="2">
-        <v>134.000</v>
+        <v>116.000</v>
       </c>
       <c r="H96" s="3">
-        <v>765.43</v>
+        <v>662.62</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4353,10 +4353,10 @@
         <v>5</v>
       </c>
       <c r="G102" s="2">
-        <v>42.000</v>
+        <v>46.000</v>
       </c>
       <c r="H102" s="3">
-        <v>5520.65</v>
+        <v>6046.42</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4382,7 +4382,7 @@
         <v>44.000</v>
       </c>
       <c r="H103" s="3">
-        <v>3803.62</v>
+        <v>3803.61</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4483,10 +4483,10 @@
         <v>5</v>
       </c>
       <c r="G107" s="2">
-        <v>329.000</v>
+        <v>429.000</v>
       </c>
       <c r="H107" s="3">
-        <v>1388.75</v>
+        <v>1810.86</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4509,10 +4509,10 @@
         <v>5</v>
       </c>
       <c r="G108" s="2">
-        <v>35.000</v>
+        <v>40.000</v>
       </c>
       <c r="H108" s="3">
-        <v>981.38</v>
+        <v>1106.48</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4535,10 +4535,10 @@
         <v>5</v>
       </c>
       <c r="G109" s="2">
-        <v>46.000</v>
+        <v>44.000</v>
       </c>
       <c r="H109" s="3">
-        <v>1553.15</v>
+        <v>1485.62</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4564,7 +4564,7 @@
         <v>112.000</v>
       </c>
       <c r="H110" s="3">
-        <v>5565.90</v>
+        <v>5565.89</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4587,10 +4587,10 @@
         <v>5</v>
       </c>
       <c r="G111" s="2">
-        <v>162.000</v>
+        <v>177.000</v>
       </c>
       <c r="H111" s="3">
-        <v>5793.96</v>
+        <v>6562.07</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4873,10 +4873,10 @@
         <v>5</v>
       </c>
       <c r="G122" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="H122" s="3">
-        <v>151.60</v>
+        <v>454.82</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4925,10 +4925,10 @@
         <v>5</v>
       </c>
       <c r="G124" s="2">
-        <v>4.000</v>
+        <v>5.000</v>
       </c>
       <c r="H124" s="3">
-        <v>114.45</v>
+        <v>143.07</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4951,10 +4951,10 @@
         <v>5</v>
       </c>
       <c r="G125" s="2">
-        <v>617.000</v>
+        <v>602.000</v>
       </c>
       <c r="H125" s="3">
-        <v>3471.97</v>
+        <v>3387.57</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5029,10 +5029,10 @@
         <v>5</v>
       </c>
       <c r="G128" s="2">
-        <v>4.000</v>
+        <v>7.000</v>
       </c>
       <c r="H128" s="3">
-        <v>991.91</v>
+        <v>1735.84</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5055,10 +5055,10 @@
         <v>5</v>
       </c>
       <c r="G129" s="2">
-        <v>22.000</v>
+        <v>24.000</v>
       </c>
       <c r="H129" s="3">
-        <v>2281.65</v>
+        <v>2489.07</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5159,10 +5159,10 @@
         <v>5</v>
       </c>
       <c r="G133" s="2">
-        <v>17.000</v>
+        <v>27.000</v>
       </c>
       <c r="H133" s="3">
-        <v>3293.85</v>
+        <v>5231.40</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5240,7 +5240,7 @@
         <v>251.000</v>
       </c>
       <c r="H136" s="3">
-        <v>84289.12</v>
+        <v>84289.17</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5263,10 +5263,10 @@
         <v>5</v>
       </c>
       <c r="G137" s="2">
-        <v>175.000</v>
+        <v>174.000</v>
       </c>
       <c r="H137" s="3">
-        <v>27744.96</v>
+        <v>27586.42</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5341,10 +5341,10 @@
         <v>5</v>
       </c>
       <c r="G140" s="2">
-        <v>195.000</v>
+        <v>194.000</v>
       </c>
       <c r="H140" s="3">
-        <v>9160.07</v>
+        <v>9113.09</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6202,7 +6202,7 @@
         <v>185.000</v>
       </c>
       <c r="H173" s="3">
-        <v>6973.57</v>
+        <v>6973.58</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6251,10 +6251,10 @@
         <v>5</v>
       </c>
       <c r="G175" s="2">
-        <v>188.000</v>
+        <v>230.000</v>
       </c>
       <c r="H175" s="3">
-        <v>32444.93</v>
+        <v>39693.26</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6277,10 +6277,10 @@
         <v>5</v>
       </c>
       <c r="G176" s="2">
-        <v>219.000</v>
+        <v>262.000</v>
       </c>
       <c r="H176" s="3">
-        <v>7150.19</v>
+        <v>8755.57</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6407,10 +6407,10 @@
         <v>5</v>
       </c>
       <c r="G181" s="2">
-        <v>5.000</v>
+        <v>10.000</v>
       </c>
       <c r="H181" s="3">
-        <v>187.08</v>
+        <v>374.15</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6540,7 +6540,7 @@
         <v>53.000</v>
       </c>
       <c r="H186" s="3">
-        <v>2078.03</v>
+        <v>2079.32</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6563,10 +6563,10 @@
         <v>5</v>
       </c>
       <c r="G187" s="2">
-        <v>338.000</v>
+        <v>455.000</v>
       </c>
       <c r="H187" s="3">
-        <v>2435.13</v>
+        <v>3278.07</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6615,10 +6615,10 @@
         <v>5</v>
       </c>
       <c r="G189" s="2">
-        <v>800.000</v>
+        <v>781.000</v>
       </c>
       <c r="H189" s="3">
-        <v>5390.45</v>
+        <v>5262.42</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6693,10 +6693,10 @@
         <v>5</v>
       </c>
       <c r="G192" s="2">
-        <v>3267.000</v>
+        <v>3461.000</v>
       </c>
       <c r="H192" s="3">
-        <v>32843.80</v>
+        <v>34794.15</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6901,10 +6901,10 @@
         <v>5</v>
       </c>
       <c r="G200" s="2">
-        <v>22.000</v>
+        <v>23.000</v>
       </c>
       <c r="H200" s="3">
-        <v>11011.15</v>
+        <v>11511.66</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7161,10 +7161,10 @@
         <v>5</v>
       </c>
       <c r="G210" s="2">
-        <v>146.000</v>
+        <v>141.000</v>
       </c>
       <c r="H210" s="3">
-        <v>197.27</v>
+        <v>190.52</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7187,10 +7187,10 @@
         <v>52</v>
       </c>
       <c r="G211" s="2">
-        <v>68565.000</v>
+        <v>69575.000</v>
       </c>
       <c r="H211" s="3">
-        <v>160735.93</v>
+        <v>163103.72</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7239,10 +7239,10 @@
         <v>5</v>
       </c>
       <c r="G213" s="2">
-        <v>72.000</v>
+        <v>80.000</v>
       </c>
       <c r="H213" s="3">
-        <v>2566.36</v>
+        <v>2851.51</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7372,7 +7372,7 @@
         <v>74.000</v>
       </c>
       <c r="H218" s="3">
-        <v>1180.84</v>
+        <v>1181.25</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7424,7 +7424,7 @@
         <v>16.000</v>
       </c>
       <c r="H220" s="3">
-        <v>1909.36</v>
+        <v>2387.60</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7447,10 +7447,10 @@
         <v>5</v>
       </c>
       <c r="G221" s="2">
-        <v>284.000</v>
+        <v>288.000</v>
       </c>
       <c r="H221" s="3">
-        <v>14978.21</v>
+        <v>15189.17</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7473,10 +7473,10 @@
         <v>5</v>
       </c>
       <c r="G222" s="2">
-        <v>5973.000</v>
+        <v>6082.000</v>
       </c>
       <c r="H222" s="3">
-        <v>50532.55</v>
+        <v>51454.54</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7551,10 +7551,10 @@
         <v>5</v>
       </c>
       <c r="G225" s="2">
-        <v>89.000</v>
+        <v>101.000</v>
       </c>
       <c r="H225" s="3">
-        <v>24385.55</v>
+        <v>27673.49</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7655,10 +7655,10 @@
         <v>5</v>
       </c>
       <c r="G229" s="2">
-        <v>176.000</v>
+        <v>194.000</v>
       </c>
       <c r="H229" s="3">
-        <v>12540.84</v>
+        <v>13823.42</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7863,10 +7863,10 @@
         <v>5</v>
       </c>
       <c r="G237" s="2">
-        <v>6.000</v>
+        <v>5.000</v>
       </c>
       <c r="H237" s="3">
-        <v>154.79</v>
+        <v>128.99</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7915,10 +7915,10 @@
         <v>5</v>
       </c>
       <c r="G239" s="2">
-        <v>83.000</v>
+        <v>85.000</v>
       </c>
       <c r="H239" s="3">
-        <v>7856.29</v>
+        <v>8045.60</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7944,7 +7944,7 @@
         <v>57.000</v>
       </c>
       <c r="H240" s="3">
-        <v>4990.32</v>
+        <v>5429.83</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8071,10 +8071,10 @@
         <v>5</v>
       </c>
       <c r="G245" s="2">
-        <v>18.000</v>
+        <v>19.000</v>
       </c>
       <c r="H245" s="3">
-        <v>2360.52</v>
+        <v>2491.66</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="G255" s="5"/>
       <c r="H255" s="6">
-        <v>2273695.07</v>
+        <v>2328355.94</v>
       </c>
     </row>
   </sheetData>

--- a/estoque.XLSX
+++ b/estoque.XLSX
@@ -1753,10 +1753,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>417.000</v>
+        <v>264.000</v>
       </c>
       <c r="H2" s="3">
-        <v>1508.71</v>
+        <v>955.15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1779,10 +1779,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <v>1866.000</v>
+        <v>1725.000</v>
       </c>
       <c r="H3" s="3">
-        <v>244563.86</v>
+        <v>233235.85</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1987,10 +1987,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>3984.000</v>
+        <v>3983.000</v>
       </c>
       <c r="H11" s="3">
-        <v>122227.77</v>
+        <v>122197.09</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2117,10 +2117,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>1639.000</v>
+        <v>1632.000</v>
       </c>
       <c r="H16" s="3">
-        <v>140081.29</v>
+        <v>139483.01</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="2">
-        <v>2663.000</v>
+        <v>2652.000</v>
       </c>
       <c r="H20" s="3">
-        <v>225401.66</v>
+        <v>224470.60</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2484,7 +2484,7 @@
         <v>620.600</v>
       </c>
       <c r="H30" s="3">
-        <v>7268.09</v>
+        <v>7194.42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3576,7 +3576,7 @@
         <v>441.000</v>
       </c>
       <c r="H72" s="3">
-        <v>9934.13</v>
+        <v>9934.12</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3963,10 +3963,10 @@
         <v>5</v>
       </c>
       <c r="G87" s="2">
-        <v>4024.000</v>
+        <v>4019.000</v>
       </c>
       <c r="H87" s="3">
-        <v>73399.08</v>
+        <v>73307.88</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5237,10 +5237,10 @@
         <v>5</v>
       </c>
       <c r="G136" s="2">
-        <v>251.000</v>
+        <v>249.000</v>
       </c>
       <c r="H136" s="3">
-        <v>84289.17</v>
+        <v>83617.55</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5341,10 +5341,10 @@
         <v>5</v>
       </c>
       <c r="G140" s="2">
-        <v>194.000</v>
+        <v>191.000</v>
       </c>
       <c r="H140" s="3">
-        <v>9113.09</v>
+        <v>8972.17</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6693,10 +6693,10 @@
         <v>5</v>
       </c>
       <c r="G192" s="2">
-        <v>3461.000</v>
+        <v>3455.000</v>
       </c>
       <c r="H192" s="3">
-        <v>34794.15</v>
+        <v>34733.84</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7187,10 +7187,10 @@
         <v>52</v>
       </c>
       <c r="G211" s="2">
-        <v>69575.000</v>
+        <v>69534.800</v>
       </c>
       <c r="H211" s="3">
-        <v>163103.72</v>
+        <v>163009.49</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7473,10 +7473,10 @@
         <v>5</v>
       </c>
       <c r="G222" s="2">
-        <v>6082.000</v>
+        <v>6081.000</v>
       </c>
       <c r="H222" s="3">
-        <v>51454.54</v>
+        <v>51446.08</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="G255" s="5"/>
       <c r="H255" s="6">
-        <v>2328355.94</v>
+        <v>2313773.93</v>
       </c>
     </row>
   </sheetData>

--- a/estoque.XLSX
+++ b/estoque.XLSX
@@ -1753,10 +1753,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>264.000</v>
+        <v>392.000</v>
       </c>
       <c r="H2" s="3">
-        <v>955.15</v>
+        <v>1414.82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1779,10 +1779,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <v>1725.000</v>
+        <v>2725.000</v>
       </c>
       <c r="H3" s="3">
-        <v>233235.85</v>
+        <v>368445.03</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1987,10 +1987,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>3983.000</v>
+        <v>4364.000</v>
       </c>
       <c r="H11" s="3">
-        <v>122197.09</v>
+        <v>127200.94</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2117,10 +2117,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>1632.000</v>
+        <v>1561.000</v>
       </c>
       <c r="H16" s="3">
-        <v>139483.01</v>
+        <v>133414.78</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="2">
-        <v>2652.000</v>
+        <v>2512.000</v>
       </c>
       <c r="H20" s="3">
-        <v>224470.60</v>
+        <v>212630.88</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2325,10 +2325,10 @@
         <v>5</v>
       </c>
       <c r="G24" s="2">
-        <v>149.000</v>
+        <v>158.000</v>
       </c>
       <c r="H24" s="3">
-        <v>67351.70</v>
+        <v>71419.95</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2380,7 +2380,7 @@
         <v>177.600</v>
       </c>
       <c r="H26" s="3">
-        <v>2304.11</v>
+        <v>2048.69</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2429,10 +2429,10 @@
         <v>52</v>
       </c>
       <c r="G28" s="2">
-        <v>469.480</v>
+        <v>125.620</v>
       </c>
       <c r="H28" s="3">
-        <v>17748.73</v>
+        <v>4537.73</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2458,7 +2458,7 @@
         <v>192.890</v>
       </c>
       <c r="H29" s="3">
-        <v>4944.38</v>
+        <v>4668.51</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2481,10 +2481,10 @@
         <v>52</v>
       </c>
       <c r="G30" s="2">
-        <v>620.600</v>
+        <v>1967.600</v>
       </c>
       <c r="H30" s="3">
-        <v>7194.42</v>
+        <v>22398.54</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2585,10 +2585,10 @@
         <v>5</v>
       </c>
       <c r="G34" s="2">
-        <v>286.000</v>
+        <v>284.000</v>
       </c>
       <c r="H34" s="3">
-        <v>5306.73</v>
+        <v>5269.62</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2871,10 +2871,10 @@
         <v>5</v>
       </c>
       <c r="G45" s="2">
-        <v>10.000</v>
+        <v>15.000</v>
       </c>
       <c r="H45" s="3">
-        <v>975.81</v>
+        <v>1463.71</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2975,10 +2975,10 @@
         <v>5</v>
       </c>
       <c r="G49" s="2">
-        <v>22.000</v>
+        <v>32.000</v>
       </c>
       <c r="H49" s="3">
-        <v>2430.71</v>
+        <v>3535.57</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3027,10 +3027,10 @@
         <v>5</v>
       </c>
       <c r="G51" s="2">
-        <v>4.000</v>
+        <v>3.000</v>
       </c>
       <c r="H51" s="3">
-        <v>229.34</v>
+        <v>172.00</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3131,10 +3131,10 @@
         <v>52</v>
       </c>
       <c r="G55" s="2">
-        <v>195.900</v>
+        <v>194.900</v>
       </c>
       <c r="H55" s="3">
-        <v>4208.31</v>
+        <v>4186.83</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3183,10 +3183,10 @@
         <v>52</v>
       </c>
       <c r="G57" s="2">
-        <v>2604.630</v>
+        <v>2538.670</v>
       </c>
       <c r="H57" s="3">
-        <v>9772.77</v>
+        <v>10146.19</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3235,10 +3235,10 @@
         <v>5</v>
       </c>
       <c r="G59" s="2">
-        <v>14.000</v>
+        <v>17.000</v>
       </c>
       <c r="H59" s="3">
-        <v>6442.87</v>
+        <v>7823.48</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3290,7 +3290,7 @@
         <v>1.000</v>
       </c>
       <c r="H61" s="3">
-        <v>1707.25</v>
+        <v>1728.34</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3313,10 +3313,10 @@
         <v>5</v>
       </c>
       <c r="G62" s="2">
-        <v>14.000</v>
+        <v>18.000</v>
       </c>
       <c r="H62" s="3">
-        <v>7926.11</v>
+        <v>10190.72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3573,10 +3573,10 @@
         <v>5</v>
       </c>
       <c r="G72" s="2">
-        <v>441.000</v>
+        <v>433.000</v>
       </c>
       <c r="H72" s="3">
-        <v>9934.12</v>
+        <v>9753.91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3677,10 +3677,10 @@
         <v>5</v>
       </c>
       <c r="G76" s="2">
-        <v>16.000</v>
+        <v>15.000</v>
       </c>
       <c r="H76" s="3">
-        <v>965.23</v>
+        <v>904.90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3703,10 +3703,10 @@
         <v>5</v>
       </c>
       <c r="G77" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H77" s="3">
-        <v>46.69</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3729,10 +3729,10 @@
         <v>5</v>
       </c>
       <c r="G78" s="2">
-        <v>44.000</v>
+        <v>43.000</v>
       </c>
       <c r="H78" s="3">
-        <v>557.23</v>
+        <v>544.57</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3755,10 +3755,10 @@
         <v>5</v>
       </c>
       <c r="G79" s="2">
-        <v>62.000</v>
+        <v>82.000</v>
       </c>
       <c r="H79" s="3">
-        <v>11556.75</v>
+        <v>15284.74</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3781,10 +3781,10 @@
         <v>5</v>
       </c>
       <c r="G80" s="2">
-        <v>317.000</v>
+        <v>315.000</v>
       </c>
       <c r="H80" s="3">
-        <v>5495.51</v>
+        <v>5460.75</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3807,10 +3807,10 @@
         <v>5</v>
       </c>
       <c r="G81" s="2">
-        <v>5.000</v>
+        <v>4.000</v>
       </c>
       <c r="H81" s="3">
-        <v>362.89</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3836,7 +3836,7 @@
         <v>1.000</v>
       </c>
       <c r="H82" s="3">
-        <v>830.66</v>
+        <v>830.65</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3862,7 +3862,7 @@
         <v>40.000</v>
       </c>
       <c r="H83" s="3">
-        <v>3660.47</v>
+        <v>3660.46</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3963,10 +3963,10 @@
         <v>5</v>
       </c>
       <c r="G87" s="2">
-        <v>4019.000</v>
+        <v>4263.000</v>
       </c>
       <c r="H87" s="3">
-        <v>73307.88</v>
+        <v>77976.62</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4171,10 +4171,10 @@
         <v>5</v>
       </c>
       <c r="G95" s="2">
-        <v>27.000</v>
+        <v>32.000</v>
       </c>
       <c r="H95" s="3">
-        <v>410.66</v>
+        <v>486.71</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4197,10 +4197,10 @@
         <v>5</v>
       </c>
       <c r="G96" s="2">
-        <v>116.000</v>
+        <v>63.000</v>
       </c>
       <c r="H96" s="3">
-        <v>662.62</v>
+        <v>359.88</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4353,10 +4353,10 @@
         <v>5</v>
       </c>
       <c r="G102" s="2">
-        <v>46.000</v>
+        <v>49.000</v>
       </c>
       <c r="H102" s="3">
-        <v>6046.42</v>
+        <v>6440.76</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4382,7 +4382,7 @@
         <v>44.000</v>
       </c>
       <c r="H103" s="3">
-        <v>3803.61</v>
+        <v>3803.60</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4431,10 +4431,10 @@
         <v>5</v>
       </c>
       <c r="G105" s="2">
-        <v>26.000</v>
+        <v>25.000</v>
       </c>
       <c r="H105" s="3">
-        <v>120.90</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4509,10 +4509,10 @@
         <v>5</v>
       </c>
       <c r="G108" s="2">
-        <v>40.000</v>
+        <v>3.000</v>
       </c>
       <c r="H108" s="3">
-        <v>1106.48</v>
+        <v>82.99</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4535,10 +4535,10 @@
         <v>5</v>
       </c>
       <c r="G109" s="2">
-        <v>44.000</v>
+        <v>49.000</v>
       </c>
       <c r="H109" s="3">
-        <v>1485.62</v>
+        <v>1654.44</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4587,10 +4587,10 @@
         <v>5</v>
       </c>
       <c r="G111" s="2">
-        <v>177.000</v>
+        <v>167.000</v>
       </c>
       <c r="H111" s="3">
-        <v>6562.07</v>
+        <v>6191.34</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4925,10 +4925,10 @@
         <v>5</v>
       </c>
       <c r="G124" s="2">
-        <v>5.000</v>
+        <v>4.000</v>
       </c>
       <c r="H124" s="3">
-        <v>143.07</v>
+        <v>114.45</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4951,10 +4951,10 @@
         <v>5</v>
       </c>
       <c r="G125" s="2">
-        <v>602.000</v>
+        <v>596.000</v>
       </c>
       <c r="H125" s="3">
-        <v>3387.57</v>
+        <v>3369.11</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5107,10 +5107,10 @@
         <v>5</v>
       </c>
       <c r="G131" s="2">
-        <v>14.000</v>
+        <v>15.000</v>
       </c>
       <c r="H131" s="3">
-        <v>520.41</v>
+        <v>557.58</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5159,10 +5159,10 @@
         <v>5</v>
       </c>
       <c r="G133" s="2">
-        <v>27.000</v>
+        <v>31.000</v>
       </c>
       <c r="H133" s="3">
-        <v>5231.40</v>
+        <v>6006.42</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5211,10 +5211,10 @@
         <v>5</v>
       </c>
       <c r="G135" s="2">
-        <v>39.000</v>
+        <v>38.000</v>
       </c>
       <c r="H135" s="3">
-        <v>4009.01</v>
+        <v>3906.21</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5237,10 +5237,10 @@
         <v>5</v>
       </c>
       <c r="G136" s="2">
-        <v>249.000</v>
+        <v>201.000</v>
       </c>
       <c r="H136" s="3">
-        <v>83617.55</v>
+        <v>67498.68</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5341,10 +5341,10 @@
         <v>5</v>
       </c>
       <c r="G140" s="2">
-        <v>191.000</v>
+        <v>183.000</v>
       </c>
       <c r="H140" s="3">
-        <v>8972.17</v>
+        <v>8596.38</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5367,10 +5367,10 @@
         <v>5</v>
       </c>
       <c r="G141" s="2">
-        <v>8.000</v>
+        <v>7.000</v>
       </c>
       <c r="H141" s="3">
-        <v>1503.90</v>
+        <v>1315.92</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5809,10 +5809,10 @@
         <v>5</v>
       </c>
       <c r="G158" s="2">
-        <v>13.000</v>
+        <v>16.000</v>
       </c>
       <c r="H158" s="3">
-        <v>7000.10</v>
+        <v>8833.50</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5913,10 +5913,10 @@
         <v>5</v>
       </c>
       <c r="G162" s="2">
-        <v>164.000</v>
+        <v>163.000</v>
       </c>
       <c r="H162" s="3">
-        <v>960.22</v>
+        <v>954.37</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6095,10 +6095,10 @@
         <v>5</v>
       </c>
       <c r="G169" s="2">
-        <v>170.000</v>
+        <v>169.000</v>
       </c>
       <c r="H169" s="3">
-        <v>11929.58</v>
+        <v>11859.42</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6199,10 +6199,10 @@
         <v>5</v>
       </c>
       <c r="G173" s="2">
-        <v>185.000</v>
+        <v>189.000</v>
       </c>
       <c r="H173" s="3">
-        <v>6973.58</v>
+        <v>7124.35</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6251,10 +6251,10 @@
         <v>5</v>
       </c>
       <c r="G175" s="2">
-        <v>230.000</v>
+        <v>233.000</v>
       </c>
       <c r="H175" s="3">
-        <v>39693.26</v>
+        <v>40211.00</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6277,10 +6277,10 @@
         <v>5</v>
       </c>
       <c r="G176" s="2">
-        <v>262.000</v>
+        <v>299.000</v>
       </c>
       <c r="H176" s="3">
-        <v>8755.57</v>
+        <v>9992.04</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6433,10 +6433,10 @@
         <v>5</v>
       </c>
       <c r="G182" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H182" s="3">
-        <v>179.12</v>
+        <v>89.56</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6537,10 +6537,10 @@
         <v>5</v>
       </c>
       <c r="G186" s="2">
-        <v>53.000</v>
+        <v>52.000</v>
       </c>
       <c r="H186" s="3">
-        <v>2079.32</v>
+        <v>2040.08</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6563,10 +6563,10 @@
         <v>5</v>
       </c>
       <c r="G187" s="2">
-        <v>455.000</v>
+        <v>454.000</v>
       </c>
       <c r="H187" s="3">
-        <v>3278.07</v>
+        <v>3250.83</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6615,10 +6615,10 @@
         <v>5</v>
       </c>
       <c r="G189" s="2">
-        <v>781.000</v>
+        <v>725.000</v>
       </c>
       <c r="H189" s="3">
-        <v>5262.42</v>
+        <v>4895.92</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6667,10 +6667,10 @@
         <v>5</v>
       </c>
       <c r="G191" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H191" s="3">
-        <v>236.53</v>
+        <v>118.27</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6693,10 +6693,10 @@
         <v>5</v>
       </c>
       <c r="G192" s="2">
-        <v>3455.000</v>
+        <v>3552.000</v>
       </c>
       <c r="H192" s="3">
-        <v>34733.84</v>
+        <v>35820.99</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6719,10 +6719,10 @@
         <v>5</v>
       </c>
       <c r="G193" s="2">
-        <v>116.000</v>
+        <v>140.000</v>
       </c>
       <c r="H193" s="3">
-        <v>3137.41</v>
+        <v>3786.52</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6901,10 +6901,10 @@
         <v>5</v>
       </c>
       <c r="G200" s="2">
-        <v>23.000</v>
+        <v>24.000</v>
       </c>
       <c r="H200" s="3">
-        <v>11511.66</v>
+        <v>12012.17</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7161,10 +7161,10 @@
         <v>5</v>
       </c>
       <c r="G210" s="2">
-        <v>141.000</v>
+        <v>130.000</v>
       </c>
       <c r="H210" s="3">
-        <v>190.52</v>
+        <v>175.66</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7187,10 +7187,10 @@
         <v>52</v>
       </c>
       <c r="G211" s="2">
-        <v>69534.800</v>
+        <v>69808.600</v>
       </c>
       <c r="H211" s="3">
-        <v>163009.49</v>
+        <v>163651.36</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7239,10 +7239,10 @@
         <v>5</v>
       </c>
       <c r="G213" s="2">
-        <v>80.000</v>
+        <v>100.000</v>
       </c>
       <c r="H213" s="3">
-        <v>2851.51</v>
+        <v>3564.39</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7447,10 +7447,10 @@
         <v>5</v>
       </c>
       <c r="G221" s="2">
-        <v>288.000</v>
+        <v>303.000</v>
       </c>
       <c r="H221" s="3">
-        <v>15189.17</v>
+        <v>15980.27</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7473,10 +7473,10 @@
         <v>5</v>
       </c>
       <c r="G222" s="2">
-        <v>6081.000</v>
+        <v>6270.000</v>
       </c>
       <c r="H222" s="3">
-        <v>51446.08</v>
+        <v>53415.93</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7551,10 +7551,10 @@
         <v>5</v>
       </c>
       <c r="G225" s="2">
-        <v>101.000</v>
+        <v>119.000</v>
       </c>
       <c r="H225" s="3">
-        <v>27673.49</v>
+        <v>32605.40</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7655,10 +7655,10 @@
         <v>5</v>
       </c>
       <c r="G229" s="2">
-        <v>194.000</v>
+        <v>157.000</v>
       </c>
       <c r="H229" s="3">
-        <v>13823.42</v>
+        <v>11187.00</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7863,10 +7863,10 @@
         <v>5</v>
       </c>
       <c r="G237" s="2">
-        <v>5.000</v>
+        <v>4.000</v>
       </c>
       <c r="H237" s="3">
-        <v>128.99</v>
+        <v>103.20</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7915,10 +7915,10 @@
         <v>5</v>
       </c>
       <c r="G239" s="2">
-        <v>85.000</v>
+        <v>102.000</v>
       </c>
       <c r="H239" s="3">
-        <v>8045.60</v>
+        <v>9654.72</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7941,10 +7941,10 @@
         <v>5</v>
       </c>
       <c r="G240" s="2">
-        <v>57.000</v>
+        <v>58.000</v>
       </c>
       <c r="H240" s="3">
-        <v>5429.83</v>
+        <v>5525.09</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8097,10 +8097,10 @@
         <v>5</v>
       </c>
       <c r="G246" s="2">
-        <v>155.000</v>
+        <v>154.000</v>
       </c>
       <c r="H246" s="3">
-        <v>5260.96</v>
+        <v>5227.02</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8279,10 +8279,10 @@
         <v>5</v>
       </c>
       <c r="G253" s="2">
-        <v>39.000</v>
+        <v>43.000</v>
       </c>
       <c r="H253" s="3">
-        <v>1817.54</v>
+        <v>2003.95</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8305,10 +8305,10 @@
         <v>511</v>
       </c>
       <c r="G254" s="2">
-        <v>31.700</v>
+        <v>19500.000</v>
       </c>
       <c r="H254" s="3">
-        <v>47.23</v>
+        <v>29054.99</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="G255" s="5"/>
       <c r="H255" s="6">
-        <v>2313773.93</v>
+        <v>2481008.89</v>
       </c>
     </row>
   </sheetData>

--- a/estoque.XLSX
+++ b/estoque.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="516">
   <si>
     <t>0006</t>
   </si>
@@ -178,12 +178,6 @@
     <t>TUBO PBA DN 50 1,00 MPA JEI/JERI CM 6M</t>
   </si>
   <si>
-    <t>30028860</t>
-  </si>
-  <si>
-    <t>TUBO PVC RIG JEI/JERI ESG DN 300 CM 6M</t>
-  </si>
-  <si>
     <t>30028858</t>
   </si>
   <si>
@@ -994,12 +988,6 @@
     <t>UNIAO P/TUBO PEAD DE 32 MM</t>
   </si>
   <si>
-    <t>30003817</t>
-  </si>
-  <si>
-    <t>TUBO PVC RIG PB JEI/JERI ESG DN 300</t>
-  </si>
-  <si>
     <t>30003797</t>
   </si>
   <si>
@@ -1462,6 +1450,12 @@
     <t>JUNTA FLEX ESGOTO LUVA DN 200MM PVCXPVC</t>
   </si>
   <si>
+    <t>30000325</t>
+  </si>
+  <si>
+    <t>CURVA 45GR FF FLANGES DN300 PN10</t>
+  </si>
+  <si>
     <t>30000288</t>
   </si>
   <si>
@@ -1538,15 +1532,6 @@
   </si>
   <si>
     <t>COTOVELO 90 GR ELETROF DE 90 PE 100</t>
-  </si>
-  <si>
-    <t>10014709</t>
-  </si>
-  <si>
-    <t>REPARADOR ASFALTICO - SELAGEM DA BASE</t>
-  </si>
-  <si>
-    <t>KG</t>
   </si>
   <si>
     <t/>
@@ -1689,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H255"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1709,28 +1694,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1753,10 +1738,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>392.000</v>
+        <v>2729.000</v>
       </c>
       <c r="H2" s="3">
-        <v>1414.82</v>
+        <v>9795.46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1779,10 +1764,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <v>2725.000</v>
+        <v>2931.000</v>
       </c>
       <c r="H3" s="3">
-        <v>368445.03</v>
+        <v>403466.80</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1909,10 +1894,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>14.000</v>
+        <v>13.000</v>
       </c>
       <c r="H8" s="3">
-        <v>6105.07</v>
+        <v>5669.00</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1987,10 +1972,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>4364.000</v>
+        <v>4714.000</v>
       </c>
       <c r="H11" s="3">
-        <v>127200.94</v>
+        <v>137421.26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2013,10 +1998,10 @@
         <v>5</v>
       </c>
       <c r="G12" s="2">
-        <v>78.000</v>
+        <v>353.000</v>
       </c>
       <c r="H12" s="3">
-        <v>6660.45</v>
+        <v>30142.81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2117,10 +2102,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>1561.000</v>
+        <v>1488.000</v>
       </c>
       <c r="H16" s="3">
-        <v>133414.78</v>
+        <v>127175.57</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2221,10 +2206,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="2">
-        <v>2512.000</v>
+        <v>2558.000</v>
       </c>
       <c r="H20" s="3">
-        <v>212630.88</v>
+        <v>216525.27</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2299,10 +2284,10 @@
         <v>5</v>
       </c>
       <c r="G23" s="2">
-        <v>67.000</v>
+        <v>65.000</v>
       </c>
       <c r="H23" s="3">
-        <v>9779.87</v>
+        <v>9487.93</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2325,10 +2310,10 @@
         <v>5</v>
       </c>
       <c r="G24" s="2">
-        <v>158.000</v>
+        <v>127.000</v>
       </c>
       <c r="H24" s="3">
-        <v>71419.95</v>
+        <v>57407.84</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2354,7 +2339,7 @@
         <v>59.100</v>
       </c>
       <c r="H25" s="3">
-        <v>11926.19</v>
+        <v>10891.83</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2403,10 +2388,10 @@
         <v>52</v>
       </c>
       <c r="G27" s="2">
-        <v>104.830</v>
+        <v>427.700</v>
       </c>
       <c r="H27" s="3">
-        <v>15743.62</v>
+        <v>14555.29</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2429,10 +2414,10 @@
         <v>52</v>
       </c>
       <c r="G28" s="2">
-        <v>125.620</v>
+        <v>171.390</v>
       </c>
       <c r="H28" s="3">
-        <v>4537.73</v>
+        <v>3928.72</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2455,10 +2440,10 @@
         <v>52</v>
       </c>
       <c r="G29" s="2">
-        <v>192.890</v>
+        <v>5136.300</v>
       </c>
       <c r="H29" s="3">
-        <v>4668.51</v>
+        <v>55094.70</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2481,10 +2466,10 @@
         <v>52</v>
       </c>
       <c r="G30" s="2">
-        <v>1967.600</v>
+        <v>252.550</v>
       </c>
       <c r="H30" s="3">
-        <v>22398.54</v>
+        <v>22843.15</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2507,10 +2492,10 @@
         <v>52</v>
       </c>
       <c r="G31" s="2">
-        <v>354.000</v>
+        <v>66.600</v>
       </c>
       <c r="H31" s="3">
-        <v>32019.30</v>
+        <v>2152.36</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2530,13 +2515,13 @@
         <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2">
-        <v>67.000</v>
+        <v>3.000</v>
       </c>
       <c r="H32" s="3">
-        <v>2165.29</v>
+        <v>522.61</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2559,10 +2544,10 @@
         <v>5</v>
       </c>
       <c r="G33" s="2">
-        <v>3.000</v>
+        <v>274.000</v>
       </c>
       <c r="H33" s="3">
-        <v>522.61</v>
+        <v>5084.07</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2585,10 +2570,10 @@
         <v>5</v>
       </c>
       <c r="G34" s="2">
-        <v>284.000</v>
+        <v>30.000</v>
       </c>
       <c r="H34" s="3">
-        <v>5269.62</v>
+        <v>495.00</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2611,10 +2596,10 @@
         <v>5</v>
       </c>
       <c r="G35" s="2">
-        <v>30.000</v>
+        <v>12.000</v>
       </c>
       <c r="H35" s="3">
-        <v>495.00</v>
+        <v>2426.24</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2637,10 +2622,10 @@
         <v>5</v>
       </c>
       <c r="G36" s="2">
-        <v>12.000</v>
+        <v>4.000</v>
       </c>
       <c r="H36" s="3">
-        <v>2426.24</v>
+        <v>4802.74</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2663,10 +2648,10 @@
         <v>5</v>
       </c>
       <c r="G37" s="2">
-        <v>4.000</v>
+        <v>3.000</v>
       </c>
       <c r="H37" s="3">
-        <v>4802.74</v>
+        <v>1028.70</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2686,13 +2671,13 @@
         <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G38" s="2">
-        <v>3.000</v>
+        <v>6.000</v>
       </c>
       <c r="H38" s="3">
-        <v>1028.70</v>
+        <v>3106.60</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2715,10 +2700,10 @@
         <v>52</v>
       </c>
       <c r="G39" s="2">
-        <v>6.000</v>
+        <v>1000.300</v>
       </c>
       <c r="H39" s="3">
-        <v>3106.60</v>
+        <v>52172.96</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2738,13 +2723,13 @@
         <v>82</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G40" s="2">
-        <v>1000.300</v>
+        <v>1.000</v>
       </c>
       <c r="H40" s="3">
-        <v>52172.96</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2770,7 +2755,7 @@
         <v>1.000</v>
       </c>
       <c r="H41" s="3">
-        <v>29.64</v>
+        <v>726.22</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2793,10 +2778,10 @@
         <v>5</v>
       </c>
       <c r="G42" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="H42" s="3">
-        <v>726.22</v>
+        <v>651.09</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2819,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="G43" s="2">
-        <v>2.000</v>
+        <v>29.000</v>
       </c>
       <c r="H43" s="3">
-        <v>651.09</v>
+        <v>1159.28</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2845,10 +2830,10 @@
         <v>5</v>
       </c>
       <c r="G44" s="2">
-        <v>29.000</v>
+        <v>15.000</v>
       </c>
       <c r="H44" s="3">
-        <v>1159.28</v>
+        <v>1463.71</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2871,10 +2856,10 @@
         <v>5</v>
       </c>
       <c r="G45" s="2">
-        <v>15.000</v>
+        <v>8.000</v>
       </c>
       <c r="H45" s="3">
-        <v>1463.71</v>
+        <v>1141.60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2897,10 +2882,10 @@
         <v>5</v>
       </c>
       <c r="G46" s="2">
-        <v>8.000</v>
+        <v>4.000</v>
       </c>
       <c r="H46" s="3">
-        <v>1141.60</v>
+        <v>80.29</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2923,10 +2908,10 @@
         <v>5</v>
       </c>
       <c r="G47" s="2">
-        <v>4.000</v>
+        <v>9.000</v>
       </c>
       <c r="H47" s="3">
-        <v>80.29</v>
+        <v>488.13</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2949,10 +2934,10 @@
         <v>5</v>
       </c>
       <c r="G48" s="2">
-        <v>9.000</v>
+        <v>21.000</v>
       </c>
       <c r="H48" s="3">
-        <v>488.13</v>
+        <v>2320.22</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2975,10 +2960,10 @@
         <v>5</v>
       </c>
       <c r="G49" s="2">
-        <v>32.000</v>
+        <v>1.000</v>
       </c>
       <c r="H49" s="3">
-        <v>3535.57</v>
+        <v>131.57</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3001,10 +2986,10 @@
         <v>5</v>
       </c>
       <c r="G50" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="H50" s="3">
-        <v>131.56</v>
+        <v>286.67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3027,10 +3012,10 @@
         <v>5</v>
       </c>
       <c r="G51" s="2">
-        <v>3.000</v>
+        <v>32.000</v>
       </c>
       <c r="H51" s="3">
-        <v>172.00</v>
+        <v>2524.88</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3053,10 +3038,10 @@
         <v>5</v>
       </c>
       <c r="G52" s="2">
-        <v>32.000</v>
+        <v>16.000</v>
       </c>
       <c r="H52" s="3">
-        <v>2524.88</v>
+        <v>348.11</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3079,10 +3064,10 @@
         <v>5</v>
       </c>
       <c r="G53" s="2">
-        <v>16.000</v>
+        <v>55.000</v>
       </c>
       <c r="H53" s="3">
-        <v>348.11</v>
+        <v>15180.21</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3102,13 +3087,13 @@
         <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G54" s="2">
-        <v>55.000</v>
+        <v>194.900</v>
       </c>
       <c r="H54" s="3">
-        <v>13859.03</v>
+        <v>4186.83</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3131,10 +3116,10 @@
         <v>52</v>
       </c>
       <c r="G55" s="2">
-        <v>194.900</v>
+        <v>2656.200</v>
       </c>
       <c r="H55" s="3">
-        <v>4186.83</v>
+        <v>99870.50</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3157,10 +3142,10 @@
         <v>52</v>
       </c>
       <c r="G56" s="2">
-        <v>2656.200</v>
+        <v>2581.670</v>
       </c>
       <c r="H56" s="3">
-        <v>99870.50</v>
+        <v>10316.17</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3183,10 +3168,10 @@
         <v>52</v>
       </c>
       <c r="G57" s="2">
-        <v>2538.670</v>
+        <v>11.000</v>
       </c>
       <c r="H57" s="3">
-        <v>10146.19</v>
+        <v>974.64</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3206,13 +3191,13 @@
         <v>118</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G58" s="2">
-        <v>11.000</v>
+        <v>17.000</v>
       </c>
       <c r="H58" s="3">
-        <v>974.64</v>
+        <v>7823.48</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3235,10 +3220,10 @@
         <v>5</v>
       </c>
       <c r="G59" s="2">
-        <v>17.000</v>
+        <v>1.000</v>
       </c>
       <c r="H59" s="3">
-        <v>7823.48</v>
+        <v>3716.19</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3264,7 +3249,7 @@
         <v>1.000</v>
       </c>
       <c r="H60" s="3">
-        <v>3716.19</v>
+        <v>1728.34</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3287,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="G61" s="2">
-        <v>1.000</v>
+        <v>18.000</v>
       </c>
       <c r="H61" s="3">
-        <v>1728.34</v>
+        <v>10190.72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3313,10 +3298,10 @@
         <v>5</v>
       </c>
       <c r="G62" s="2">
-        <v>18.000</v>
+        <v>8.000</v>
       </c>
       <c r="H62" s="3">
-        <v>10190.72</v>
+        <v>2259.05</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3339,10 +3324,10 @@
         <v>5</v>
       </c>
       <c r="G63" s="2">
-        <v>8.000</v>
+        <v>6.000</v>
       </c>
       <c r="H63" s="3">
-        <v>2259.05</v>
+        <v>2371.80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3365,10 +3350,10 @@
         <v>5</v>
       </c>
       <c r="G64" s="2">
-        <v>6.000</v>
+        <v>7.000</v>
       </c>
       <c r="H64" s="3">
-        <v>2371.80</v>
+        <v>3709.63</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3391,10 +3376,10 @@
         <v>5</v>
       </c>
       <c r="G65" s="2">
-        <v>7.000</v>
+        <v>90.000</v>
       </c>
       <c r="H65" s="3">
-        <v>3709.63</v>
+        <v>495.81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3414,13 +3399,13 @@
         <v>134</v>
       </c>
       <c r="F66" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G66" s="2">
-        <v>90.000</v>
+        <v>11.000</v>
       </c>
       <c r="H66" s="3">
-        <v>495.81</v>
+        <v>1901.67</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3443,10 +3428,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="2">
-        <v>11.000</v>
+        <v>46.000</v>
       </c>
       <c r="H67" s="3">
-        <v>1901.67</v>
+        <v>4359.41</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3469,10 +3454,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="2">
-        <v>46.000</v>
+        <v>14.000</v>
       </c>
       <c r="H68" s="3">
-        <v>4359.41</v>
+        <v>3702.16</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3492,13 +3477,13 @@
         <v>140</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G69" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H69" s="3">
-        <v>528.88</v>
+        <v>257.36</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3521,10 +3506,10 @@
         <v>5</v>
       </c>
       <c r="G70" s="2">
-        <v>1.000</v>
+        <v>19.000</v>
       </c>
       <c r="H70" s="3">
-        <v>257.36</v>
+        <v>1201.67</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3547,10 +3532,10 @@
         <v>5</v>
       </c>
       <c r="G71" s="2">
-        <v>19.000</v>
+        <v>434.000</v>
       </c>
       <c r="H71" s="3">
-        <v>1201.67</v>
+        <v>9776.42</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3573,10 +3558,10 @@
         <v>5</v>
       </c>
       <c r="G72" s="2">
-        <v>433.000</v>
+        <v>2.000</v>
       </c>
       <c r="H72" s="3">
-        <v>9753.91</v>
+        <v>8149.76</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3599,10 +3584,10 @@
         <v>5</v>
       </c>
       <c r="G73" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H73" s="3">
-        <v>8149.76</v>
+        <v>348.30</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3625,10 +3610,10 @@
         <v>5</v>
       </c>
       <c r="G74" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="H74" s="3">
-        <v>348.30</v>
+        <v>1088.09</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3651,10 +3636,10 @@
         <v>5</v>
       </c>
       <c r="G75" s="2">
-        <v>3.000</v>
+        <v>19.000</v>
       </c>
       <c r="H75" s="3">
-        <v>1088.09</v>
+        <v>1177.09</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3677,10 +3662,10 @@
         <v>5</v>
       </c>
       <c r="G76" s="2">
-        <v>15.000</v>
+        <v>1.000</v>
       </c>
       <c r="H76" s="3">
-        <v>904.90</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3703,10 +3688,10 @@
         <v>5</v>
       </c>
       <c r="G77" s="2">
-        <v>1.000</v>
+        <v>43.000</v>
       </c>
       <c r="H77" s="3">
-        <v>23.34</v>
+        <v>544.57</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3729,10 +3714,10 @@
         <v>5</v>
       </c>
       <c r="G78" s="2">
-        <v>43.000</v>
+        <v>87.000</v>
       </c>
       <c r="H78" s="3">
-        <v>544.57</v>
+        <v>16216.73</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3755,10 +3740,10 @@
         <v>5</v>
       </c>
       <c r="G79" s="2">
-        <v>82.000</v>
+        <v>315.000</v>
       </c>
       <c r="H79" s="3">
-        <v>15284.74</v>
+        <v>5303.82</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3781,10 +3766,10 @@
         <v>5</v>
       </c>
       <c r="G80" s="2">
-        <v>315.000</v>
+        <v>4.000</v>
       </c>
       <c r="H80" s="3">
-        <v>5460.75</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3807,10 +3792,10 @@
         <v>5</v>
       </c>
       <c r="G81" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="H81" s="3">
-        <v>290.31</v>
+        <v>830.65</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3833,10 +3818,10 @@
         <v>5</v>
       </c>
       <c r="G82" s="2">
-        <v>1.000</v>
+        <v>44.000</v>
       </c>
       <c r="H82" s="3">
-        <v>830.65</v>
+        <v>4026.51</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3859,10 +3844,10 @@
         <v>5</v>
       </c>
       <c r="G83" s="2">
-        <v>40.000</v>
+        <v>9.000</v>
       </c>
       <c r="H83" s="3">
-        <v>3660.46</v>
+        <v>214.33</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3885,10 +3870,10 @@
         <v>5</v>
       </c>
       <c r="G84" s="2">
-        <v>9.000</v>
+        <v>2.000</v>
       </c>
       <c r="H84" s="3">
-        <v>214.33</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3911,10 +3896,10 @@
         <v>5</v>
       </c>
       <c r="G85" s="2">
-        <v>2.000</v>
+        <v>6.000</v>
       </c>
       <c r="H85" s="3">
-        <v>120.85</v>
+        <v>1598.51</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3937,10 +3922,10 @@
         <v>5</v>
       </c>
       <c r="G86" s="2">
-        <v>6.000</v>
+        <v>4276.000</v>
       </c>
       <c r="H86" s="3">
-        <v>1598.51</v>
+        <v>78214.31</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3963,10 +3948,10 @@
         <v>5</v>
       </c>
       <c r="G87" s="2">
-        <v>4263.000</v>
+        <v>7.000</v>
       </c>
       <c r="H87" s="3">
-        <v>77976.62</v>
+        <v>2196.40</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3989,10 +3974,10 @@
         <v>5</v>
       </c>
       <c r="G88" s="2">
-        <v>6.000</v>
+        <v>3.000</v>
       </c>
       <c r="H88" s="3">
-        <v>1882.63</v>
+        <v>2778.04</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4015,10 +4000,10 @@
         <v>5</v>
       </c>
       <c r="G89" s="2">
-        <v>3.000</v>
+        <v>4.000</v>
       </c>
       <c r="H89" s="3">
-        <v>2778.04</v>
+        <v>4210.12</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4041,10 +4026,10 @@
         <v>5</v>
       </c>
       <c r="G90" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="H90" s="3">
-        <v>6315.18</v>
+        <v>1275.59</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4067,10 +4052,10 @@
         <v>5</v>
       </c>
       <c r="G91" s="2">
-        <v>2.000</v>
+        <v>13.000</v>
       </c>
       <c r="H91" s="3">
-        <v>1275.59</v>
+        <v>1978.98</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4093,10 +4078,10 @@
         <v>5</v>
       </c>
       <c r="G92" s="2">
-        <v>13.000</v>
+        <v>4.000</v>
       </c>
       <c r="H92" s="3">
-        <v>1978.99</v>
+        <v>318.30</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4119,10 +4104,10 @@
         <v>5</v>
       </c>
       <c r="G93" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="H93" s="3">
-        <v>318.30</v>
+        <v>194.13</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4145,10 +4130,10 @@
         <v>5</v>
       </c>
       <c r="G94" s="2">
-        <v>1.000</v>
+        <v>34.000</v>
       </c>
       <c r="H94" s="3">
-        <v>194.13</v>
+        <v>517.12</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4171,10 +4156,10 @@
         <v>5</v>
       </c>
       <c r="G95" s="2">
-        <v>32.000</v>
+        <v>26.000</v>
       </c>
       <c r="H95" s="3">
-        <v>486.71</v>
+        <v>148.53</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4197,10 +4182,10 @@
         <v>5</v>
       </c>
       <c r="G96" s="2">
-        <v>63.000</v>
+        <v>15.000</v>
       </c>
       <c r="H96" s="3">
-        <v>359.88</v>
+        <v>21635.48</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4223,10 +4208,10 @@
         <v>5</v>
       </c>
       <c r="G97" s="2">
-        <v>15.000</v>
+        <v>2.000</v>
       </c>
       <c r="H97" s="3">
-        <v>21635.48</v>
+        <v>3894.45</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4249,10 +4234,10 @@
         <v>5</v>
       </c>
       <c r="G98" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="H98" s="3">
-        <v>3894.45</v>
+        <v>4003.21</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4275,10 +4260,10 @@
         <v>5</v>
       </c>
       <c r="G99" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="H99" s="3">
-        <v>4003.21</v>
+        <v>1231.93</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4301,10 +4286,10 @@
         <v>5</v>
       </c>
       <c r="G100" s="2">
-        <v>1.000</v>
+        <v>8.000</v>
       </c>
       <c r="H100" s="3">
-        <v>1231.93</v>
+        <v>644.26</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4327,10 +4312,10 @@
         <v>5</v>
       </c>
       <c r="G101" s="2">
-        <v>8.000</v>
+        <v>47.000</v>
       </c>
       <c r="H101" s="3">
-        <v>644.26</v>
+        <v>6177.87</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4353,10 +4338,10 @@
         <v>5</v>
       </c>
       <c r="G102" s="2">
-        <v>49.000</v>
+        <v>42.000</v>
       </c>
       <c r="H102" s="3">
-        <v>6440.76</v>
+        <v>3630.70</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4379,10 +4364,10 @@
         <v>5</v>
       </c>
       <c r="G103" s="2">
-        <v>44.000</v>
+        <v>12.000</v>
       </c>
       <c r="H103" s="3">
-        <v>3803.60</v>
+        <v>1433.47</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4405,10 +4390,10 @@
         <v>5</v>
       </c>
       <c r="G104" s="2">
-        <v>12.000</v>
+        <v>25.000</v>
       </c>
       <c r="H104" s="3">
-        <v>1433.47</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4431,10 +4416,10 @@
         <v>5</v>
       </c>
       <c r="G105" s="2">
-        <v>25.000</v>
+        <v>2.000</v>
       </c>
       <c r="H105" s="3">
-        <v>116.25</v>
+        <v>223.74</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4457,10 +4442,10 @@
         <v>5</v>
       </c>
       <c r="G106" s="2">
-        <v>2.000</v>
+        <v>479.000</v>
       </c>
       <c r="H106" s="3">
-        <v>223.74</v>
+        <v>2021.92</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4483,10 +4468,10 @@
         <v>5</v>
       </c>
       <c r="G107" s="2">
-        <v>429.000</v>
+        <v>3.000</v>
       </c>
       <c r="H107" s="3">
-        <v>1810.86</v>
+        <v>82.99</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4509,10 +4494,10 @@
         <v>5</v>
       </c>
       <c r="G108" s="2">
-        <v>3.000</v>
+        <v>49.000</v>
       </c>
       <c r="H108" s="3">
-        <v>82.99</v>
+        <v>1654.44</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4535,10 +4520,10 @@
         <v>5</v>
       </c>
       <c r="G109" s="2">
-        <v>49.000</v>
+        <v>110.000</v>
       </c>
       <c r="H109" s="3">
-        <v>1654.44</v>
+        <v>5466.50</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4561,10 +4546,10 @@
         <v>5</v>
       </c>
       <c r="G110" s="2">
-        <v>112.000</v>
+        <v>170.000</v>
       </c>
       <c r="H110" s="3">
-        <v>5565.89</v>
+        <v>6302.57</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4587,10 +4572,10 @@
         <v>5</v>
       </c>
       <c r="G111" s="2">
-        <v>167.000</v>
+        <v>10.000</v>
       </c>
       <c r="H111" s="3">
-        <v>6191.34</v>
+        <v>2229.94</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4613,10 +4598,10 @@
         <v>5</v>
       </c>
       <c r="G112" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="H112" s="3">
-        <v>2229.94</v>
+        <v>370.49</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4642,7 +4627,7 @@
         <v>1.000</v>
       </c>
       <c r="H113" s="3">
-        <v>370.49</v>
+        <v>279.59</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4665,10 +4650,10 @@
         <v>5</v>
       </c>
       <c r="G114" s="2">
-        <v>1.000</v>
+        <v>13.000</v>
       </c>
       <c r="H114" s="3">
-        <v>279.59</v>
+        <v>1460.31</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4691,10 +4676,10 @@
         <v>5</v>
       </c>
       <c r="G115" s="2">
-        <v>13.000</v>
+        <v>8.000</v>
       </c>
       <c r="H115" s="3">
-        <v>1460.31</v>
+        <v>1484.30</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4717,10 +4702,10 @@
         <v>5</v>
       </c>
       <c r="G116" s="2">
-        <v>8.000</v>
+        <v>2.000</v>
       </c>
       <c r="H116" s="3">
-        <v>1484.29</v>
+        <v>316.21</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4743,10 +4728,10 @@
         <v>5</v>
       </c>
       <c r="G117" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="H117" s="3">
-        <v>158.11</v>
+        <v>651.71</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4769,10 +4754,10 @@
         <v>5</v>
       </c>
       <c r="G118" s="2">
-        <v>3.000</v>
+        <v>5.000</v>
       </c>
       <c r="H118" s="3">
-        <v>651.71</v>
+        <v>383.07</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4795,10 +4780,10 @@
         <v>5</v>
       </c>
       <c r="G119" s="2">
-        <v>5.000</v>
+        <v>26.000</v>
       </c>
       <c r="H119" s="3">
-        <v>383.07</v>
+        <v>2376.59</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4821,10 +4806,10 @@
         <v>5</v>
       </c>
       <c r="G120" s="2">
-        <v>26.000</v>
+        <v>1.000</v>
       </c>
       <c r="H120" s="3">
-        <v>2376.59</v>
+        <v>53.60</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4847,10 +4832,10 @@
         <v>5</v>
       </c>
       <c r="G121" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="H121" s="3">
-        <v>53.60</v>
+        <v>303.21</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4873,10 +4858,10 @@
         <v>5</v>
       </c>
       <c r="G122" s="2">
-        <v>3.000</v>
+        <v>47.000</v>
       </c>
       <c r="H122" s="3">
-        <v>454.82</v>
+        <v>2684.91</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4899,10 +4884,10 @@
         <v>5</v>
       </c>
       <c r="G123" s="2">
-        <v>47.000</v>
+        <v>6.000</v>
       </c>
       <c r="H123" s="3">
-        <v>2684.91</v>
+        <v>171.68</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4925,10 +4910,10 @@
         <v>5</v>
       </c>
       <c r="G124" s="2">
-        <v>4.000</v>
+        <v>932.000</v>
       </c>
       <c r="H124" s="3">
-        <v>114.45</v>
+        <v>5040.61</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4951,10 +4936,10 @@
         <v>5</v>
       </c>
       <c r="G125" s="2">
-        <v>596.000</v>
+        <v>19.000</v>
       </c>
       <c r="H125" s="3">
-        <v>3369.11</v>
+        <v>1071.31</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4977,10 +4962,10 @@
         <v>5</v>
       </c>
       <c r="G126" s="2">
-        <v>19.000</v>
+        <v>11.000</v>
       </c>
       <c r="H126" s="3">
-        <v>1071.31</v>
+        <v>1357.53</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5003,10 +4988,10 @@
         <v>5</v>
       </c>
       <c r="G127" s="2">
-        <v>11.000</v>
+        <v>3.000</v>
       </c>
       <c r="H127" s="3">
-        <v>1357.53</v>
+        <v>743.93</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5029,10 +5014,10 @@
         <v>5</v>
       </c>
       <c r="G128" s="2">
-        <v>7.000</v>
+        <v>23.000</v>
       </c>
       <c r="H128" s="3">
-        <v>1735.84</v>
+        <v>2437.98</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5055,10 +5040,10 @@
         <v>5</v>
       </c>
       <c r="G129" s="2">
-        <v>24.000</v>
+        <v>1.000</v>
       </c>
       <c r="H129" s="3">
-        <v>2489.07</v>
+        <v>214.67</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5081,10 +5066,10 @@
         <v>5</v>
       </c>
       <c r="G130" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="H130" s="3">
-        <v>214.67</v>
+        <v>557.58</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5107,10 +5092,10 @@
         <v>5</v>
       </c>
       <c r="G131" s="2">
-        <v>15.000</v>
+        <v>11.000</v>
       </c>
       <c r="H131" s="3">
-        <v>557.58</v>
+        <v>245.73</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5133,10 +5118,10 @@
         <v>5</v>
       </c>
       <c r="G132" s="2">
-        <v>11.000</v>
+        <v>31.000</v>
       </c>
       <c r="H132" s="3">
-        <v>245.73</v>
+        <v>6006.42</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5159,10 +5144,10 @@
         <v>5</v>
       </c>
       <c r="G133" s="2">
-        <v>31.000</v>
+        <v>1.000</v>
       </c>
       <c r="H133" s="3">
-        <v>6006.42</v>
+        <v>456.42</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5185,10 +5170,10 @@
         <v>5</v>
       </c>
       <c r="G134" s="2">
-        <v>1.000</v>
+        <v>38.000</v>
       </c>
       <c r="H134" s="3">
-        <v>456.42</v>
+        <v>3906.21</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5211,10 +5196,10 @@
         <v>5</v>
       </c>
       <c r="G135" s="2">
-        <v>38.000</v>
+        <v>205.000</v>
       </c>
       <c r="H135" s="3">
-        <v>3906.21</v>
+        <v>68841.95</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5237,10 +5222,10 @@
         <v>5</v>
       </c>
       <c r="G136" s="2">
-        <v>201.000</v>
+        <v>173.000</v>
       </c>
       <c r="H136" s="3">
-        <v>67498.68</v>
+        <v>27427.88</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5263,10 +5248,10 @@
         <v>5</v>
       </c>
       <c r="G137" s="2">
-        <v>174.000</v>
+        <v>15.000</v>
       </c>
       <c r="H137" s="3">
-        <v>27586.42</v>
+        <v>476.00</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5289,10 +5274,10 @@
         <v>5</v>
       </c>
       <c r="G138" s="2">
-        <v>15.000</v>
+        <v>1.000</v>
       </c>
       <c r="H138" s="3">
-        <v>476.00</v>
+        <v>1940.18</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5315,10 +5300,10 @@
         <v>5</v>
       </c>
       <c r="G139" s="2">
-        <v>1.000</v>
+        <v>217.000</v>
       </c>
       <c r="H139" s="3">
-        <v>1940.18</v>
+        <v>10193.51</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5341,10 +5326,10 @@
         <v>5</v>
       </c>
       <c r="G140" s="2">
-        <v>183.000</v>
+        <v>7.000</v>
       </c>
       <c r="H140" s="3">
-        <v>8596.38</v>
+        <v>1315.91</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5370,7 +5355,7 @@
         <v>7.000</v>
       </c>
       <c r="H141" s="3">
-        <v>1315.92</v>
+        <v>2794.33</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5393,10 +5378,10 @@
         <v>5</v>
       </c>
       <c r="G142" s="2">
-        <v>7.000</v>
+        <v>1.000</v>
       </c>
       <c r="H142" s="3">
-        <v>2794.33</v>
+        <v>294.12</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5419,10 +5404,10 @@
         <v>5</v>
       </c>
       <c r="G143" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="H143" s="3">
-        <v>294.12</v>
+        <v>245.58</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5445,10 +5430,10 @@
         <v>5</v>
       </c>
       <c r="G144" s="2">
-        <v>5.000</v>
+        <v>2.000</v>
       </c>
       <c r="H144" s="3">
-        <v>245.58</v>
+        <v>515.79</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5471,10 +5456,10 @@
         <v>5</v>
       </c>
       <c r="G145" s="2">
-        <v>2.000</v>
+        <v>5.000</v>
       </c>
       <c r="H145" s="3">
-        <v>515.79</v>
+        <v>259.00</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5497,10 +5482,10 @@
         <v>5</v>
       </c>
       <c r="G146" s="2">
-        <v>5.000</v>
+        <v>11.000</v>
       </c>
       <c r="H146" s="3">
-        <v>259.00</v>
+        <v>464.62</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5523,10 +5508,10 @@
         <v>5</v>
       </c>
       <c r="G147" s="2">
-        <v>11.000</v>
+        <v>12.000</v>
       </c>
       <c r="H147" s="3">
-        <v>464.62</v>
+        <v>6788.63</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5549,10 +5534,10 @@
         <v>5</v>
       </c>
       <c r="G148" s="2">
-        <v>12.000</v>
+        <v>2.000</v>
       </c>
       <c r="H148" s="3">
-        <v>6788.63</v>
+        <v>77.91</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5575,10 +5560,10 @@
         <v>5</v>
       </c>
       <c r="G149" s="2">
-        <v>2.000</v>
+        <v>13.000</v>
       </c>
       <c r="H149" s="3">
-        <v>77.91</v>
+        <v>1268.55</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5601,10 +5586,10 @@
         <v>5</v>
       </c>
       <c r="G150" s="2">
-        <v>13.000</v>
+        <v>100.000</v>
       </c>
       <c r="H150" s="3">
-        <v>1268.55</v>
+        <v>127.69</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5627,10 +5612,10 @@
         <v>5</v>
       </c>
       <c r="G151" s="2">
-        <v>100.000</v>
+        <v>2.000</v>
       </c>
       <c r="H151" s="3">
-        <v>127.69</v>
+        <v>500.31</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5653,10 +5638,10 @@
         <v>5</v>
       </c>
       <c r="G152" s="2">
-        <v>2.000</v>
+        <v>14.000</v>
       </c>
       <c r="H152" s="3">
-        <v>500.31</v>
+        <v>3582.87</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5679,10 +5664,10 @@
         <v>5</v>
       </c>
       <c r="G153" s="2">
-        <v>14.000</v>
+        <v>2.000</v>
       </c>
       <c r="H153" s="3">
-        <v>3103.54</v>
+        <v>2633.80</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5702,13 +5687,13 @@
         <v>310</v>
       </c>
       <c r="F154" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G154" s="2">
-        <v>2.000</v>
+        <v>20.300</v>
       </c>
       <c r="H154" s="3">
-        <v>2279.04</v>
+        <v>6816.84</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5731,10 +5716,10 @@
         <v>52</v>
       </c>
       <c r="G155" s="2">
-        <v>8.300</v>
+        <v>6.000</v>
       </c>
       <c r="H155" s="3">
-        <v>2787.18</v>
+        <v>2277.93</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5754,13 +5739,13 @@
         <v>314</v>
       </c>
       <c r="F156" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G156" s="2">
-        <v>6.000</v>
+        <v>5.000</v>
       </c>
       <c r="H156" s="3">
-        <v>2277.93</v>
+        <v>2725.89</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5783,10 +5768,10 @@
         <v>5</v>
       </c>
       <c r="G157" s="2">
-        <v>5.000</v>
+        <v>16.000</v>
       </c>
       <c r="H157" s="3">
-        <v>2725.89</v>
+        <v>8833.50</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5809,10 +5794,10 @@
         <v>5</v>
       </c>
       <c r="G158" s="2">
-        <v>16.000</v>
+        <v>1.000</v>
       </c>
       <c r="H158" s="3">
-        <v>8833.50</v>
+        <v>939.61</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5838,7 +5823,7 @@
         <v>1.000</v>
       </c>
       <c r="H159" s="3">
-        <v>939.61</v>
+        <v>6585.02</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5861,10 +5846,10 @@
         <v>5</v>
       </c>
       <c r="G160" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="H160" s="3">
-        <v>6585.02</v>
+        <v>6465.22</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5887,10 +5872,10 @@
         <v>5</v>
       </c>
       <c r="G161" s="2">
-        <v>15.000</v>
+        <v>148.000</v>
       </c>
       <c r="H161" s="3">
-        <v>6465.22</v>
+        <v>866.54</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5910,13 +5895,13 @@
         <v>326</v>
       </c>
       <c r="F162" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G162" s="2">
-        <v>163.000</v>
+        <v>47.250</v>
       </c>
       <c r="H162" s="3">
-        <v>954.37</v>
+        <v>5148.59</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5936,13 +5921,13 @@
         <v>328</v>
       </c>
       <c r="F163" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G163" s="2">
-        <v>1.820</v>
+        <v>4.000</v>
       </c>
       <c r="H163" s="3">
-        <v>124.48</v>
+        <v>280.00</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5962,13 +5947,13 @@
         <v>330</v>
       </c>
       <c r="F164" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G164" s="2">
-        <v>47.250</v>
+        <v>11.000</v>
       </c>
       <c r="H164" s="3">
-        <v>5148.59</v>
+        <v>832.21</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5991,10 +5976,10 @@
         <v>5</v>
       </c>
       <c r="G165" s="2">
-        <v>4.000</v>
+        <v>5.000</v>
       </c>
       <c r="H165" s="3">
-        <v>280.00</v>
+        <v>718.30</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6017,10 +6002,10 @@
         <v>5</v>
       </c>
       <c r="G166" s="2">
-        <v>11.000</v>
+        <v>2.000</v>
       </c>
       <c r="H166" s="3">
-        <v>832.21</v>
+        <v>801.31</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6043,10 +6028,10 @@
         <v>5</v>
       </c>
       <c r="G167" s="2">
-        <v>5.000</v>
+        <v>169.000</v>
       </c>
       <c r="H167" s="3">
-        <v>718.30</v>
+        <v>11799.62</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6069,10 +6054,10 @@
         <v>5</v>
       </c>
       <c r="G168" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H168" s="3">
-        <v>801.31</v>
+        <v>111.86</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6095,10 +6080,10 @@
         <v>5</v>
       </c>
       <c r="G169" s="2">
-        <v>169.000</v>
+        <v>1.000</v>
       </c>
       <c r="H169" s="3">
-        <v>11859.42</v>
+        <v>179.29</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6121,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="G170" s="2">
-        <v>1.000</v>
+        <v>60.000</v>
       </c>
       <c r="H170" s="3">
-        <v>111.86</v>
+        <v>1004.55</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6147,10 +6132,10 @@
         <v>5</v>
       </c>
       <c r="G171" s="2">
-        <v>1.000</v>
+        <v>191.000</v>
       </c>
       <c r="H171" s="3">
-        <v>179.29</v>
+        <v>7199.74</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6173,10 +6158,10 @@
         <v>5</v>
       </c>
       <c r="G172" s="2">
-        <v>60.000</v>
+        <v>3.000</v>
       </c>
       <c r="H172" s="3">
-        <v>1004.55</v>
+        <v>840.40</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6199,10 +6184,10 @@
         <v>5</v>
       </c>
       <c r="G173" s="2">
-        <v>189.000</v>
+        <v>239.000</v>
       </c>
       <c r="H173" s="3">
-        <v>7124.35</v>
+        <v>41733.94</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6225,10 +6210,10 @@
         <v>5</v>
       </c>
       <c r="G174" s="2">
-        <v>3.000</v>
+        <v>343.000</v>
       </c>
       <c r="H174" s="3">
-        <v>840.40</v>
+        <v>11552.02</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6251,10 +6236,10 @@
         <v>5</v>
       </c>
       <c r="G175" s="2">
-        <v>233.000</v>
+        <v>1.000</v>
       </c>
       <c r="H175" s="3">
-        <v>40211.00</v>
+        <v>91.20</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6277,10 +6262,10 @@
         <v>5</v>
       </c>
       <c r="G176" s="2">
-        <v>299.000</v>
+        <v>2.000</v>
       </c>
       <c r="H176" s="3">
-        <v>9992.04</v>
+        <v>1166.57</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6303,10 +6288,10 @@
         <v>5</v>
       </c>
       <c r="G177" s="2">
-        <v>1.000</v>
+        <v>11.000</v>
       </c>
       <c r="H177" s="3">
-        <v>91.20</v>
+        <v>19946.35</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6329,10 +6314,10 @@
         <v>5</v>
       </c>
       <c r="G178" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H178" s="3">
-        <v>1166.57</v>
+        <v>40.71</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6355,10 +6340,10 @@
         <v>5</v>
       </c>
       <c r="G179" s="2">
-        <v>11.000</v>
+        <v>10.000</v>
       </c>
       <c r="H179" s="3">
-        <v>19946.35</v>
+        <v>374.15</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6384,7 +6369,7 @@
         <v>1.000</v>
       </c>
       <c r="H180" s="3">
-        <v>40.71</v>
+        <v>89.56</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6407,10 +6392,10 @@
         <v>5</v>
       </c>
       <c r="G181" s="2">
-        <v>10.000</v>
+        <v>27.000</v>
       </c>
       <c r="H181" s="3">
-        <v>374.15</v>
+        <v>7541.92</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6433,10 +6418,10 @@
         <v>5</v>
       </c>
       <c r="G182" s="2">
-        <v>1.000</v>
+        <v>10.000</v>
       </c>
       <c r="H182" s="3">
-        <v>89.56</v>
+        <v>4191.85</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6462,7 +6447,7 @@
         <v>27.000</v>
       </c>
       <c r="H183" s="3">
-        <v>7541.92</v>
+        <v>2129.31</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6485,10 +6470,10 @@
         <v>5</v>
       </c>
       <c r="G184" s="2">
-        <v>10.000</v>
+        <v>51.000</v>
       </c>
       <c r="H184" s="3">
-        <v>4191.85</v>
+        <v>2000.85</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6511,10 +6496,10 @@
         <v>5</v>
       </c>
       <c r="G185" s="2">
-        <v>27.000</v>
+        <v>446.000</v>
       </c>
       <c r="H185" s="3">
-        <v>2014.86</v>
+        <v>3213.30</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6537,10 +6522,10 @@
         <v>5</v>
       </c>
       <c r="G186" s="2">
-        <v>52.000</v>
+        <v>1.000</v>
       </c>
       <c r="H186" s="3">
-        <v>2040.08</v>
+        <v>3996.64</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6563,10 +6548,10 @@
         <v>5</v>
       </c>
       <c r="G187" s="2">
-        <v>454.000</v>
+        <v>903.000</v>
       </c>
       <c r="H187" s="3">
-        <v>3250.83</v>
+        <v>6097.97</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6589,10 +6574,10 @@
         <v>5</v>
       </c>
       <c r="G188" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="H188" s="3">
-        <v>3349.43</v>
+        <v>447.91</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6615,10 +6600,10 @@
         <v>5</v>
       </c>
       <c r="G189" s="2">
-        <v>725.000</v>
+        <v>1.000</v>
       </c>
       <c r="H189" s="3">
-        <v>4895.92</v>
+        <v>118.27</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6641,10 +6626,10 @@
         <v>5</v>
       </c>
       <c r="G190" s="2">
-        <v>4.000</v>
+        <v>3607.000</v>
       </c>
       <c r="H190" s="3">
-        <v>447.91</v>
+        <v>36375.55</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6667,10 +6652,10 @@
         <v>5</v>
       </c>
       <c r="G191" s="2">
-        <v>1.000</v>
+        <v>140.000</v>
       </c>
       <c r="H191" s="3">
-        <v>118.27</v>
+        <v>3786.52</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6693,10 +6678,10 @@
         <v>5</v>
       </c>
       <c r="G192" s="2">
-        <v>3552.000</v>
+        <v>16.000</v>
       </c>
       <c r="H192" s="3">
-        <v>35820.99</v>
+        <v>520.62</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6719,10 +6704,10 @@
         <v>5</v>
       </c>
       <c r="G193" s="2">
-        <v>140.000</v>
+        <v>20.000</v>
       </c>
       <c r="H193" s="3">
-        <v>3786.52</v>
+        <v>769.05</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6745,10 +6730,10 @@
         <v>5</v>
       </c>
       <c r="G194" s="2">
-        <v>16.000</v>
+        <v>1.000</v>
       </c>
       <c r="H194" s="3">
-        <v>520.62</v>
+        <v>863.17</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6771,10 +6756,10 @@
         <v>5</v>
       </c>
       <c r="G195" s="2">
-        <v>20.000</v>
+        <v>1.000</v>
       </c>
       <c r="H195" s="3">
-        <v>769.05</v>
+        <v>2480.45</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6800,7 +6785,7 @@
         <v>1.000</v>
       </c>
       <c r="H196" s="3">
-        <v>863.17</v>
+        <v>153.40</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6823,10 +6808,10 @@
         <v>5</v>
       </c>
       <c r="G197" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="H197" s="3">
-        <v>2480.45</v>
+        <v>5453.26</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6849,10 +6834,10 @@
         <v>5</v>
       </c>
       <c r="G198" s="2">
-        <v>1.000</v>
+        <v>24.000</v>
       </c>
       <c r="H198" s="3">
-        <v>153.40</v>
+        <v>12277.28</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6875,10 +6860,10 @@
         <v>5</v>
       </c>
       <c r="G199" s="2">
-        <v>2.000</v>
+        <v>350.000</v>
       </c>
       <c r="H199" s="3">
-        <v>5453.26</v>
+        <v>255.61</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6901,10 +6886,10 @@
         <v>5</v>
       </c>
       <c r="G200" s="2">
-        <v>24.000</v>
+        <v>19.000</v>
       </c>
       <c r="H200" s="3">
-        <v>12012.17</v>
+        <v>723.49</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6927,10 +6912,10 @@
         <v>5</v>
       </c>
       <c r="G201" s="2">
-        <v>350.000</v>
+        <v>5.000</v>
       </c>
       <c r="H201" s="3">
-        <v>255.61</v>
+        <v>190.00</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6953,10 +6938,10 @@
         <v>5</v>
       </c>
       <c r="G202" s="2">
-        <v>21.000</v>
+        <v>1.000</v>
       </c>
       <c r="H202" s="3">
-        <v>799.65</v>
+        <v>144.75</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6979,10 +6964,10 @@
         <v>5</v>
       </c>
       <c r="G203" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="H203" s="3">
-        <v>190.00</v>
+        <v>562.67</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7008,7 +6993,7 @@
         <v>1.000</v>
       </c>
       <c r="H204" s="3">
-        <v>144.75</v>
+        <v>316.84</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7031,10 +7016,10 @@
         <v>5</v>
       </c>
       <c r="G205" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="H205" s="3">
-        <v>562.67</v>
+        <v>2566.21</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7057,10 +7042,10 @@
         <v>5</v>
       </c>
       <c r="G206" s="2">
-        <v>1.000</v>
+        <v>36.000</v>
       </c>
       <c r="H206" s="3">
-        <v>316.84</v>
+        <v>16638.99</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7083,10 +7068,10 @@
         <v>5</v>
       </c>
       <c r="G207" s="2">
-        <v>7.000</v>
+        <v>10.000</v>
       </c>
       <c r="H207" s="3">
-        <v>2566.21</v>
+        <v>3640.65</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7109,10 +7094,10 @@
         <v>5</v>
       </c>
       <c r="G208" s="2">
-        <v>36.000</v>
+        <v>105.000</v>
       </c>
       <c r="H208" s="3">
-        <v>16638.99</v>
+        <v>141.88</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7132,13 +7117,13 @@
         <v>420</v>
       </c>
       <c r="F209" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G209" s="2">
-        <v>10.000</v>
+        <v>71653.600</v>
       </c>
       <c r="H209" s="3">
-        <v>3640.65</v>
+        <v>167976.62</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7161,10 +7146,10 @@
         <v>5</v>
       </c>
       <c r="G210" s="2">
-        <v>130.000</v>
+        <v>49.000</v>
       </c>
       <c r="H210" s="3">
-        <v>175.66</v>
+        <v>1073.76</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7184,13 +7169,13 @@
         <v>424</v>
       </c>
       <c r="F211" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G211" s="2">
-        <v>69808.600</v>
+        <v>99.000</v>
       </c>
       <c r="H211" s="3">
-        <v>163651.36</v>
+        <v>3528.74</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7213,10 +7198,10 @@
         <v>5</v>
       </c>
       <c r="G212" s="2">
-        <v>45.000</v>
+        <v>1.000</v>
       </c>
       <c r="H212" s="3">
-        <v>986.11</v>
+        <v>303.12</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7239,10 +7224,10 @@
         <v>5</v>
       </c>
       <c r="G213" s="2">
-        <v>100.000</v>
+        <v>14.000</v>
       </c>
       <c r="H213" s="3">
-        <v>3564.39</v>
+        <v>1053.91</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7268,7 +7253,7 @@
         <v>1.000</v>
       </c>
       <c r="H214" s="3">
-        <v>303.12</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7291,10 +7276,10 @@
         <v>5</v>
       </c>
       <c r="G215" s="2">
-        <v>14.000</v>
+        <v>2.000</v>
       </c>
       <c r="H215" s="3">
-        <v>1053.91</v>
+        <v>1632.07</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7317,10 +7302,10 @@
         <v>5</v>
       </c>
       <c r="G216" s="2">
-        <v>1.000</v>
+        <v>72.000</v>
       </c>
       <c r="H216" s="3">
-        <v>15.67</v>
+        <v>1149.32</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7346,7 +7331,7 @@
         <v>2.000</v>
       </c>
       <c r="H217" s="3">
-        <v>1632.07</v>
+        <v>3527.49</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7369,10 +7354,10 @@
         <v>5</v>
       </c>
       <c r="G218" s="2">
-        <v>74.000</v>
+        <v>19.000</v>
       </c>
       <c r="H218" s="3">
-        <v>1181.25</v>
+        <v>3239.70</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7395,10 +7380,10 @@
         <v>5</v>
       </c>
       <c r="G219" s="2">
-        <v>2.000</v>
+        <v>308.000</v>
       </c>
       <c r="H219" s="3">
-        <v>3527.49</v>
+        <v>16243.97</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7421,10 +7406,10 @@
         <v>5</v>
       </c>
       <c r="G220" s="2">
-        <v>16.000</v>
+        <v>6334.000</v>
       </c>
       <c r="H220" s="3">
-        <v>2387.60</v>
+        <v>53960.09</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7447,10 +7432,10 @@
         <v>5</v>
       </c>
       <c r="G221" s="2">
-        <v>303.000</v>
+        <v>3.000</v>
       </c>
       <c r="H221" s="3">
-        <v>15980.27</v>
+        <v>1263.43</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7473,10 +7458,10 @@
         <v>5</v>
       </c>
       <c r="G222" s="2">
-        <v>6270.000</v>
+        <v>641.000</v>
       </c>
       <c r="H222" s="3">
-        <v>53415.93</v>
+        <v>1314.05</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7499,10 +7484,10 @@
         <v>5</v>
       </c>
       <c r="G223" s="2">
-        <v>3.000</v>
+        <v>96.000</v>
       </c>
       <c r="H223" s="3">
-        <v>1263.43</v>
+        <v>26302.97</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7525,10 +7510,10 @@
         <v>5</v>
       </c>
       <c r="G224" s="2">
-        <v>643.000</v>
+        <v>18.000</v>
       </c>
       <c r="H224" s="3">
-        <v>1318.15</v>
+        <v>15716.71</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7551,10 +7536,10 @@
         <v>5</v>
       </c>
       <c r="G225" s="2">
-        <v>119.000</v>
+        <v>13.000</v>
       </c>
       <c r="H225" s="3">
-        <v>32605.40</v>
+        <v>1823.27</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7577,10 +7562,10 @@
         <v>5</v>
       </c>
       <c r="G226" s="2">
-        <v>18.000</v>
+        <v>19.000</v>
       </c>
       <c r="H226" s="3">
-        <v>15716.71</v>
+        <v>855.19</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7603,10 +7588,10 @@
         <v>5</v>
       </c>
       <c r="G227" s="2">
-        <v>9.000</v>
+        <v>175.000</v>
       </c>
       <c r="H227" s="3">
-        <v>1262.26</v>
+        <v>12469.59</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7626,13 +7611,13 @@
         <v>458</v>
       </c>
       <c r="F228" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G228" s="2">
-        <v>19.000</v>
+        <v>27.800</v>
       </c>
       <c r="H228" s="3">
-        <v>855.19</v>
+        <v>6392.90</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7652,13 +7637,13 @@
         <v>460</v>
       </c>
       <c r="F229" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G229" s="2">
-        <v>157.000</v>
+        <v>16.000</v>
       </c>
       <c r="H229" s="3">
-        <v>11187.00</v>
+        <v>7011.29</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7678,13 +7663,13 @@
         <v>462</v>
       </c>
       <c r="F230" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G230" s="2">
-        <v>27.800</v>
+        <v>5.000</v>
       </c>
       <c r="H230" s="3">
-        <v>6392.90</v>
+        <v>662.53</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7704,13 +7689,13 @@
         <v>464</v>
       </c>
       <c r="F231" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G231" s="2">
-        <v>16.000</v>
+        <v>3.000</v>
       </c>
       <c r="H231" s="3">
-        <v>7011.29</v>
+        <v>747.25</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7733,10 +7718,10 @@
         <v>5</v>
       </c>
       <c r="G232" s="2">
-        <v>5.000</v>
+        <v>2.000</v>
       </c>
       <c r="H232" s="3">
-        <v>662.53</v>
+        <v>719.47</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7759,10 +7744,10 @@
         <v>5</v>
       </c>
       <c r="G233" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="H233" s="3">
-        <v>747.25</v>
+        <v>432.77</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7785,10 +7770,10 @@
         <v>5</v>
       </c>
       <c r="G234" s="2">
-        <v>2.000</v>
+        <v>14.000</v>
       </c>
       <c r="H234" s="3">
-        <v>719.47</v>
+        <v>782.73</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7811,10 +7796,10 @@
         <v>5</v>
       </c>
       <c r="G235" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="H235" s="3">
-        <v>432.77</v>
+        <v>103.20</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7837,10 +7822,10 @@
         <v>5</v>
       </c>
       <c r="G236" s="2">
-        <v>12.000</v>
+        <v>97.000</v>
       </c>
       <c r="H236" s="3">
-        <v>670.91</v>
+        <v>433.16</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7863,10 +7848,10 @@
         <v>5</v>
       </c>
       <c r="G237" s="2">
-        <v>4.000</v>
+        <v>114.000</v>
       </c>
       <c r="H237" s="3">
-        <v>103.20</v>
+        <v>10790.56</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7889,10 +7874,10 @@
         <v>5</v>
       </c>
       <c r="G238" s="2">
-        <v>97.000</v>
+        <v>58.000</v>
       </c>
       <c r="H238" s="3">
-        <v>433.16</v>
+        <v>5525.09</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7915,10 +7900,10 @@
         <v>5</v>
       </c>
       <c r="G239" s="2">
-        <v>102.000</v>
+        <v>1.000</v>
       </c>
       <c r="H239" s="3">
-        <v>9654.72</v>
+        <v>1448.47</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7941,10 +7926,10 @@
         <v>5</v>
       </c>
       <c r="G240" s="2">
-        <v>58.000</v>
+        <v>9.000</v>
       </c>
       <c r="H240" s="3">
-        <v>5525.09</v>
+        <v>2570.78</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7967,10 +7952,10 @@
         <v>5</v>
       </c>
       <c r="G241" s="2">
-        <v>9.000</v>
+        <v>281.000</v>
       </c>
       <c r="H241" s="3">
-        <v>2570.78</v>
+        <v>8417.06</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7993,10 +7978,10 @@
         <v>5</v>
       </c>
       <c r="G242" s="2">
-        <v>201.000</v>
+        <v>3.000</v>
       </c>
       <c r="H242" s="3">
-        <v>6020.74</v>
+        <v>6872.81</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8022,7 +8007,7 @@
         <v>3.000</v>
       </c>
       <c r="H243" s="3">
-        <v>6872.81</v>
+        <v>295.57</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8045,10 +8030,10 @@
         <v>5</v>
       </c>
       <c r="G244" s="2">
-        <v>3.000</v>
+        <v>19.000</v>
       </c>
       <c r="H244" s="3">
-        <v>295.57</v>
+        <v>2491.66</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8071,10 +8056,10 @@
         <v>5</v>
       </c>
       <c r="G245" s="2">
-        <v>19.000</v>
+        <v>154.000</v>
       </c>
       <c r="H245" s="3">
-        <v>2491.66</v>
+        <v>5227.02</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8097,10 +8082,10 @@
         <v>5</v>
       </c>
       <c r="G246" s="2">
-        <v>154.000</v>
+        <v>1.000</v>
       </c>
       <c r="H246" s="3">
-        <v>5227.02</v>
+        <v>112.24</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8123,10 +8108,10 @@
         <v>5</v>
       </c>
       <c r="G247" s="2">
-        <v>1.000</v>
+        <v>11.000</v>
       </c>
       <c r="H247" s="3">
-        <v>112.24</v>
+        <v>2176.56</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8149,10 +8134,10 @@
         <v>5</v>
       </c>
       <c r="G248" s="2">
-        <v>11.000</v>
+        <v>3.000</v>
       </c>
       <c r="H248" s="3">
-        <v>2176.56</v>
+        <v>170.34</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8172,13 +8157,13 @@
         <v>500</v>
       </c>
       <c r="F249" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G249" s="2">
-        <v>3.000</v>
+        <v>7.000</v>
       </c>
       <c r="H249" s="3">
-        <v>170.34</v>
+        <v>1520.59</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8198,13 +8183,13 @@
         <v>502</v>
       </c>
       <c r="F250" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G250" s="2">
-        <v>7.000</v>
+        <v>25.000</v>
       </c>
       <c r="H250" s="3">
-        <v>1520.59</v>
+        <v>1242.33</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8227,10 +8212,10 @@
         <v>5</v>
       </c>
       <c r="G251" s="2">
-        <v>25.000</v>
+        <v>10.000</v>
       </c>
       <c r="H251" s="3">
-        <v>1242.33</v>
+        <v>201.79</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8253,86 +8238,34 @@
         <v>5</v>
       </c>
       <c r="G252" s="2">
-        <v>10.000</v>
+        <v>43.000</v>
       </c>
       <c r="H252" s="3">
-        <v>201.79</v>
+        <v>2003.95</v>
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" t="s">
-        <v>0</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1</v>
-      </c>
-      <c r="C253" t="s">
-        <v>2</v>
-      </c>
-      <c r="D253" t="s">
+      <c r="A253" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="E253" t="s">
-        <v>508</v>
-      </c>
-      <c r="F253" t="s">
-        <v>5</v>
-      </c>
-      <c r="G253" s="2">
-        <v>43.000</v>
-      </c>
-      <c r="H253" s="3">
-        <v>2003.95</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" t="s">
-        <v>0</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1</v>
-      </c>
-      <c r="C254" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254" t="s">
-        <v>509</v>
-      </c>
-      <c r="E254" t="s">
-        <v>510</v>
-      </c>
-      <c r="F254" t="s">
-        <v>511</v>
-      </c>
-      <c r="G254" s="2">
-        <v>19500.000</v>
-      </c>
-      <c r="H254" s="3">
-        <v>29054.99</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="G255" s="5"/>
-      <c r="H255" s="6">
-        <v>2481008.89</v>
+      <c r="B253" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G253" s="5"/>
+      <c r="H253" s="6">
+        <v>2551303.03</v>
       </c>
     </row>
   </sheetData>

--- a/estoque.XLSX
+++ b/estoque.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="522">
   <si>
     <t>0006</t>
   </si>
@@ -310,6 +310,12 @@
     <t>LUVA CORRER BB ESG DN 300 - JEI</t>
   </si>
   <si>
+    <t>30008425</t>
+  </si>
+  <si>
+    <t>LUVA BIPARTIDA FF P/BOLSAS FF DN 400</t>
+  </si>
+  <si>
     <t>30008324</t>
   </si>
   <si>
@@ -874,6 +880,12 @@
     <t>COLARINHO DE 160 LG C/ FL SDR 11 PN 10</t>
   </si>
   <si>
+    <t>30004483</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO FERRO MALEAV GALV DN25X20</t>
+  </si>
+  <si>
     <t>30004410</t>
   </si>
   <si>
@@ -1184,6 +1196,12 @@
   </si>
   <si>
     <t>COLARINHO DE 315 LG COMPL SDR 11 PN 10</t>
+  </si>
+  <si>
+    <t>30002202</t>
+  </si>
+  <si>
+    <t>COLAR TOMADA FF C.INOX DN50A150 X DNR25</t>
   </si>
   <si>
     <t>30002194</t>
@@ -1674,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1694,28 +1712,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1738,10 +1756,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>2729.000</v>
+        <v>1186.000</v>
       </c>
       <c r="H2" s="3">
-        <v>9795.46</v>
+        <v>4257.00</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1764,10 +1782,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <v>2931.000</v>
+        <v>2537.000</v>
       </c>
       <c r="H3" s="3">
-        <v>403466.80</v>
+        <v>349230.73</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1894,10 +1912,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>13.000</v>
+        <v>12.000</v>
       </c>
       <c r="H8" s="3">
-        <v>5669.00</v>
+        <v>5232.92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1972,10 +1990,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>4714.000</v>
+        <v>4694.000</v>
       </c>
       <c r="H11" s="3">
-        <v>137421.26</v>
+        <v>136838.24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2102,10 +2120,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>1488.000</v>
+        <v>1415.000</v>
       </c>
       <c r="H16" s="3">
-        <v>127175.57</v>
+        <v>120936.41</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2206,10 +2224,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="2">
-        <v>2558.000</v>
+        <v>2500.000</v>
       </c>
       <c r="H20" s="3">
-        <v>216525.27</v>
+        <v>211615.70</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2310,10 +2328,10 @@
         <v>5</v>
       </c>
       <c r="G24" s="2">
-        <v>127.000</v>
+        <v>131.000</v>
       </c>
       <c r="H24" s="3">
-        <v>57407.84</v>
+        <v>59215.96</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2365,7 +2383,7 @@
         <v>177.600</v>
       </c>
       <c r="H26" s="3">
-        <v>2048.69</v>
+        <v>1926.13</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2388,10 +2406,10 @@
         <v>52</v>
       </c>
       <c r="G27" s="2">
-        <v>427.700</v>
+        <v>56.420</v>
       </c>
       <c r="H27" s="3">
-        <v>14555.29</v>
+        <v>1893.77</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2414,10 +2432,10 @@
         <v>52</v>
       </c>
       <c r="G28" s="2">
-        <v>171.390</v>
+        <v>162.390</v>
       </c>
       <c r="H28" s="3">
-        <v>3928.72</v>
+        <v>3722.42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2440,10 +2458,10 @@
         <v>52</v>
       </c>
       <c r="G29" s="2">
-        <v>5136.300</v>
+        <v>4906.700</v>
       </c>
       <c r="H29" s="3">
-        <v>55094.70</v>
+        <v>52631.87</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2492,10 +2510,10 @@
         <v>52</v>
       </c>
       <c r="G31" s="2">
-        <v>66.600</v>
+        <v>65.600</v>
       </c>
       <c r="H31" s="3">
-        <v>2152.36</v>
+        <v>2120.04</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2544,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="G33" s="2">
-        <v>274.000</v>
+        <v>265.000</v>
       </c>
       <c r="H33" s="3">
-        <v>5084.07</v>
+        <v>4917.07</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2963,7 +2981,7 @@
         <v>1.000</v>
       </c>
       <c r="H49" s="3">
-        <v>131.57</v>
+        <v>5663.01</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2986,10 +3004,10 @@
         <v>5</v>
       </c>
       <c r="G50" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="H50" s="3">
-        <v>286.67</v>
+        <v>131.57</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3012,10 +3030,10 @@
         <v>5</v>
       </c>
       <c r="G51" s="2">
-        <v>32.000</v>
+        <v>5.000</v>
       </c>
       <c r="H51" s="3">
-        <v>2524.88</v>
+        <v>286.67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3038,10 +3056,10 @@
         <v>5</v>
       </c>
       <c r="G52" s="2">
-        <v>16.000</v>
+        <v>32.000</v>
       </c>
       <c r="H52" s="3">
-        <v>348.11</v>
+        <v>2524.88</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3064,10 +3082,10 @@
         <v>5</v>
       </c>
       <c r="G53" s="2">
-        <v>55.000</v>
+        <v>16.000</v>
       </c>
       <c r="H53" s="3">
-        <v>15180.21</v>
+        <v>348.11</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3087,13 +3105,13 @@
         <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G54" s="2">
-        <v>194.900</v>
+        <v>57.000</v>
       </c>
       <c r="H54" s="3">
-        <v>4186.83</v>
+        <v>15732.22</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3116,10 +3134,10 @@
         <v>52</v>
       </c>
       <c r="G55" s="2">
-        <v>2656.200</v>
+        <v>191.900</v>
       </c>
       <c r="H55" s="3">
-        <v>99870.50</v>
+        <v>4122.38</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3142,10 +3160,10 @@
         <v>52</v>
       </c>
       <c r="G56" s="2">
-        <v>2581.670</v>
+        <v>2656.200</v>
       </c>
       <c r="H56" s="3">
-        <v>10316.17</v>
+        <v>99870.50</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3168,10 +3186,10 @@
         <v>52</v>
       </c>
       <c r="G57" s="2">
-        <v>11.000</v>
+        <v>2575.670</v>
       </c>
       <c r="H57" s="3">
-        <v>974.64</v>
+        <v>10292.19</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3191,13 +3209,13 @@
         <v>118</v>
       </c>
       <c r="F58" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G58" s="2">
-        <v>17.000</v>
+        <v>11.000</v>
       </c>
       <c r="H58" s="3">
-        <v>7823.48</v>
+        <v>974.64</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3220,10 +3238,10 @@
         <v>5</v>
       </c>
       <c r="G59" s="2">
-        <v>1.000</v>
+        <v>17.000</v>
       </c>
       <c r="H59" s="3">
-        <v>3716.19</v>
+        <v>7823.48</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3249,7 +3267,7 @@
         <v>1.000</v>
       </c>
       <c r="H60" s="3">
-        <v>1728.34</v>
+        <v>3716.19</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3272,10 +3290,10 @@
         <v>5</v>
       </c>
       <c r="G61" s="2">
-        <v>18.000</v>
+        <v>1.000</v>
       </c>
       <c r="H61" s="3">
-        <v>10190.72</v>
+        <v>1728.34</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3298,10 +3316,10 @@
         <v>5</v>
       </c>
       <c r="G62" s="2">
-        <v>8.000</v>
+        <v>18.000</v>
       </c>
       <c r="H62" s="3">
-        <v>2259.05</v>
+        <v>10190.72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3324,10 +3342,10 @@
         <v>5</v>
       </c>
       <c r="G63" s="2">
-        <v>6.000</v>
+        <v>8.000</v>
       </c>
       <c r="H63" s="3">
-        <v>2371.80</v>
+        <v>2259.05</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3350,10 +3368,10 @@
         <v>5</v>
       </c>
       <c r="G64" s="2">
-        <v>7.000</v>
+        <v>6.000</v>
       </c>
       <c r="H64" s="3">
-        <v>3709.63</v>
+        <v>2371.80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3376,10 +3394,10 @@
         <v>5</v>
       </c>
       <c r="G65" s="2">
-        <v>90.000</v>
+        <v>7.000</v>
       </c>
       <c r="H65" s="3">
-        <v>495.81</v>
+        <v>3709.63</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3399,13 +3417,13 @@
         <v>134</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G66" s="2">
-        <v>11.000</v>
+        <v>88.000</v>
       </c>
       <c r="H66" s="3">
-        <v>1901.67</v>
+        <v>484.79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3428,10 +3446,10 @@
         <v>52</v>
       </c>
       <c r="G67" s="2">
-        <v>46.000</v>
+        <v>11.000</v>
       </c>
       <c r="H67" s="3">
-        <v>4359.41</v>
+        <v>1901.67</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3454,10 +3472,10 @@
         <v>52</v>
       </c>
       <c r="G68" s="2">
-        <v>14.000</v>
+        <v>46.000</v>
       </c>
       <c r="H68" s="3">
-        <v>3702.16</v>
+        <v>4359.41</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3477,13 +3495,13 @@
         <v>140</v>
       </c>
       <c r="F69" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G69" s="2">
-        <v>1.000</v>
+        <v>14.000</v>
       </c>
       <c r="H69" s="3">
-        <v>257.36</v>
+        <v>3702.16</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3506,10 +3524,10 @@
         <v>5</v>
       </c>
       <c r="G70" s="2">
-        <v>19.000</v>
+        <v>1.000</v>
       </c>
       <c r="H70" s="3">
-        <v>1201.67</v>
+        <v>257.36</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3532,10 +3550,10 @@
         <v>5</v>
       </c>
       <c r="G71" s="2">
-        <v>434.000</v>
+        <v>19.000</v>
       </c>
       <c r="H71" s="3">
-        <v>9776.42</v>
+        <v>1201.67</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3558,10 +3576,10 @@
         <v>5</v>
       </c>
       <c r="G72" s="2">
-        <v>2.000</v>
+        <v>434.000</v>
       </c>
       <c r="H72" s="3">
-        <v>8149.76</v>
+        <v>9571.16</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3584,10 +3602,10 @@
         <v>5</v>
       </c>
       <c r="G73" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="H73" s="3">
-        <v>348.30</v>
+        <v>8149.76</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3610,10 +3628,10 @@
         <v>5</v>
       </c>
       <c r="G74" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="H74" s="3">
-        <v>1088.09</v>
+        <v>348.30</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3636,10 +3654,10 @@
         <v>5</v>
       </c>
       <c r="G75" s="2">
-        <v>19.000</v>
+        <v>3.000</v>
       </c>
       <c r="H75" s="3">
-        <v>1177.09</v>
+        <v>1088.09</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3662,10 +3680,10 @@
         <v>5</v>
       </c>
       <c r="G76" s="2">
-        <v>1.000</v>
+        <v>19.000</v>
       </c>
       <c r="H76" s="3">
-        <v>23.34</v>
+        <v>1177.09</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3688,10 +3706,10 @@
         <v>5</v>
       </c>
       <c r="G77" s="2">
-        <v>43.000</v>
+        <v>1.000</v>
       </c>
       <c r="H77" s="3">
-        <v>544.57</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3714,10 +3732,10 @@
         <v>5</v>
       </c>
       <c r="G78" s="2">
-        <v>87.000</v>
+        <v>43.000</v>
       </c>
       <c r="H78" s="3">
-        <v>16216.73</v>
+        <v>544.57</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3740,10 +3758,10 @@
         <v>5</v>
       </c>
       <c r="G79" s="2">
-        <v>315.000</v>
+        <v>65.000</v>
       </c>
       <c r="H79" s="3">
-        <v>5303.82</v>
+        <v>12115.95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3766,10 +3784,10 @@
         <v>5</v>
       </c>
       <c r="G80" s="2">
-        <v>4.000</v>
+        <v>315.000</v>
       </c>
       <c r="H80" s="3">
-        <v>290.31</v>
+        <v>5104.78</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3792,10 +3810,10 @@
         <v>5</v>
       </c>
       <c r="G81" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="H81" s="3">
-        <v>830.65</v>
+        <v>290.31</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3818,10 +3836,10 @@
         <v>5</v>
       </c>
       <c r="G82" s="2">
-        <v>44.000</v>
+        <v>1.000</v>
       </c>
       <c r="H82" s="3">
-        <v>4026.51</v>
+        <v>830.65</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3844,10 +3862,10 @@
         <v>5</v>
       </c>
       <c r="G83" s="2">
-        <v>9.000</v>
+        <v>45.000</v>
       </c>
       <c r="H83" s="3">
-        <v>214.33</v>
+        <v>4118.02</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3870,10 +3888,10 @@
         <v>5</v>
       </c>
       <c r="G84" s="2">
-        <v>2.000</v>
+        <v>9.000</v>
       </c>
       <c r="H84" s="3">
-        <v>120.85</v>
+        <v>214.33</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3896,10 +3914,10 @@
         <v>5</v>
       </c>
       <c r="G85" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="H85" s="3">
-        <v>1598.51</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3922,10 +3940,10 @@
         <v>5</v>
       </c>
       <c r="G86" s="2">
-        <v>4276.000</v>
+        <v>6.000</v>
       </c>
       <c r="H86" s="3">
-        <v>78214.31</v>
+        <v>1598.51</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3948,10 +3966,10 @@
         <v>5</v>
       </c>
       <c r="G87" s="2">
-        <v>7.000</v>
+        <v>4231.000</v>
       </c>
       <c r="H87" s="3">
-        <v>2196.40</v>
+        <v>77591.03</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3974,10 +3992,10 @@
         <v>5</v>
       </c>
       <c r="G88" s="2">
-        <v>3.000</v>
+        <v>5.000</v>
       </c>
       <c r="H88" s="3">
-        <v>2778.04</v>
+        <v>1568.86</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4000,10 +4018,10 @@
         <v>5</v>
       </c>
       <c r="G89" s="2">
-        <v>4.000</v>
+        <v>3.000</v>
       </c>
       <c r="H89" s="3">
-        <v>4210.12</v>
+        <v>2778.04</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4026,10 +4044,10 @@
         <v>5</v>
       </c>
       <c r="G90" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="H90" s="3">
-        <v>1275.59</v>
+        <v>4210.12</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4052,10 +4070,10 @@
         <v>5</v>
       </c>
       <c r="G91" s="2">
-        <v>13.000</v>
+        <v>2.000</v>
       </c>
       <c r="H91" s="3">
-        <v>1978.98</v>
+        <v>1275.59</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4078,10 +4096,10 @@
         <v>5</v>
       </c>
       <c r="G92" s="2">
-        <v>4.000</v>
+        <v>13.000</v>
       </c>
       <c r="H92" s="3">
-        <v>318.30</v>
+        <v>1978.98</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4104,10 +4122,10 @@
         <v>5</v>
       </c>
       <c r="G93" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="H93" s="3">
-        <v>194.13</v>
+        <v>318.30</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4130,10 +4148,10 @@
         <v>5</v>
       </c>
       <c r="G94" s="2">
-        <v>34.000</v>
+        <v>1.000</v>
       </c>
       <c r="H94" s="3">
-        <v>517.12</v>
+        <v>194.13</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4156,10 +4174,10 @@
         <v>5</v>
       </c>
       <c r="G95" s="2">
-        <v>26.000</v>
+        <v>38.000</v>
       </c>
       <c r="H95" s="3">
-        <v>148.53</v>
+        <v>577.96</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4182,10 +4200,10 @@
         <v>5</v>
       </c>
       <c r="G96" s="2">
-        <v>15.000</v>
+        <v>10.000</v>
       </c>
       <c r="H96" s="3">
-        <v>21635.48</v>
+        <v>57.13</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4208,10 +4226,10 @@
         <v>5</v>
       </c>
       <c r="G97" s="2">
-        <v>2.000</v>
+        <v>15.000</v>
       </c>
       <c r="H97" s="3">
-        <v>3894.45</v>
+        <v>21635.48</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4234,10 +4252,10 @@
         <v>5</v>
       </c>
       <c r="G98" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="H98" s="3">
-        <v>4003.21</v>
+        <v>3894.45</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4260,10 +4278,10 @@
         <v>5</v>
       </c>
       <c r="G99" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="H99" s="3">
-        <v>1231.93</v>
+        <v>4003.21</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4286,10 +4304,10 @@
         <v>5</v>
       </c>
       <c r="G100" s="2">
-        <v>8.000</v>
+        <v>1.000</v>
       </c>
       <c r="H100" s="3">
-        <v>644.26</v>
+        <v>1231.93</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4312,10 +4330,10 @@
         <v>5</v>
       </c>
       <c r="G101" s="2">
-        <v>47.000</v>
+        <v>8.000</v>
       </c>
       <c r="H101" s="3">
-        <v>6177.87</v>
+        <v>644.26</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4338,10 +4356,10 @@
         <v>5</v>
       </c>
       <c r="G102" s="2">
-        <v>42.000</v>
+        <v>47.000</v>
       </c>
       <c r="H102" s="3">
-        <v>3630.70</v>
+        <v>6177.87</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4364,10 +4382,10 @@
         <v>5</v>
       </c>
       <c r="G103" s="2">
-        <v>12.000</v>
+        <v>43.000</v>
       </c>
       <c r="H103" s="3">
-        <v>1433.47</v>
+        <v>3717.14</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4390,10 +4408,10 @@
         <v>5</v>
       </c>
       <c r="G104" s="2">
-        <v>25.000</v>
+        <v>10.000</v>
       </c>
       <c r="H104" s="3">
-        <v>116.25</v>
+        <v>1194.56</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4416,10 +4434,10 @@
         <v>5</v>
       </c>
       <c r="G105" s="2">
-        <v>2.000</v>
+        <v>25.000</v>
       </c>
       <c r="H105" s="3">
-        <v>223.74</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4442,10 +4460,10 @@
         <v>5</v>
       </c>
       <c r="G106" s="2">
-        <v>479.000</v>
+        <v>2.000</v>
       </c>
       <c r="H106" s="3">
-        <v>2021.92</v>
+        <v>223.74</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4468,10 +4486,10 @@
         <v>5</v>
       </c>
       <c r="G107" s="2">
-        <v>3.000</v>
+        <v>479.000</v>
       </c>
       <c r="H107" s="3">
-        <v>82.99</v>
+        <v>2021.92</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4494,10 +4512,10 @@
         <v>5</v>
       </c>
       <c r="G108" s="2">
-        <v>49.000</v>
+        <v>3.000</v>
       </c>
       <c r="H108" s="3">
-        <v>1654.44</v>
+        <v>82.99</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4520,10 +4538,10 @@
         <v>5</v>
       </c>
       <c r="G109" s="2">
-        <v>110.000</v>
+        <v>44.000</v>
       </c>
       <c r="H109" s="3">
-        <v>5466.50</v>
+        <v>1485.63</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4546,10 +4564,10 @@
         <v>5</v>
       </c>
       <c r="G110" s="2">
-        <v>170.000</v>
+        <v>110.000</v>
       </c>
       <c r="H110" s="3">
-        <v>6302.57</v>
+        <v>5466.50</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4572,10 +4590,10 @@
         <v>5</v>
       </c>
       <c r="G111" s="2">
-        <v>10.000</v>
+        <v>167.000</v>
       </c>
       <c r="H111" s="3">
-        <v>2229.94</v>
+        <v>6191.35</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4598,10 +4616,10 @@
         <v>5</v>
       </c>
       <c r="G112" s="2">
-        <v>1.000</v>
+        <v>10.000</v>
       </c>
       <c r="H112" s="3">
-        <v>370.49</v>
+        <v>2229.94</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4627,7 +4645,7 @@
         <v>1.000</v>
       </c>
       <c r="H113" s="3">
-        <v>279.59</v>
+        <v>370.49</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4650,10 +4668,10 @@
         <v>5</v>
       </c>
       <c r="G114" s="2">
-        <v>13.000</v>
+        <v>1.000</v>
       </c>
       <c r="H114" s="3">
-        <v>1460.31</v>
+        <v>279.59</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4676,10 +4694,10 @@
         <v>5</v>
       </c>
       <c r="G115" s="2">
-        <v>8.000</v>
+        <v>13.000</v>
       </c>
       <c r="H115" s="3">
-        <v>1484.30</v>
+        <v>1460.31</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4702,10 +4720,10 @@
         <v>5</v>
       </c>
       <c r="G116" s="2">
-        <v>2.000</v>
+        <v>8.000</v>
       </c>
       <c r="H116" s="3">
-        <v>316.21</v>
+        <v>1484.30</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4728,10 +4746,10 @@
         <v>5</v>
       </c>
       <c r="G117" s="2">
-        <v>3.000</v>
+        <v>2.000</v>
       </c>
       <c r="H117" s="3">
-        <v>651.71</v>
+        <v>316.21</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4754,10 +4772,10 @@
         <v>5</v>
       </c>
       <c r="G118" s="2">
-        <v>5.000</v>
+        <v>3.000</v>
       </c>
       <c r="H118" s="3">
-        <v>383.07</v>
+        <v>651.71</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4780,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="G119" s="2">
-        <v>26.000</v>
+        <v>5.000</v>
       </c>
       <c r="H119" s="3">
-        <v>2376.59</v>
+        <v>383.07</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4806,10 +4824,10 @@
         <v>5</v>
       </c>
       <c r="G120" s="2">
-        <v>1.000</v>
+        <v>25.000</v>
       </c>
       <c r="H120" s="3">
-        <v>53.60</v>
+        <v>2285.18</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4832,10 +4850,10 @@
         <v>5</v>
       </c>
       <c r="G121" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H121" s="3">
-        <v>303.21</v>
+        <v>53.60</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4858,10 +4876,10 @@
         <v>5</v>
       </c>
       <c r="G122" s="2">
-        <v>47.000</v>
+        <v>2.000</v>
       </c>
       <c r="H122" s="3">
-        <v>2684.91</v>
+        <v>303.21</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4884,10 +4902,10 @@
         <v>5</v>
       </c>
       <c r="G123" s="2">
-        <v>6.000</v>
+        <v>47.000</v>
       </c>
       <c r="H123" s="3">
-        <v>171.68</v>
+        <v>2684.91</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4910,10 +4928,10 @@
         <v>5</v>
       </c>
       <c r="G124" s="2">
-        <v>932.000</v>
+        <v>6.000</v>
       </c>
       <c r="H124" s="3">
-        <v>5040.61</v>
+        <v>171.68</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4936,10 +4954,10 @@
         <v>5</v>
       </c>
       <c r="G125" s="2">
-        <v>19.000</v>
+        <v>892.000</v>
       </c>
       <c r="H125" s="3">
-        <v>1071.31</v>
+        <v>4824.26</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4962,10 +4980,10 @@
         <v>5</v>
       </c>
       <c r="G126" s="2">
-        <v>11.000</v>
+        <v>19.000</v>
       </c>
       <c r="H126" s="3">
-        <v>1357.53</v>
+        <v>1071.31</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4988,10 +5006,10 @@
         <v>5</v>
       </c>
       <c r="G127" s="2">
-        <v>3.000</v>
+        <v>11.000</v>
       </c>
       <c r="H127" s="3">
-        <v>743.93</v>
+        <v>1357.53</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5014,10 +5032,10 @@
         <v>5</v>
       </c>
       <c r="G128" s="2">
-        <v>23.000</v>
+        <v>3.000</v>
       </c>
       <c r="H128" s="3">
-        <v>2437.98</v>
+        <v>743.93</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5040,10 +5058,10 @@
         <v>5</v>
       </c>
       <c r="G129" s="2">
-        <v>1.000</v>
+        <v>23.000</v>
       </c>
       <c r="H129" s="3">
-        <v>214.67</v>
+        <v>2437.98</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5066,10 +5084,10 @@
         <v>5</v>
       </c>
       <c r="G130" s="2">
-        <v>15.000</v>
+        <v>1.000</v>
       </c>
       <c r="H130" s="3">
-        <v>557.58</v>
+        <v>214.67</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5092,10 +5110,10 @@
         <v>5</v>
       </c>
       <c r="G131" s="2">
-        <v>11.000</v>
+        <v>15.000</v>
       </c>
       <c r="H131" s="3">
-        <v>245.73</v>
+        <v>557.58</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5118,10 +5136,10 @@
         <v>5</v>
       </c>
       <c r="G132" s="2">
-        <v>31.000</v>
+        <v>11.000</v>
       </c>
       <c r="H132" s="3">
-        <v>6006.42</v>
+        <v>245.73</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5144,10 +5162,10 @@
         <v>5</v>
       </c>
       <c r="G133" s="2">
-        <v>1.000</v>
+        <v>31.000</v>
       </c>
       <c r="H133" s="3">
-        <v>456.42</v>
+        <v>6006.42</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5170,10 +5188,10 @@
         <v>5</v>
       </c>
       <c r="G134" s="2">
-        <v>38.000</v>
+        <v>1.000</v>
       </c>
       <c r="H134" s="3">
-        <v>3906.21</v>
+        <v>456.42</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5196,10 +5214,10 @@
         <v>5</v>
       </c>
       <c r="G135" s="2">
-        <v>205.000</v>
+        <v>38.000</v>
       </c>
       <c r="H135" s="3">
-        <v>68841.95</v>
+        <v>3906.21</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5222,10 +5240,10 @@
         <v>5</v>
       </c>
       <c r="G136" s="2">
-        <v>173.000</v>
+        <v>178.000</v>
       </c>
       <c r="H136" s="3">
-        <v>27427.88</v>
+        <v>59775.06</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5248,10 +5266,10 @@
         <v>5</v>
       </c>
       <c r="G137" s="2">
-        <v>15.000</v>
+        <v>173.000</v>
       </c>
       <c r="H137" s="3">
-        <v>476.00</v>
+        <v>27427.88</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5274,10 +5292,10 @@
         <v>5</v>
       </c>
       <c r="G138" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="H138" s="3">
-        <v>1940.18</v>
+        <v>476.00</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5300,10 +5318,10 @@
         <v>5</v>
       </c>
       <c r="G139" s="2">
-        <v>217.000</v>
+        <v>1.000</v>
       </c>
       <c r="H139" s="3">
-        <v>10193.51</v>
+        <v>1940.18</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5326,10 +5344,10 @@
         <v>5</v>
       </c>
       <c r="G140" s="2">
-        <v>7.000</v>
+        <v>216.000</v>
       </c>
       <c r="H140" s="3">
-        <v>1315.91</v>
+        <v>10146.54</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5355,7 +5373,7 @@
         <v>7.000</v>
       </c>
       <c r="H141" s="3">
-        <v>2794.33</v>
+        <v>1315.91</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5378,10 +5396,10 @@
         <v>5</v>
       </c>
       <c r="G142" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="H142" s="3">
-        <v>294.12</v>
+        <v>2794.33</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5404,10 +5422,10 @@
         <v>5</v>
       </c>
       <c r="G143" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="H143" s="3">
-        <v>245.58</v>
+        <v>294.12</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5430,10 +5448,10 @@
         <v>5</v>
       </c>
       <c r="G144" s="2">
-        <v>2.000</v>
+        <v>60.000</v>
       </c>
       <c r="H144" s="3">
-        <v>515.79</v>
+        <v>227.27</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5456,10 +5474,10 @@
         <v>5</v>
       </c>
       <c r="G145" s="2">
-        <v>5.000</v>
+        <v>4.000</v>
       </c>
       <c r="H145" s="3">
-        <v>259.00</v>
+        <v>196.46</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5482,10 +5500,10 @@
         <v>5</v>
       </c>
       <c r="G146" s="2">
-        <v>11.000</v>
+        <v>2.000</v>
       </c>
       <c r="H146" s="3">
-        <v>464.62</v>
+        <v>515.79</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5508,10 +5526,10 @@
         <v>5</v>
       </c>
       <c r="G147" s="2">
-        <v>12.000</v>
+        <v>5.000</v>
       </c>
       <c r="H147" s="3">
-        <v>6788.63</v>
+        <v>259.00</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5534,10 +5552,10 @@
         <v>5</v>
       </c>
       <c r="G148" s="2">
-        <v>2.000</v>
+        <v>11.000</v>
       </c>
       <c r="H148" s="3">
-        <v>77.91</v>
+        <v>464.62</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5560,10 +5578,10 @@
         <v>5</v>
       </c>
       <c r="G149" s="2">
-        <v>13.000</v>
+        <v>12.000</v>
       </c>
       <c r="H149" s="3">
-        <v>1268.55</v>
+        <v>6788.63</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5586,10 +5604,10 @@
         <v>5</v>
       </c>
       <c r="G150" s="2">
-        <v>100.000</v>
+        <v>2.000</v>
       </c>
       <c r="H150" s="3">
-        <v>127.69</v>
+        <v>77.91</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5612,10 +5630,10 @@
         <v>5</v>
       </c>
       <c r="G151" s="2">
-        <v>2.000</v>
+        <v>13.000</v>
       </c>
       <c r="H151" s="3">
-        <v>500.31</v>
+        <v>1268.55</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5638,10 +5656,10 @@
         <v>5</v>
       </c>
       <c r="G152" s="2">
-        <v>14.000</v>
+        <v>100.000</v>
       </c>
       <c r="H152" s="3">
-        <v>3582.87</v>
+        <v>127.69</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5667,7 +5685,7 @@
         <v>2.000</v>
       </c>
       <c r="H153" s="3">
-        <v>2633.80</v>
+        <v>500.31</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5687,13 +5705,13 @@
         <v>310</v>
       </c>
       <c r="F154" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G154" s="2">
-        <v>20.300</v>
+        <v>14.000</v>
       </c>
       <c r="H154" s="3">
-        <v>6816.84</v>
+        <v>3582.87</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5713,13 +5731,13 @@
         <v>312</v>
       </c>
       <c r="F155" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G155" s="2">
-        <v>6.000</v>
+        <v>2.000</v>
       </c>
       <c r="H155" s="3">
-        <v>2277.93</v>
+        <v>2633.80</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5739,13 +5757,13 @@
         <v>314</v>
       </c>
       <c r="F156" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G156" s="2">
-        <v>5.000</v>
+        <v>20.300</v>
       </c>
       <c r="H156" s="3">
-        <v>2725.89</v>
+        <v>6816.84</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5765,13 +5783,13 @@
         <v>316</v>
       </c>
       <c r="F157" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G157" s="2">
-        <v>16.000</v>
+        <v>6.000</v>
       </c>
       <c r="H157" s="3">
-        <v>8833.50</v>
+        <v>2277.93</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5794,10 +5812,10 @@
         <v>5</v>
       </c>
       <c r="G158" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="H158" s="3">
-        <v>939.61</v>
+        <v>2725.89</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5820,10 +5838,10 @@
         <v>5</v>
       </c>
       <c r="G159" s="2">
-        <v>1.000</v>
+        <v>16.000</v>
       </c>
       <c r="H159" s="3">
-        <v>6585.02</v>
+        <v>8833.50</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5846,10 +5864,10 @@
         <v>5</v>
       </c>
       <c r="G160" s="2">
-        <v>15.000</v>
+        <v>1.000</v>
       </c>
       <c r="H160" s="3">
-        <v>6465.22</v>
+        <v>939.61</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5872,10 +5890,10 @@
         <v>5</v>
       </c>
       <c r="G161" s="2">
-        <v>148.000</v>
+        <v>1.000</v>
       </c>
       <c r="H161" s="3">
-        <v>866.54</v>
+        <v>6585.02</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5895,13 +5913,13 @@
         <v>326</v>
       </c>
       <c r="F162" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G162" s="2">
-        <v>47.250</v>
+        <v>15.000</v>
       </c>
       <c r="H162" s="3">
-        <v>5148.59</v>
+        <v>6465.22</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5924,10 +5942,10 @@
         <v>5</v>
       </c>
       <c r="G163" s="2">
-        <v>4.000</v>
+        <v>145.000</v>
       </c>
       <c r="H163" s="3">
-        <v>280.00</v>
+        <v>848.98</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5947,13 +5965,13 @@
         <v>330</v>
       </c>
       <c r="F164" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G164" s="2">
-        <v>11.000</v>
+        <v>47.250</v>
       </c>
       <c r="H164" s="3">
-        <v>832.21</v>
+        <v>5148.59</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5976,10 +5994,10 @@
         <v>5</v>
       </c>
       <c r="G165" s="2">
-        <v>5.000</v>
+        <v>4.000</v>
       </c>
       <c r="H165" s="3">
-        <v>718.30</v>
+        <v>280.00</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6002,10 +6020,10 @@
         <v>5</v>
       </c>
       <c r="G166" s="2">
-        <v>2.000</v>
+        <v>11.000</v>
       </c>
       <c r="H166" s="3">
-        <v>801.31</v>
+        <v>832.21</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6028,10 +6046,10 @@
         <v>5</v>
       </c>
       <c r="G167" s="2">
-        <v>169.000</v>
+        <v>5.000</v>
       </c>
       <c r="H167" s="3">
-        <v>11799.62</v>
+        <v>718.30</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6054,10 +6072,10 @@
         <v>5</v>
       </c>
       <c r="G168" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="H168" s="3">
-        <v>111.86</v>
+        <v>801.31</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6080,10 +6098,10 @@
         <v>5</v>
       </c>
       <c r="G169" s="2">
-        <v>1.000</v>
+        <v>169.000</v>
       </c>
       <c r="H169" s="3">
-        <v>179.29</v>
+        <v>11799.62</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6106,10 +6124,10 @@
         <v>5</v>
       </c>
       <c r="G170" s="2">
-        <v>60.000</v>
+        <v>1.000</v>
       </c>
       <c r="H170" s="3">
-        <v>1004.55</v>
+        <v>111.86</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6132,10 +6150,10 @@
         <v>5</v>
       </c>
       <c r="G171" s="2">
-        <v>191.000</v>
+        <v>1.000</v>
       </c>
       <c r="H171" s="3">
-        <v>7199.74</v>
+        <v>179.29</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6158,10 +6176,10 @@
         <v>5</v>
       </c>
       <c r="G172" s="2">
-        <v>3.000</v>
+        <v>60.000</v>
       </c>
       <c r="H172" s="3">
-        <v>840.40</v>
+        <v>1004.55</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6184,10 +6202,10 @@
         <v>5</v>
       </c>
       <c r="G173" s="2">
-        <v>239.000</v>
+        <v>198.000</v>
       </c>
       <c r="H173" s="3">
-        <v>41733.94</v>
+        <v>7463.61</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6210,10 +6228,10 @@
         <v>5</v>
       </c>
       <c r="G174" s="2">
-        <v>343.000</v>
+        <v>3.000</v>
       </c>
       <c r="H174" s="3">
-        <v>11552.02</v>
+        <v>840.40</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6236,10 +6254,10 @@
         <v>5</v>
       </c>
       <c r="G175" s="2">
-        <v>1.000</v>
+        <v>254.000</v>
       </c>
       <c r="H175" s="3">
-        <v>91.20</v>
+        <v>44353.23</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6262,10 +6280,10 @@
         <v>5</v>
       </c>
       <c r="G176" s="2">
-        <v>2.000</v>
+        <v>321.000</v>
       </c>
       <c r="H176" s="3">
-        <v>1166.57</v>
+        <v>10811.07</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6288,10 +6306,10 @@
         <v>5</v>
       </c>
       <c r="G177" s="2">
-        <v>11.000</v>
+        <v>1.000</v>
       </c>
       <c r="H177" s="3">
-        <v>19946.35</v>
+        <v>91.20</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6314,10 +6332,10 @@
         <v>5</v>
       </c>
       <c r="G178" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="H178" s="3">
-        <v>40.71</v>
+        <v>1166.57</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6340,10 +6358,10 @@
         <v>5</v>
       </c>
       <c r="G179" s="2">
-        <v>10.000</v>
+        <v>11.000</v>
       </c>
       <c r="H179" s="3">
-        <v>374.15</v>
+        <v>19946.35</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6369,7 +6387,7 @@
         <v>1.000</v>
       </c>
       <c r="H180" s="3">
-        <v>89.56</v>
+        <v>40.71</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6392,10 +6410,10 @@
         <v>5</v>
       </c>
       <c r="G181" s="2">
-        <v>27.000</v>
+        <v>10.000</v>
       </c>
       <c r="H181" s="3">
-        <v>7541.92</v>
+        <v>374.15</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6418,10 +6436,10 @@
         <v>5</v>
       </c>
       <c r="G182" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="H182" s="3">
-        <v>4191.85</v>
+        <v>89.56</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6444,10 +6462,10 @@
         <v>5</v>
       </c>
       <c r="G183" s="2">
-        <v>27.000</v>
+        <v>25.000</v>
       </c>
       <c r="H183" s="3">
-        <v>2129.31</v>
+        <v>6983.26</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6470,10 +6488,10 @@
         <v>5</v>
       </c>
       <c r="G184" s="2">
-        <v>51.000</v>
+        <v>10.000</v>
       </c>
       <c r="H184" s="3">
-        <v>2000.85</v>
+        <v>4191.85</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6496,10 +6514,10 @@
         <v>5</v>
       </c>
       <c r="G185" s="2">
-        <v>446.000</v>
+        <v>27.000</v>
       </c>
       <c r="H185" s="3">
-        <v>3213.30</v>
+        <v>2129.31</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6522,10 +6540,10 @@
         <v>5</v>
       </c>
       <c r="G186" s="2">
-        <v>1.000</v>
+        <v>51.000</v>
       </c>
       <c r="H186" s="3">
-        <v>3996.64</v>
+        <v>2000.85</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6548,10 +6566,10 @@
         <v>5</v>
       </c>
       <c r="G187" s="2">
-        <v>903.000</v>
+        <v>437.000</v>
       </c>
       <c r="H187" s="3">
-        <v>6097.97</v>
+        <v>3152.70</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6574,10 +6592,10 @@
         <v>5</v>
       </c>
       <c r="G188" s="2">
-        <v>4.000</v>
+        <v>1.000</v>
       </c>
       <c r="H188" s="3">
-        <v>447.91</v>
+        <v>3996.64</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6600,10 +6618,10 @@
         <v>5</v>
       </c>
       <c r="G189" s="2">
-        <v>1.000</v>
+        <v>879.000</v>
       </c>
       <c r="H189" s="3">
-        <v>118.27</v>
+        <v>5759.22</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6626,10 +6644,10 @@
         <v>5</v>
       </c>
       <c r="G190" s="2">
-        <v>3607.000</v>
+        <v>4.000</v>
       </c>
       <c r="H190" s="3">
-        <v>36375.55</v>
+        <v>447.91</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6652,10 +6670,10 @@
         <v>5</v>
       </c>
       <c r="G191" s="2">
-        <v>140.000</v>
+        <v>1.000</v>
       </c>
       <c r="H191" s="3">
-        <v>3786.52</v>
+        <v>118.27</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6678,10 +6696,10 @@
         <v>5</v>
       </c>
       <c r="G192" s="2">
-        <v>16.000</v>
+        <v>3694.000</v>
       </c>
       <c r="H192" s="3">
-        <v>520.62</v>
+        <v>37355.16</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6704,10 +6722,10 @@
         <v>5</v>
       </c>
       <c r="G193" s="2">
-        <v>20.000</v>
+        <v>134.000</v>
       </c>
       <c r="H193" s="3">
-        <v>769.05</v>
+        <v>3624.24</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6730,10 +6748,10 @@
         <v>5</v>
       </c>
       <c r="G194" s="2">
-        <v>1.000</v>
+        <v>16.000</v>
       </c>
       <c r="H194" s="3">
-        <v>863.17</v>
+        <v>520.62</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6756,10 +6774,10 @@
         <v>5</v>
       </c>
       <c r="G195" s="2">
-        <v>1.000</v>
+        <v>20.000</v>
       </c>
       <c r="H195" s="3">
-        <v>2480.45</v>
+        <v>769.05</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6785,7 +6803,7 @@
         <v>1.000</v>
       </c>
       <c r="H196" s="3">
-        <v>153.40</v>
+        <v>863.17</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6808,10 +6826,10 @@
         <v>5</v>
       </c>
       <c r="G197" s="2">
-        <v>2.000</v>
+        <v>57.000</v>
       </c>
       <c r="H197" s="3">
-        <v>5453.26</v>
+        <v>3591.54</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6834,10 +6852,10 @@
         <v>5</v>
       </c>
       <c r="G198" s="2">
-        <v>24.000</v>
+        <v>1.000</v>
       </c>
       <c r="H198" s="3">
-        <v>12277.28</v>
+        <v>2480.45</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6860,10 +6878,10 @@
         <v>5</v>
       </c>
       <c r="G199" s="2">
-        <v>350.000</v>
+        <v>1.000</v>
       </c>
       <c r="H199" s="3">
-        <v>255.61</v>
+        <v>153.40</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6886,10 +6904,10 @@
         <v>5</v>
       </c>
       <c r="G200" s="2">
-        <v>19.000</v>
+        <v>2.000</v>
       </c>
       <c r="H200" s="3">
-        <v>723.49</v>
+        <v>5453.26</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6912,10 +6930,10 @@
         <v>5</v>
       </c>
       <c r="G201" s="2">
-        <v>5.000</v>
+        <v>23.000</v>
       </c>
       <c r="H201" s="3">
-        <v>190.00</v>
+        <v>11765.72</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6938,10 +6956,10 @@
         <v>5</v>
       </c>
       <c r="G202" s="2">
-        <v>1.000</v>
+        <v>350.000</v>
       </c>
       <c r="H202" s="3">
-        <v>144.75</v>
+        <v>255.61</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6964,10 +6982,10 @@
         <v>5</v>
       </c>
       <c r="G203" s="2">
-        <v>1.000</v>
+        <v>19.000</v>
       </c>
       <c r="H203" s="3">
-        <v>562.67</v>
+        <v>723.49</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6990,10 +7008,10 @@
         <v>5</v>
       </c>
       <c r="G204" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="H204" s="3">
-        <v>316.84</v>
+        <v>190.00</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7016,10 +7034,10 @@
         <v>5</v>
       </c>
       <c r="G205" s="2">
-        <v>7.000</v>
+        <v>1.000</v>
       </c>
       <c r="H205" s="3">
-        <v>2566.21</v>
+        <v>144.75</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7042,10 +7060,10 @@
         <v>5</v>
       </c>
       <c r="G206" s="2">
-        <v>36.000</v>
+        <v>1.000</v>
       </c>
       <c r="H206" s="3">
-        <v>16638.99</v>
+        <v>562.67</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7068,10 +7086,10 @@
         <v>5</v>
       </c>
       <c r="G207" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="H207" s="3">
-        <v>3640.65</v>
+        <v>316.84</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7094,10 +7112,10 @@
         <v>5</v>
       </c>
       <c r="G208" s="2">
-        <v>105.000</v>
+        <v>7.000</v>
       </c>
       <c r="H208" s="3">
-        <v>141.88</v>
+        <v>2566.21</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7117,13 +7135,13 @@
         <v>420</v>
       </c>
       <c r="F209" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G209" s="2">
-        <v>71653.600</v>
+        <v>36.000</v>
       </c>
       <c r="H209" s="3">
-        <v>167976.62</v>
+        <v>16638.99</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7146,10 +7164,10 @@
         <v>5</v>
       </c>
       <c r="G210" s="2">
-        <v>49.000</v>
+        <v>10.000</v>
       </c>
       <c r="H210" s="3">
-        <v>1073.76</v>
+        <v>3640.65</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7172,10 +7190,10 @@
         <v>5</v>
       </c>
       <c r="G211" s="2">
-        <v>99.000</v>
+        <v>84.000</v>
       </c>
       <c r="H211" s="3">
-        <v>3528.74</v>
+        <v>113.50</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7195,13 +7213,13 @@
         <v>426</v>
       </c>
       <c r="F212" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G212" s="2">
-        <v>1.000</v>
+        <v>72446.600</v>
       </c>
       <c r="H212" s="3">
-        <v>303.12</v>
+        <v>169835.72</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7224,10 +7242,10 @@
         <v>5</v>
       </c>
       <c r="G213" s="2">
-        <v>14.000</v>
+        <v>49.000</v>
       </c>
       <c r="H213" s="3">
-        <v>1053.91</v>
+        <v>1086.67</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7250,10 +7268,10 @@
         <v>5</v>
       </c>
       <c r="G214" s="2">
-        <v>1.000</v>
+        <v>99.000</v>
       </c>
       <c r="H214" s="3">
-        <v>15.67</v>
+        <v>3528.74</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7276,10 +7294,10 @@
         <v>5</v>
       </c>
       <c r="G215" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H215" s="3">
-        <v>1632.07</v>
+        <v>303.12</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7302,10 +7320,10 @@
         <v>5</v>
       </c>
       <c r="G216" s="2">
-        <v>72.000</v>
+        <v>14.000</v>
       </c>
       <c r="H216" s="3">
-        <v>1149.32</v>
+        <v>1053.91</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7328,10 +7346,10 @@
         <v>5</v>
       </c>
       <c r="G217" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H217" s="3">
-        <v>3527.49</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7354,10 +7372,10 @@
         <v>5</v>
       </c>
       <c r="G218" s="2">
-        <v>19.000</v>
+        <v>2.000</v>
       </c>
       <c r="H218" s="3">
-        <v>3239.70</v>
+        <v>1632.07</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7380,10 +7398,10 @@
         <v>5</v>
       </c>
       <c r="G219" s="2">
-        <v>308.000</v>
+        <v>72.000</v>
       </c>
       <c r="H219" s="3">
-        <v>16243.97</v>
+        <v>1149.32</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7406,10 +7424,10 @@
         <v>5</v>
       </c>
       <c r="G220" s="2">
-        <v>6334.000</v>
+        <v>2.000</v>
       </c>
       <c r="H220" s="3">
-        <v>53960.09</v>
+        <v>3527.49</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7432,10 +7450,10 @@
         <v>5</v>
       </c>
       <c r="G221" s="2">
-        <v>3.000</v>
+        <v>19.000</v>
       </c>
       <c r="H221" s="3">
-        <v>1263.43</v>
+        <v>3239.70</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7458,10 +7476,10 @@
         <v>5</v>
       </c>
       <c r="G222" s="2">
-        <v>641.000</v>
+        <v>304.000</v>
       </c>
       <c r="H222" s="3">
-        <v>1314.05</v>
+        <v>16033.01</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7484,10 +7502,10 @@
         <v>5</v>
       </c>
       <c r="G223" s="2">
-        <v>96.000</v>
+        <v>6404.000</v>
       </c>
       <c r="H223" s="3">
-        <v>26302.97</v>
+        <v>55022.64</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7510,10 +7528,10 @@
         <v>5</v>
       </c>
       <c r="G224" s="2">
-        <v>18.000</v>
+        <v>3.000</v>
       </c>
       <c r="H224" s="3">
-        <v>15716.71</v>
+        <v>1263.43</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7536,10 +7554,10 @@
         <v>5</v>
       </c>
       <c r="G225" s="2">
-        <v>13.000</v>
+        <v>641.000</v>
       </c>
       <c r="H225" s="3">
-        <v>1823.27</v>
+        <v>1314.05</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7562,10 +7580,10 @@
         <v>5</v>
       </c>
       <c r="G226" s="2">
-        <v>19.000</v>
+        <v>85.000</v>
       </c>
       <c r="H226" s="3">
-        <v>855.19</v>
+        <v>23289.08</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7588,10 +7606,10 @@
         <v>5</v>
       </c>
       <c r="G227" s="2">
-        <v>175.000</v>
+        <v>18.000</v>
       </c>
       <c r="H227" s="3">
-        <v>12469.59</v>
+        <v>15716.71</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7611,13 +7629,13 @@
         <v>458</v>
       </c>
       <c r="F228" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G228" s="2">
-        <v>27.800</v>
+        <v>13.000</v>
       </c>
       <c r="H228" s="3">
-        <v>6392.90</v>
+        <v>1823.27</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7637,13 +7655,13 @@
         <v>460</v>
       </c>
       <c r="F229" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G229" s="2">
-        <v>16.000</v>
+        <v>19.000</v>
       </c>
       <c r="H229" s="3">
-        <v>7011.29</v>
+        <v>855.19</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7666,10 +7684,10 @@
         <v>5</v>
       </c>
       <c r="G230" s="2">
-        <v>5.000</v>
+        <v>175.000</v>
       </c>
       <c r="H230" s="3">
-        <v>662.53</v>
+        <v>12469.59</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7689,13 +7707,13 @@
         <v>464</v>
       </c>
       <c r="F231" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G231" s="2">
-        <v>3.000</v>
+        <v>27.800</v>
       </c>
       <c r="H231" s="3">
-        <v>747.25</v>
+        <v>6392.90</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7715,13 +7733,13 @@
         <v>466</v>
       </c>
       <c r="F232" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G232" s="2">
-        <v>2.000</v>
+        <v>16.000</v>
       </c>
       <c r="H232" s="3">
-        <v>719.47</v>
+        <v>7011.29</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7744,10 +7762,10 @@
         <v>5</v>
       </c>
       <c r="G233" s="2">
-        <v>1.000</v>
+        <v>5.000</v>
       </c>
       <c r="H233" s="3">
-        <v>432.77</v>
+        <v>662.53</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7770,10 +7788,10 @@
         <v>5</v>
       </c>
       <c r="G234" s="2">
-        <v>14.000</v>
+        <v>3.000</v>
       </c>
       <c r="H234" s="3">
-        <v>782.73</v>
+        <v>747.25</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7796,10 +7814,10 @@
         <v>5</v>
       </c>
       <c r="G235" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="H235" s="3">
-        <v>103.20</v>
+        <v>719.47</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7822,10 +7840,10 @@
         <v>5</v>
       </c>
       <c r="G236" s="2">
-        <v>97.000</v>
+        <v>1.000</v>
       </c>
       <c r="H236" s="3">
-        <v>433.16</v>
+        <v>432.77</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7848,10 +7866,10 @@
         <v>5</v>
       </c>
       <c r="G237" s="2">
-        <v>114.000</v>
+        <v>14.000</v>
       </c>
       <c r="H237" s="3">
-        <v>10790.56</v>
+        <v>782.73</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7874,10 +7892,10 @@
         <v>5</v>
       </c>
       <c r="G238" s="2">
-        <v>58.000</v>
+        <v>4.000</v>
       </c>
       <c r="H238" s="3">
-        <v>5525.09</v>
+        <v>103.20</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7900,10 +7918,10 @@
         <v>5</v>
       </c>
       <c r="G239" s="2">
-        <v>1.000</v>
+        <v>97.000</v>
       </c>
       <c r="H239" s="3">
-        <v>1448.47</v>
+        <v>433.16</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7926,10 +7944,10 @@
         <v>5</v>
       </c>
       <c r="G240" s="2">
-        <v>9.000</v>
+        <v>109.000</v>
       </c>
       <c r="H240" s="3">
-        <v>2570.78</v>
+        <v>10317.29</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7952,10 +7970,10 @@
         <v>5</v>
       </c>
       <c r="G241" s="2">
-        <v>281.000</v>
+        <v>58.000</v>
       </c>
       <c r="H241" s="3">
-        <v>8417.06</v>
+        <v>5525.09</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7978,10 +7996,10 @@
         <v>5</v>
       </c>
       <c r="G242" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="H242" s="3">
-        <v>6872.81</v>
+        <v>1448.47</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8004,10 +8022,10 @@
         <v>5</v>
       </c>
       <c r="G243" s="2">
-        <v>3.000</v>
+        <v>9.000</v>
       </c>
       <c r="H243" s="3">
-        <v>295.57</v>
+        <v>2570.78</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8030,10 +8048,10 @@
         <v>5</v>
       </c>
       <c r="G244" s="2">
-        <v>19.000</v>
+        <v>280.000</v>
       </c>
       <c r="H244" s="3">
-        <v>2491.66</v>
+        <v>8387.10</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8056,10 +8074,10 @@
         <v>5</v>
       </c>
       <c r="G245" s="2">
-        <v>154.000</v>
+        <v>4.000</v>
       </c>
       <c r="H245" s="3">
-        <v>5227.02</v>
+        <v>9163.74</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8082,10 +8100,10 @@
         <v>5</v>
       </c>
       <c r="G246" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="H246" s="3">
-        <v>112.24</v>
+        <v>295.57</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8108,10 +8126,10 @@
         <v>5</v>
       </c>
       <c r="G247" s="2">
-        <v>11.000</v>
+        <v>18.000</v>
       </c>
       <c r="H247" s="3">
-        <v>2176.56</v>
+        <v>2360.52</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8134,10 +8152,10 @@
         <v>5</v>
       </c>
       <c r="G248" s="2">
-        <v>3.000</v>
+        <v>154.000</v>
       </c>
       <c r="H248" s="3">
-        <v>170.34</v>
+        <v>5227.02</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8157,13 +8175,13 @@
         <v>500</v>
       </c>
       <c r="F249" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G249" s="2">
-        <v>7.000</v>
+        <v>1.000</v>
       </c>
       <c r="H249" s="3">
-        <v>1520.59</v>
+        <v>112.24</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8186,10 +8204,10 @@
         <v>5</v>
       </c>
       <c r="G250" s="2">
-        <v>25.000</v>
+        <v>11.000</v>
       </c>
       <c r="H250" s="3">
-        <v>1242.33</v>
+        <v>2176.56</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8212,10 +8230,10 @@
         <v>5</v>
       </c>
       <c r="G251" s="2">
-        <v>10.000</v>
+        <v>3.000</v>
       </c>
       <c r="H251" s="3">
-        <v>201.79</v>
+        <v>170.34</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8235,37 +8253,115 @@
         <v>506</v>
       </c>
       <c r="F252" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G252" s="2">
+        <v>7.000</v>
+      </c>
+      <c r="H252" s="3">
+        <v>1520.59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>507</v>
+      </c>
+      <c r="E253" t="s">
+        <v>508</v>
+      </c>
+      <c r="F253" t="s">
+        <v>5</v>
+      </c>
+      <c r="G253" s="2">
+        <v>25.000</v>
+      </c>
+      <c r="H253" s="3">
+        <v>1242.33</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>509</v>
+      </c>
+      <c r="E254" t="s">
+        <v>510</v>
+      </c>
+      <c r="F254" t="s">
+        <v>5</v>
+      </c>
+      <c r="G254" s="2">
+        <v>10.000</v>
+      </c>
+      <c r="H254" s="3">
+        <v>201.79</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>511</v>
+      </c>
+      <c r="E255" t="s">
+        <v>512</v>
+      </c>
+      <c r="F255" t="s">
+        <v>5</v>
+      </c>
+      <c r="G255" s="2">
         <v>43.000</v>
       </c>
-      <c r="H252" s="3">
+      <c r="H255" s="3">
         <v>2003.95</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="F253" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="G253" s="5"/>
-      <c r="H253" s="6">
-        <v>2551303.03</v>
+    <row r="256" spans="1:8">
+      <c r="A256" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="G256" s="5"/>
+      <c r="H256" s="6">
+        <v>2462662.75</v>
       </c>
     </row>
   </sheetData>

--- a/estoque.XLSX
+++ b/estoque.XLSX
@@ -1756,10 +1756,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>1186.000</v>
+        <v>1225.000</v>
       </c>
       <c r="H2" s="3">
-        <v>4257.00</v>
+        <v>4396.97</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1782,10 +1782,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <v>2537.000</v>
+        <v>2203.000</v>
       </c>
       <c r="H3" s="3">
-        <v>349230.73</v>
+        <v>303253.97</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1912,10 +1912,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>12.000</v>
+        <v>11.000</v>
       </c>
       <c r="H8" s="3">
-        <v>5232.92</v>
+        <v>4796.84</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1990,10 +1990,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>4694.000</v>
+        <v>4903.000</v>
       </c>
       <c r="H11" s="3">
-        <v>136838.24</v>
+        <v>142930.96</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2120,10 +2120,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>1415.000</v>
+        <v>1214.000</v>
       </c>
       <c r="H16" s="3">
-        <v>120936.41</v>
+        <v>103757.43</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2224,10 +2224,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="2">
-        <v>2500.000</v>
+        <v>2440.000</v>
       </c>
       <c r="H20" s="3">
-        <v>211615.70</v>
+        <v>206536.87</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2328,10 +2328,10 @@
         <v>5</v>
       </c>
       <c r="G24" s="2">
-        <v>131.000</v>
+        <v>98.000</v>
       </c>
       <c r="H24" s="3">
-        <v>59215.96</v>
+        <v>44298.97</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2357,7 +2357,7 @@
         <v>59.100</v>
       </c>
       <c r="H25" s="3">
-        <v>10891.83</v>
+        <v>9804.93</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2383,7 +2383,7 @@
         <v>177.600</v>
       </c>
       <c r="H26" s="3">
-        <v>1926.13</v>
+        <v>1856.17</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2409,7 +2409,7 @@
         <v>56.420</v>
       </c>
       <c r="H27" s="3">
-        <v>1893.77</v>
+        <v>1869.16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2432,10 +2432,10 @@
         <v>52</v>
       </c>
       <c r="G28" s="2">
-        <v>162.390</v>
+        <v>153.390</v>
       </c>
       <c r="H28" s="3">
-        <v>3722.42</v>
+        <v>3516.12</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2458,10 +2458,10 @@
         <v>52</v>
       </c>
       <c r="G29" s="2">
-        <v>4906.700</v>
+        <v>4818.700</v>
       </c>
       <c r="H29" s="3">
-        <v>52631.87</v>
+        <v>51510.66</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2562,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="G33" s="2">
-        <v>265.000</v>
+        <v>264.000</v>
       </c>
       <c r="H33" s="3">
-        <v>4917.07</v>
+        <v>4898.52</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3579,7 +3579,7 @@
         <v>434.000</v>
       </c>
       <c r="H72" s="3">
-        <v>9571.16</v>
+        <v>9571.17</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3758,10 +3758,10 @@
         <v>5</v>
       </c>
       <c r="G79" s="2">
-        <v>65.000</v>
+        <v>47.000</v>
       </c>
       <c r="H79" s="3">
-        <v>12115.95</v>
+        <v>8760.76</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3784,10 +3784,10 @@
         <v>5</v>
       </c>
       <c r="G80" s="2">
-        <v>315.000</v>
+        <v>335.000</v>
       </c>
       <c r="H80" s="3">
-        <v>5104.78</v>
+        <v>5428.87</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3966,10 +3966,10 @@
         <v>5</v>
       </c>
       <c r="G87" s="2">
-        <v>4231.000</v>
+        <v>4198.000</v>
       </c>
       <c r="H87" s="3">
-        <v>77591.03</v>
+        <v>77482.51</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4200,10 +4200,10 @@
         <v>5</v>
       </c>
       <c r="G96" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="H96" s="3">
-        <v>57.13</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4486,10 +4486,10 @@
         <v>5</v>
       </c>
       <c r="G107" s="2">
-        <v>479.000</v>
+        <v>529.000</v>
       </c>
       <c r="H107" s="3">
-        <v>2021.92</v>
+        <v>2232.98</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4538,10 +4538,10 @@
         <v>5</v>
       </c>
       <c r="G109" s="2">
-        <v>44.000</v>
+        <v>47.000</v>
       </c>
       <c r="H109" s="3">
-        <v>1485.63</v>
+        <v>1586.92</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4590,10 +4590,10 @@
         <v>5</v>
       </c>
       <c r="G111" s="2">
-        <v>167.000</v>
+        <v>206.000</v>
       </c>
       <c r="H111" s="3">
-        <v>6191.35</v>
+        <v>7637.23</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4954,10 +4954,10 @@
         <v>5</v>
       </c>
       <c r="G125" s="2">
-        <v>892.000</v>
+        <v>983.000</v>
       </c>
       <c r="H125" s="3">
-        <v>4824.26</v>
+        <v>5316.42</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4983,7 +4983,7 @@
         <v>19.000</v>
       </c>
       <c r="H126" s="3">
-        <v>1071.31</v>
+        <v>1071.32</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5058,10 +5058,10 @@
         <v>5</v>
       </c>
       <c r="G129" s="2">
-        <v>23.000</v>
+        <v>25.000</v>
       </c>
       <c r="H129" s="3">
-        <v>2437.98</v>
+        <v>2649.98</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5240,10 +5240,10 @@
         <v>5</v>
       </c>
       <c r="G136" s="2">
-        <v>178.000</v>
+        <v>167.000</v>
       </c>
       <c r="H136" s="3">
-        <v>59775.06</v>
+        <v>56081.11</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5266,10 +5266,10 @@
         <v>5</v>
       </c>
       <c r="G137" s="2">
-        <v>173.000</v>
+        <v>172.000</v>
       </c>
       <c r="H137" s="3">
-        <v>27427.88</v>
+        <v>27269.34</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5942,10 +5942,10 @@
         <v>5</v>
       </c>
       <c r="G163" s="2">
-        <v>145.000</v>
+        <v>143.000</v>
       </c>
       <c r="H163" s="3">
-        <v>848.98</v>
+        <v>837.27</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6254,10 +6254,10 @@
         <v>5</v>
       </c>
       <c r="G175" s="2">
-        <v>254.000</v>
+        <v>253.000</v>
       </c>
       <c r="H175" s="3">
-        <v>44353.23</v>
+        <v>44178.61</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6280,10 +6280,10 @@
         <v>5</v>
       </c>
       <c r="G176" s="2">
-        <v>321.000</v>
+        <v>362.000</v>
       </c>
       <c r="H176" s="3">
-        <v>10811.07</v>
+        <v>12191.92</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6621,7 +6621,7 @@
         <v>879.000</v>
       </c>
       <c r="H189" s="3">
-        <v>5759.22</v>
+        <v>5754.59</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6696,10 +6696,10 @@
         <v>5</v>
       </c>
       <c r="G192" s="2">
-        <v>3694.000</v>
+        <v>3673.000</v>
       </c>
       <c r="H192" s="3">
-        <v>37355.16</v>
+        <v>37142.80</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7190,10 +7190,10 @@
         <v>5</v>
       </c>
       <c r="G211" s="2">
-        <v>84.000</v>
+        <v>49.000</v>
       </c>
       <c r="H211" s="3">
-        <v>113.50</v>
+        <v>66.21</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7216,10 +7216,10 @@
         <v>52</v>
       </c>
       <c r="G212" s="2">
-        <v>72446.600</v>
+        <v>72161.600</v>
       </c>
       <c r="H212" s="3">
-        <v>169835.72</v>
+        <v>169167.63</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7476,10 +7476,10 @@
         <v>5</v>
       </c>
       <c r="G222" s="2">
-        <v>304.000</v>
+        <v>300.000</v>
       </c>
       <c r="H222" s="3">
-        <v>16033.01</v>
+        <v>15822.05</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7502,10 +7502,10 @@
         <v>5</v>
       </c>
       <c r="G223" s="2">
-        <v>6404.000</v>
+        <v>6245.000</v>
       </c>
       <c r="H223" s="3">
-        <v>55022.64</v>
+        <v>53656.61</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7580,10 +7580,10 @@
         <v>5</v>
       </c>
       <c r="G226" s="2">
-        <v>85.000</v>
+        <v>84.000</v>
       </c>
       <c r="H226" s="3">
-        <v>23289.08</v>
+        <v>23015.09</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7684,10 +7684,10 @@
         <v>5</v>
       </c>
       <c r="G230" s="2">
-        <v>175.000</v>
+        <v>211.000</v>
       </c>
       <c r="H230" s="3">
-        <v>12469.59</v>
+        <v>15034.76</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8048,10 +8048,10 @@
         <v>5</v>
       </c>
       <c r="G244" s="2">
-        <v>280.000</v>
+        <v>310.000</v>
       </c>
       <c r="H244" s="3">
-        <v>8387.10</v>
+        <v>9285.72</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="G256" s="5"/>
       <c r="H256" s="6">
-        <v>2462662.75</v>
+        <v>2380074.11</v>
       </c>
     </row>
   </sheetData>

--- a/estoque.XLSX
+++ b/estoque.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="518">
   <si>
     <t>0006</t>
   </si>
@@ -592,12 +592,6 @@
     <t>LUVA CORRER BB ESG DN 200 - JE</t>
   </si>
   <si>
-    <t>30005894</t>
-  </si>
-  <si>
-    <t>LUVA CORRER BB ESG DN 100 - JE</t>
-  </si>
-  <si>
     <t>30005893</t>
   </si>
   <si>
@@ -662,12 +656,6 @@
   </si>
   <si>
     <t>LUVA ELETROF - DE 20 - SDR 11 - PE 100</t>
-  </si>
-  <si>
-    <t>30005746</t>
-  </si>
-  <si>
-    <t>LUVA ELETROF - DE 110 - SDR 11 - PE 100</t>
   </si>
   <si>
     <t>30005619</t>
@@ -1692,7 +1680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,28 +1700,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1756,10 +1744,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>1225.000</v>
+        <v>969.000</v>
       </c>
       <c r="H2" s="3">
-        <v>4396.97</v>
+        <v>3478.07</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1782,10 +1770,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="2">
-        <v>2203.000</v>
+        <v>2130.000</v>
       </c>
       <c r="H3" s="3">
-        <v>303253.97</v>
+        <v>293205.15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1912,10 +1900,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>11.000</v>
+        <v>10.000</v>
       </c>
       <c r="H8" s="3">
-        <v>4796.84</v>
+        <v>4360.77</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1990,10 +1978,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>4903.000</v>
+        <v>4897.000</v>
       </c>
       <c r="H11" s="3">
-        <v>142930.96</v>
+        <v>142756.05</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2120,10 +2108,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>1214.000</v>
+        <v>1170.000</v>
       </c>
       <c r="H16" s="3">
-        <v>103757.43</v>
+        <v>99996.86</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2224,10 +2212,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="2">
-        <v>2440.000</v>
+        <v>2358.000</v>
       </c>
       <c r="H20" s="3">
-        <v>206536.87</v>
+        <v>199595.81</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2305,7 +2293,7 @@
         <v>65.000</v>
       </c>
       <c r="H23" s="3">
-        <v>9487.93</v>
+        <v>9487.92</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2328,10 +2316,10 @@
         <v>5</v>
       </c>
       <c r="G24" s="2">
-        <v>98.000</v>
+        <v>97.000</v>
       </c>
       <c r="H24" s="3">
-        <v>44298.97</v>
+        <v>43846.94</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2380,10 +2368,10 @@
         <v>52</v>
       </c>
       <c r="G26" s="2">
-        <v>177.600</v>
+        <v>174.600</v>
       </c>
       <c r="H26" s="3">
-        <v>1856.17</v>
+        <v>1824.82</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2406,10 +2394,10 @@
         <v>52</v>
       </c>
       <c r="G27" s="2">
-        <v>56.420</v>
+        <v>412.920</v>
       </c>
       <c r="H27" s="3">
-        <v>1869.16</v>
+        <v>13679.76</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2432,10 +2420,10 @@
         <v>52</v>
       </c>
       <c r="G28" s="2">
-        <v>153.390</v>
+        <v>151.390</v>
       </c>
       <c r="H28" s="3">
-        <v>3516.12</v>
+        <v>3470.27</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2458,10 +2446,10 @@
         <v>52</v>
       </c>
       <c r="G29" s="2">
-        <v>4818.700</v>
+        <v>4760.700</v>
       </c>
       <c r="H29" s="3">
-        <v>51510.66</v>
+        <v>50890.65</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2562,10 +2550,10 @@
         <v>5</v>
       </c>
       <c r="G33" s="2">
-        <v>264.000</v>
+        <v>263.000</v>
       </c>
       <c r="H33" s="3">
-        <v>4898.52</v>
+        <v>4879.97</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2825,7 +2813,7 @@
         <v>29.000</v>
       </c>
       <c r="H43" s="3">
-        <v>1159.28</v>
+        <v>1159.29</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3186,10 +3174,10 @@
         <v>52</v>
       </c>
       <c r="G57" s="2">
-        <v>2575.670</v>
+        <v>2622.670</v>
       </c>
       <c r="H57" s="3">
-        <v>10292.19</v>
+        <v>10480.00</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3576,10 +3564,10 @@
         <v>5</v>
       </c>
       <c r="G72" s="2">
-        <v>434.000</v>
+        <v>432.000</v>
       </c>
       <c r="H72" s="3">
-        <v>9571.17</v>
+        <v>9527.06</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3758,10 +3746,10 @@
         <v>5</v>
       </c>
       <c r="G79" s="2">
-        <v>47.000</v>
+        <v>34.000</v>
       </c>
       <c r="H79" s="3">
-        <v>8760.76</v>
+        <v>6337.57</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3787,7 +3775,7 @@
         <v>335.000</v>
       </c>
       <c r="H80" s="3">
-        <v>5428.87</v>
+        <v>5428.86</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3862,10 +3850,10 @@
         <v>5</v>
       </c>
       <c r="G83" s="2">
-        <v>45.000</v>
+        <v>46.000</v>
       </c>
       <c r="H83" s="3">
-        <v>4118.02</v>
+        <v>4209.53</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3966,10 +3954,10 @@
         <v>5</v>
       </c>
       <c r="G87" s="2">
-        <v>4198.000</v>
+        <v>4214.000</v>
       </c>
       <c r="H87" s="3">
-        <v>77482.51</v>
+        <v>77777.78</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4174,10 +4162,10 @@
         <v>5</v>
       </c>
       <c r="G95" s="2">
-        <v>38.000</v>
+        <v>44.000</v>
       </c>
       <c r="H95" s="3">
-        <v>577.96</v>
+        <v>669.22</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4200,10 +4188,10 @@
         <v>5</v>
       </c>
       <c r="G96" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="H96" s="3">
-        <v>5.71</v>
+        <v>21635.48</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4226,10 +4214,10 @@
         <v>5</v>
       </c>
       <c r="G97" s="2">
-        <v>15.000</v>
+        <v>2.000</v>
       </c>
       <c r="H97" s="3">
-        <v>21635.48</v>
+        <v>3894.45</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4252,10 +4240,10 @@
         <v>5</v>
       </c>
       <c r="G98" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="H98" s="3">
-        <v>3894.45</v>
+        <v>4003.21</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4278,10 +4266,10 @@
         <v>5</v>
       </c>
       <c r="G99" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="H99" s="3">
-        <v>4003.21</v>
+        <v>2463.85</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4304,10 +4292,10 @@
         <v>5</v>
       </c>
       <c r="G100" s="2">
-        <v>1.000</v>
+        <v>8.000</v>
       </c>
       <c r="H100" s="3">
-        <v>1231.93</v>
+        <v>644.26</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4330,10 +4318,10 @@
         <v>5</v>
       </c>
       <c r="G101" s="2">
-        <v>8.000</v>
+        <v>45.000</v>
       </c>
       <c r="H101" s="3">
-        <v>644.26</v>
+        <v>5914.98</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4356,10 +4344,10 @@
         <v>5</v>
       </c>
       <c r="G102" s="2">
-        <v>47.000</v>
+        <v>42.000</v>
       </c>
       <c r="H102" s="3">
-        <v>6177.87</v>
+        <v>3630.70</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4382,10 +4370,10 @@
         <v>5</v>
       </c>
       <c r="G103" s="2">
-        <v>43.000</v>
+        <v>10.000</v>
       </c>
       <c r="H103" s="3">
-        <v>3717.14</v>
+        <v>1194.56</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4408,10 +4396,10 @@
         <v>5</v>
       </c>
       <c r="G104" s="2">
-        <v>10.000</v>
+        <v>25.000</v>
       </c>
       <c r="H104" s="3">
-        <v>1194.56</v>
+        <v>116.25</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4434,10 +4422,10 @@
         <v>5</v>
       </c>
       <c r="G105" s="2">
-        <v>25.000</v>
+        <v>2.000</v>
       </c>
       <c r="H105" s="3">
-        <v>116.25</v>
+        <v>223.74</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4460,10 +4448,10 @@
         <v>5</v>
       </c>
       <c r="G106" s="2">
-        <v>2.000</v>
+        <v>496.000</v>
       </c>
       <c r="H106" s="3">
-        <v>223.74</v>
+        <v>2093.68</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4486,10 +4474,10 @@
         <v>5</v>
       </c>
       <c r="G107" s="2">
-        <v>529.000</v>
+        <v>44.000</v>
       </c>
       <c r="H107" s="3">
-        <v>2232.98</v>
+        <v>1485.63</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4512,10 +4500,10 @@
         <v>5</v>
       </c>
       <c r="G108" s="2">
-        <v>3.000</v>
+        <v>110.000</v>
       </c>
       <c r="H108" s="3">
-        <v>82.99</v>
+        <v>5466.50</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4538,10 +4526,10 @@
         <v>5</v>
       </c>
       <c r="G109" s="2">
-        <v>47.000</v>
+        <v>204.000</v>
       </c>
       <c r="H109" s="3">
-        <v>1586.92</v>
+        <v>7563.08</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4564,10 +4552,10 @@
         <v>5</v>
       </c>
       <c r="G110" s="2">
-        <v>110.000</v>
+        <v>10.000</v>
       </c>
       <c r="H110" s="3">
-        <v>5466.50</v>
+        <v>2229.94</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4590,10 +4578,10 @@
         <v>5</v>
       </c>
       <c r="G111" s="2">
-        <v>206.000</v>
+        <v>1.000</v>
       </c>
       <c r="H111" s="3">
-        <v>7637.23</v>
+        <v>370.49</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4616,10 +4604,10 @@
         <v>5</v>
       </c>
       <c r="G112" s="2">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="H112" s="3">
-        <v>2229.94</v>
+        <v>279.59</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4642,10 +4630,10 @@
         <v>5</v>
       </c>
       <c r="G113" s="2">
-        <v>1.000</v>
+        <v>13.000</v>
       </c>
       <c r="H113" s="3">
-        <v>370.49</v>
+        <v>1460.31</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4668,10 +4656,10 @@
         <v>5</v>
       </c>
       <c r="G114" s="2">
-        <v>1.000</v>
+        <v>8.000</v>
       </c>
       <c r="H114" s="3">
-        <v>279.59</v>
+        <v>1484.30</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4694,10 +4682,10 @@
         <v>5</v>
       </c>
       <c r="G115" s="2">
-        <v>13.000</v>
+        <v>2.000</v>
       </c>
       <c r="H115" s="3">
-        <v>1460.31</v>
+        <v>316.21</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4720,10 +4708,10 @@
         <v>5</v>
       </c>
       <c r="G116" s="2">
-        <v>8.000</v>
+        <v>3.000</v>
       </c>
       <c r="H116" s="3">
-        <v>1484.30</v>
+        <v>651.71</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4746,10 +4734,10 @@
         <v>5</v>
       </c>
       <c r="G117" s="2">
-        <v>2.000</v>
+        <v>5.000</v>
       </c>
       <c r="H117" s="3">
-        <v>316.21</v>
+        <v>383.07</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4772,10 +4760,10 @@
         <v>5</v>
       </c>
       <c r="G118" s="2">
-        <v>3.000</v>
+        <v>25.000</v>
       </c>
       <c r="H118" s="3">
-        <v>651.71</v>
+        <v>2285.18</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4798,10 +4786,10 @@
         <v>5</v>
       </c>
       <c r="G119" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="H119" s="3">
-        <v>383.07</v>
+        <v>53.60</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4824,10 +4812,10 @@
         <v>5</v>
       </c>
       <c r="G120" s="2">
-        <v>25.000</v>
+        <v>2.000</v>
       </c>
       <c r="H120" s="3">
-        <v>2285.18</v>
+        <v>303.21</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4850,10 +4838,10 @@
         <v>5</v>
       </c>
       <c r="G121" s="2">
-        <v>1.000</v>
+        <v>47.000</v>
       </c>
       <c r="H121" s="3">
-        <v>53.60</v>
+        <v>2684.91</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4876,10 +4864,10 @@
         <v>5</v>
       </c>
       <c r="G122" s="2">
-        <v>2.000</v>
+        <v>6.000</v>
       </c>
       <c r="H122" s="3">
-        <v>303.21</v>
+        <v>171.68</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4902,10 +4890,10 @@
         <v>5</v>
       </c>
       <c r="G123" s="2">
-        <v>47.000</v>
+        <v>972.000</v>
       </c>
       <c r="H123" s="3">
-        <v>2684.91</v>
+        <v>5256.92</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4928,10 +4916,10 @@
         <v>5</v>
       </c>
       <c r="G124" s="2">
-        <v>6.000</v>
+        <v>19.000</v>
       </c>
       <c r="H124" s="3">
-        <v>171.68</v>
+        <v>1071.31</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4954,10 +4942,10 @@
         <v>5</v>
       </c>
       <c r="G125" s="2">
-        <v>983.000</v>
+        <v>11.000</v>
       </c>
       <c r="H125" s="3">
-        <v>5316.42</v>
+        <v>1357.53</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4980,10 +4968,10 @@
         <v>5</v>
       </c>
       <c r="G126" s="2">
-        <v>19.000</v>
+        <v>3.000</v>
       </c>
       <c r="H126" s="3">
-        <v>1071.32</v>
+        <v>743.93</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5006,10 +4994,10 @@
         <v>5</v>
       </c>
       <c r="G127" s="2">
-        <v>11.000</v>
+        <v>25.000</v>
       </c>
       <c r="H127" s="3">
-        <v>1357.53</v>
+        <v>2649.98</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5032,10 +5020,10 @@
         <v>5</v>
       </c>
       <c r="G128" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="H128" s="3">
-        <v>743.93</v>
+        <v>214.67</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5058,10 +5046,10 @@
         <v>5</v>
       </c>
       <c r="G129" s="2">
-        <v>25.000</v>
+        <v>15.000</v>
       </c>
       <c r="H129" s="3">
-        <v>2649.98</v>
+        <v>557.58</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5084,10 +5072,10 @@
         <v>5</v>
       </c>
       <c r="G130" s="2">
-        <v>1.000</v>
+        <v>11.000</v>
       </c>
       <c r="H130" s="3">
-        <v>214.67</v>
+        <v>245.73</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5110,10 +5098,10 @@
         <v>5</v>
       </c>
       <c r="G131" s="2">
-        <v>15.000</v>
+        <v>31.000</v>
       </c>
       <c r="H131" s="3">
-        <v>557.58</v>
+        <v>6006.42</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5136,10 +5124,10 @@
         <v>5</v>
       </c>
       <c r="G132" s="2">
-        <v>11.000</v>
+        <v>1.000</v>
       </c>
       <c r="H132" s="3">
-        <v>245.73</v>
+        <v>456.42</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5162,10 +5150,10 @@
         <v>5</v>
       </c>
       <c r="G133" s="2">
-        <v>31.000</v>
+        <v>38.000</v>
       </c>
       <c r="H133" s="3">
-        <v>6006.42</v>
+        <v>3906.21</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5188,10 +5176,10 @@
         <v>5</v>
       </c>
       <c r="G134" s="2">
-        <v>1.000</v>
+        <v>159.000</v>
       </c>
       <c r="H134" s="3">
-        <v>456.42</v>
+        <v>53394.58</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5214,10 +5202,10 @@
         <v>5</v>
       </c>
       <c r="G135" s="2">
-        <v>38.000</v>
+        <v>171.000</v>
       </c>
       <c r="H135" s="3">
-        <v>3906.21</v>
+        <v>27110.80</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5240,10 +5228,10 @@
         <v>5</v>
       </c>
       <c r="G136" s="2">
-        <v>167.000</v>
+        <v>15.000</v>
       </c>
       <c r="H136" s="3">
-        <v>56081.11</v>
+        <v>476.01</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5266,10 +5254,10 @@
         <v>5</v>
       </c>
       <c r="G137" s="2">
-        <v>172.000</v>
+        <v>1.000</v>
       </c>
       <c r="H137" s="3">
-        <v>27269.34</v>
+        <v>1940.18</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5292,10 +5280,10 @@
         <v>5</v>
       </c>
       <c r="G138" s="2">
-        <v>15.000</v>
+        <v>216.000</v>
       </c>
       <c r="H138" s="3">
-        <v>476.00</v>
+        <v>10146.54</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5318,10 +5306,10 @@
         <v>5</v>
       </c>
       <c r="G139" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="H139" s="3">
-        <v>1940.18</v>
+        <v>1315.91</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5344,10 +5332,10 @@
         <v>5</v>
       </c>
       <c r="G140" s="2">
-        <v>216.000</v>
+        <v>7.000</v>
       </c>
       <c r="H140" s="3">
-        <v>10146.54</v>
+        <v>2794.33</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5370,10 +5358,10 @@
         <v>5</v>
       </c>
       <c r="G141" s="2">
-        <v>7.000</v>
+        <v>1.000</v>
       </c>
       <c r="H141" s="3">
-        <v>1315.91</v>
+        <v>294.12</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5396,10 +5384,10 @@
         <v>5</v>
       </c>
       <c r="G142" s="2">
-        <v>7.000</v>
+        <v>60.000</v>
       </c>
       <c r="H142" s="3">
-        <v>2794.33</v>
+        <v>227.27</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5422,10 +5410,10 @@
         <v>5</v>
       </c>
       <c r="G143" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="H143" s="3">
-        <v>294.12</v>
+        <v>196.46</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5448,10 +5436,10 @@
         <v>5</v>
       </c>
       <c r="G144" s="2">
-        <v>60.000</v>
+        <v>2.000</v>
       </c>
       <c r="H144" s="3">
-        <v>227.27</v>
+        <v>515.79</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5474,10 +5462,10 @@
         <v>5</v>
       </c>
       <c r="G145" s="2">
-        <v>4.000</v>
+        <v>5.000</v>
       </c>
       <c r="H145" s="3">
-        <v>196.46</v>
+        <v>259.00</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5500,10 +5488,10 @@
         <v>5</v>
       </c>
       <c r="G146" s="2">
-        <v>2.000</v>
+        <v>11.000</v>
       </c>
       <c r="H146" s="3">
-        <v>515.79</v>
+        <v>464.62</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5526,10 +5514,10 @@
         <v>5</v>
       </c>
       <c r="G147" s="2">
-        <v>5.000</v>
+        <v>12.000</v>
       </c>
       <c r="H147" s="3">
-        <v>259.00</v>
+        <v>6788.63</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5552,10 +5540,10 @@
         <v>5</v>
       </c>
       <c r="G148" s="2">
-        <v>11.000</v>
+        <v>2.000</v>
       </c>
       <c r="H148" s="3">
-        <v>464.62</v>
+        <v>77.91</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5578,10 +5566,10 @@
         <v>5</v>
       </c>
       <c r="G149" s="2">
-        <v>12.000</v>
+        <v>13.000</v>
       </c>
       <c r="H149" s="3">
-        <v>6788.63</v>
+        <v>1268.55</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5604,10 +5592,10 @@
         <v>5</v>
       </c>
       <c r="G150" s="2">
-        <v>2.000</v>
+        <v>100.000</v>
       </c>
       <c r="H150" s="3">
-        <v>77.91</v>
+        <v>127.69</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5630,10 +5618,10 @@
         <v>5</v>
       </c>
       <c r="G151" s="2">
-        <v>13.000</v>
+        <v>2.000</v>
       </c>
       <c r="H151" s="3">
-        <v>1268.55</v>
+        <v>500.31</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5656,10 +5644,10 @@
         <v>5</v>
       </c>
       <c r="G152" s="2">
-        <v>100.000</v>
+        <v>14.000</v>
       </c>
       <c r="H152" s="3">
-        <v>127.69</v>
+        <v>3582.87</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5685,7 +5673,7 @@
         <v>2.000</v>
       </c>
       <c r="H153" s="3">
-        <v>500.31</v>
+        <v>2633.80</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5705,13 +5693,13 @@
         <v>310</v>
       </c>
       <c r="F154" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G154" s="2">
-        <v>14.000</v>
+        <v>20.300</v>
       </c>
       <c r="H154" s="3">
-        <v>3582.87</v>
+        <v>6816.84</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5731,13 +5719,13 @@
         <v>312</v>
       </c>
       <c r="F155" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G155" s="2">
-        <v>2.000</v>
+        <v>6.000</v>
       </c>
       <c r="H155" s="3">
-        <v>2633.80</v>
+        <v>2277.93</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5757,13 +5745,13 @@
         <v>314</v>
       </c>
       <c r="F156" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G156" s="2">
-        <v>20.300</v>
+        <v>5.000</v>
       </c>
       <c r="H156" s="3">
-        <v>6816.84</v>
+        <v>2725.89</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5783,13 +5771,13 @@
         <v>316</v>
       </c>
       <c r="F157" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G157" s="2">
-        <v>6.000</v>
+        <v>16.000</v>
       </c>
       <c r="H157" s="3">
-        <v>2277.93</v>
+        <v>8833.50</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5812,10 +5800,10 @@
         <v>5</v>
       </c>
       <c r="G158" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="H158" s="3">
-        <v>2725.89</v>
+        <v>939.61</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5838,10 +5826,10 @@
         <v>5</v>
       </c>
       <c r="G159" s="2">
-        <v>16.000</v>
+        <v>1.000</v>
       </c>
       <c r="H159" s="3">
-        <v>8833.50</v>
+        <v>6585.02</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5864,10 +5852,10 @@
         <v>5</v>
       </c>
       <c r="G160" s="2">
-        <v>1.000</v>
+        <v>15.000</v>
       </c>
       <c r="H160" s="3">
-        <v>939.61</v>
+        <v>6465.22</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5890,10 +5878,10 @@
         <v>5</v>
       </c>
       <c r="G161" s="2">
-        <v>1.000</v>
+        <v>139.000</v>
       </c>
       <c r="H161" s="3">
-        <v>6585.02</v>
+        <v>813.85</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5913,13 +5901,13 @@
         <v>326</v>
       </c>
       <c r="F162" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G162" s="2">
-        <v>15.000</v>
+        <v>47.250</v>
       </c>
       <c r="H162" s="3">
-        <v>6465.22</v>
+        <v>5148.59</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5942,10 +5930,10 @@
         <v>5</v>
       </c>
       <c r="G163" s="2">
-        <v>143.000</v>
+        <v>4.000</v>
       </c>
       <c r="H163" s="3">
-        <v>837.27</v>
+        <v>280.00</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5965,13 +5953,13 @@
         <v>330</v>
       </c>
       <c r="F164" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G164" s="2">
-        <v>47.250</v>
+        <v>11.000</v>
       </c>
       <c r="H164" s="3">
-        <v>5148.59</v>
+        <v>832.20</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5994,10 +5982,10 @@
         <v>5</v>
       </c>
       <c r="G165" s="2">
-        <v>4.000</v>
+        <v>5.000</v>
       </c>
       <c r="H165" s="3">
-        <v>280.00</v>
+        <v>718.30</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6020,10 +6008,10 @@
         <v>5</v>
       </c>
       <c r="G166" s="2">
-        <v>11.000</v>
+        <v>2.000</v>
       </c>
       <c r="H166" s="3">
-        <v>832.21</v>
+        <v>801.31</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6046,10 +6034,10 @@
         <v>5</v>
       </c>
       <c r="G167" s="2">
-        <v>5.000</v>
+        <v>169.000</v>
       </c>
       <c r="H167" s="3">
-        <v>718.30</v>
+        <v>11799.62</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6072,10 +6060,10 @@
         <v>5</v>
       </c>
       <c r="G168" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H168" s="3">
-        <v>801.31</v>
+        <v>111.86</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6098,10 +6086,10 @@
         <v>5</v>
       </c>
       <c r="G169" s="2">
-        <v>169.000</v>
+        <v>1.000</v>
       </c>
       <c r="H169" s="3">
-        <v>11799.62</v>
+        <v>179.29</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6124,10 +6112,10 @@
         <v>5</v>
       </c>
       <c r="G170" s="2">
-        <v>1.000</v>
+        <v>60.000</v>
       </c>
       <c r="H170" s="3">
-        <v>111.86</v>
+        <v>1004.55</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6150,10 +6138,10 @@
         <v>5</v>
       </c>
       <c r="G171" s="2">
-        <v>1.000</v>
+        <v>198.000</v>
       </c>
       <c r="H171" s="3">
-        <v>179.29</v>
+        <v>7463.61</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6176,10 +6164,10 @@
         <v>5</v>
       </c>
       <c r="G172" s="2">
-        <v>60.000</v>
+        <v>3.000</v>
       </c>
       <c r="H172" s="3">
-        <v>1004.55</v>
+        <v>840.40</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6202,10 +6190,10 @@
         <v>5</v>
       </c>
       <c r="G173" s="2">
-        <v>198.000</v>
+        <v>289.000</v>
       </c>
       <c r="H173" s="3">
-        <v>7463.61</v>
+        <v>50464.89</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6228,10 +6216,10 @@
         <v>5</v>
       </c>
       <c r="G174" s="2">
-        <v>3.000</v>
+        <v>358.000</v>
       </c>
       <c r="H174" s="3">
-        <v>840.40</v>
+        <v>12057.21</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6254,10 +6242,10 @@
         <v>5</v>
       </c>
       <c r="G175" s="2">
-        <v>253.000</v>
+        <v>1.000</v>
       </c>
       <c r="H175" s="3">
-        <v>44178.61</v>
+        <v>91.20</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6280,10 +6268,10 @@
         <v>5</v>
       </c>
       <c r="G176" s="2">
-        <v>362.000</v>
+        <v>2.000</v>
       </c>
       <c r="H176" s="3">
-        <v>12191.92</v>
+        <v>1166.57</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6306,10 +6294,10 @@
         <v>5</v>
       </c>
       <c r="G177" s="2">
-        <v>1.000</v>
+        <v>11.000</v>
       </c>
       <c r="H177" s="3">
-        <v>91.20</v>
+        <v>19946.35</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6332,10 +6320,10 @@
         <v>5</v>
       </c>
       <c r="G178" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="H178" s="3">
-        <v>1166.57</v>
+        <v>40.71</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6358,10 +6346,10 @@
         <v>5</v>
       </c>
       <c r="G179" s="2">
-        <v>11.000</v>
+        <v>10.000</v>
       </c>
       <c r="H179" s="3">
-        <v>19946.35</v>
+        <v>374.15</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6387,7 +6375,7 @@
         <v>1.000</v>
       </c>
       <c r="H180" s="3">
-        <v>40.71</v>
+        <v>89.56</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6410,10 +6398,10 @@
         <v>5</v>
       </c>
       <c r="G181" s="2">
-        <v>10.000</v>
+        <v>23.000</v>
       </c>
       <c r="H181" s="3">
-        <v>374.15</v>
+        <v>6424.60</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6436,10 +6424,10 @@
         <v>5</v>
       </c>
       <c r="G182" s="2">
-        <v>1.000</v>
+        <v>10.000</v>
       </c>
       <c r="H182" s="3">
-        <v>89.56</v>
+        <v>4191.85</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6462,10 +6450,10 @@
         <v>5</v>
       </c>
       <c r="G183" s="2">
-        <v>25.000</v>
+        <v>27.000</v>
       </c>
       <c r="H183" s="3">
-        <v>6983.26</v>
+        <v>2129.31</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6488,10 +6476,10 @@
         <v>5</v>
       </c>
       <c r="G184" s="2">
-        <v>10.000</v>
+        <v>51.000</v>
       </c>
       <c r="H184" s="3">
-        <v>4191.85</v>
+        <v>2000.85</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6514,10 +6502,10 @@
         <v>5</v>
       </c>
       <c r="G185" s="2">
-        <v>27.000</v>
+        <v>436.000</v>
       </c>
       <c r="H185" s="3">
-        <v>2129.31</v>
+        <v>3145.49</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6540,10 +6528,10 @@
         <v>5</v>
       </c>
       <c r="G186" s="2">
-        <v>51.000</v>
+        <v>1.000</v>
       </c>
       <c r="H186" s="3">
-        <v>2000.85</v>
+        <v>3996.64</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6566,10 +6554,10 @@
         <v>5</v>
       </c>
       <c r="G187" s="2">
-        <v>437.000</v>
+        <v>873.000</v>
       </c>
       <c r="H187" s="3">
-        <v>3152.70</v>
+        <v>5715.30</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6592,10 +6580,10 @@
         <v>5</v>
       </c>
       <c r="G188" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="H188" s="3">
-        <v>3996.64</v>
+        <v>447.91</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6618,10 +6606,10 @@
         <v>5</v>
       </c>
       <c r="G189" s="2">
-        <v>879.000</v>
+        <v>1.000</v>
       </c>
       <c r="H189" s="3">
-        <v>5754.59</v>
+        <v>118.27</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6644,10 +6632,10 @@
         <v>5</v>
       </c>
       <c r="G190" s="2">
-        <v>4.000</v>
+        <v>3883.000</v>
       </c>
       <c r="H190" s="3">
-        <v>447.91</v>
+        <v>39266.45</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6670,10 +6658,10 @@
         <v>5</v>
       </c>
       <c r="G191" s="2">
-        <v>1.000</v>
+        <v>133.000</v>
       </c>
       <c r="H191" s="3">
-        <v>118.27</v>
+        <v>3597.19</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6696,10 +6684,10 @@
         <v>5</v>
       </c>
       <c r="G192" s="2">
-        <v>3673.000</v>
+        <v>16.000</v>
       </c>
       <c r="H192" s="3">
-        <v>37142.80</v>
+        <v>520.62</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6722,10 +6710,10 @@
         <v>5</v>
       </c>
       <c r="G193" s="2">
-        <v>134.000</v>
+        <v>20.000</v>
       </c>
       <c r="H193" s="3">
-        <v>3624.24</v>
+        <v>769.05</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6748,10 +6736,10 @@
         <v>5</v>
       </c>
       <c r="G194" s="2">
-        <v>16.000</v>
+        <v>1.000</v>
       </c>
       <c r="H194" s="3">
-        <v>520.62</v>
+        <v>863.17</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6774,10 +6762,10 @@
         <v>5</v>
       </c>
       <c r="G195" s="2">
-        <v>20.000</v>
+        <v>57.000</v>
       </c>
       <c r="H195" s="3">
-        <v>769.05</v>
+        <v>3591.54</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6803,7 +6791,7 @@
         <v>1.000</v>
       </c>
       <c r="H196" s="3">
-        <v>863.17</v>
+        <v>2480.45</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6826,10 +6814,10 @@
         <v>5</v>
       </c>
       <c r="G197" s="2">
-        <v>57.000</v>
+        <v>1.000</v>
       </c>
       <c r="H197" s="3">
-        <v>3591.54</v>
+        <v>153.40</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6852,10 +6840,10 @@
         <v>5</v>
       </c>
       <c r="G198" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="H198" s="3">
-        <v>2480.45</v>
+        <v>5453.26</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6878,10 +6866,10 @@
         <v>5</v>
       </c>
       <c r="G199" s="2">
-        <v>1.000</v>
+        <v>23.000</v>
       </c>
       <c r="H199" s="3">
-        <v>153.40</v>
+        <v>11765.72</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6904,10 +6892,10 @@
         <v>5</v>
       </c>
       <c r="G200" s="2">
-        <v>2.000</v>
+        <v>350.000</v>
       </c>
       <c r="H200" s="3">
-        <v>5453.26</v>
+        <v>255.61</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6930,10 +6918,10 @@
         <v>5</v>
       </c>
       <c r="G201" s="2">
-        <v>23.000</v>
+        <v>19.000</v>
       </c>
       <c r="H201" s="3">
-        <v>11765.72</v>
+        <v>723.49</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6956,10 +6944,10 @@
         <v>5</v>
       </c>
       <c r="G202" s="2">
-        <v>350.000</v>
+        <v>5.000</v>
       </c>
       <c r="H202" s="3">
-        <v>255.61</v>
+        <v>190.00</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6982,10 +6970,10 @@
         <v>5</v>
       </c>
       <c r="G203" s="2">
-        <v>19.000</v>
+        <v>1.000</v>
       </c>
       <c r="H203" s="3">
-        <v>723.49</v>
+        <v>144.75</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7008,10 +6996,10 @@
         <v>5</v>
       </c>
       <c r="G204" s="2">
-        <v>5.000</v>
+        <v>1.000</v>
       </c>
       <c r="H204" s="3">
-        <v>190.00</v>
+        <v>562.67</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7037,7 +7025,7 @@
         <v>1.000</v>
       </c>
       <c r="H205" s="3">
-        <v>144.75</v>
+        <v>316.84</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7060,10 +7048,10 @@
         <v>5</v>
       </c>
       <c r="G206" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="H206" s="3">
-        <v>562.67</v>
+        <v>2566.21</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7086,10 +7074,10 @@
         <v>5</v>
       </c>
       <c r="G207" s="2">
-        <v>1.000</v>
+        <v>36.000</v>
       </c>
       <c r="H207" s="3">
-        <v>316.84</v>
+        <v>16638.99</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7112,10 +7100,10 @@
         <v>5</v>
       </c>
       <c r="G208" s="2">
-        <v>7.000</v>
+        <v>10.000</v>
       </c>
       <c r="H208" s="3">
-        <v>2566.21</v>
+        <v>3640.65</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7138,10 +7126,10 @@
         <v>5</v>
       </c>
       <c r="G209" s="2">
-        <v>36.000</v>
+        <v>15.000</v>
       </c>
       <c r="H209" s="3">
-        <v>16638.99</v>
+        <v>20.27</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7161,13 +7149,13 @@
         <v>422</v>
       </c>
       <c r="F210" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G210" s="2">
-        <v>10.000</v>
+        <v>73195.600</v>
       </c>
       <c r="H210" s="3">
-        <v>3640.65</v>
+        <v>171591.62</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7193,7 +7181,7 @@
         <v>49.000</v>
       </c>
       <c r="H211" s="3">
-        <v>66.21</v>
+        <v>1086.67</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7213,13 +7201,13 @@
         <v>426</v>
       </c>
       <c r="F212" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G212" s="2">
-        <v>72161.600</v>
+        <v>99.000</v>
       </c>
       <c r="H212" s="3">
-        <v>169167.63</v>
+        <v>3528.74</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7242,10 +7230,10 @@
         <v>5</v>
       </c>
       <c r="G213" s="2">
-        <v>49.000</v>
+        <v>1.000</v>
       </c>
       <c r="H213" s="3">
-        <v>1086.67</v>
+        <v>303.12</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7268,10 +7256,10 @@
         <v>5</v>
       </c>
       <c r="G214" s="2">
-        <v>99.000</v>
+        <v>14.000</v>
       </c>
       <c r="H214" s="3">
-        <v>3528.74</v>
+        <v>1053.91</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7297,7 +7285,7 @@
         <v>1.000</v>
       </c>
       <c r="H215" s="3">
-        <v>303.12</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7320,10 +7308,10 @@
         <v>5</v>
       </c>
       <c r="G216" s="2">
-        <v>14.000</v>
+        <v>2.000</v>
       </c>
       <c r="H216" s="3">
-        <v>1053.91</v>
+        <v>1632.07</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7346,10 +7334,10 @@
         <v>5</v>
       </c>
       <c r="G217" s="2">
-        <v>1.000</v>
+        <v>70.000</v>
       </c>
       <c r="H217" s="3">
-        <v>15.67</v>
+        <v>1117.40</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7375,7 +7363,7 @@
         <v>2.000</v>
       </c>
       <c r="H218" s="3">
-        <v>1632.07</v>
+        <v>3527.49</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7398,10 +7386,10 @@
         <v>5</v>
       </c>
       <c r="G219" s="2">
-        <v>72.000</v>
+        <v>19.000</v>
       </c>
       <c r="H219" s="3">
-        <v>1149.32</v>
+        <v>3239.70</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7424,10 +7412,10 @@
         <v>5</v>
       </c>
       <c r="G220" s="2">
-        <v>2.000</v>
+        <v>300.000</v>
       </c>
       <c r="H220" s="3">
-        <v>3527.49</v>
+        <v>15822.05</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7450,10 +7438,10 @@
         <v>5</v>
       </c>
       <c r="G221" s="2">
-        <v>19.000</v>
+        <v>6395.000</v>
       </c>
       <c r="H221" s="3">
-        <v>3239.70</v>
+        <v>54945.46</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7476,10 +7464,10 @@
         <v>5</v>
       </c>
       <c r="G222" s="2">
-        <v>300.000</v>
+        <v>3.000</v>
       </c>
       <c r="H222" s="3">
-        <v>15822.05</v>
+        <v>1263.43</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7502,10 +7490,10 @@
         <v>5</v>
       </c>
       <c r="G223" s="2">
-        <v>6245.000</v>
+        <v>641.000</v>
       </c>
       <c r="H223" s="3">
-        <v>53656.61</v>
+        <v>1314.05</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7528,10 +7516,10 @@
         <v>5</v>
       </c>
       <c r="G224" s="2">
-        <v>3.000</v>
+        <v>82.000</v>
       </c>
       <c r="H224" s="3">
-        <v>1263.43</v>
+        <v>22467.11</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7554,10 +7542,10 @@
         <v>5</v>
       </c>
       <c r="G225" s="2">
-        <v>641.000</v>
+        <v>17.000</v>
       </c>
       <c r="H225" s="3">
-        <v>1314.05</v>
+        <v>14843.56</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7580,10 +7568,10 @@
         <v>5</v>
       </c>
       <c r="G226" s="2">
-        <v>84.000</v>
+        <v>13.000</v>
       </c>
       <c r="H226" s="3">
-        <v>23015.09</v>
+        <v>1823.27</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7606,10 +7594,10 @@
         <v>5</v>
       </c>
       <c r="G227" s="2">
-        <v>18.000</v>
+        <v>19.000</v>
       </c>
       <c r="H227" s="3">
-        <v>15716.71</v>
+        <v>855.20</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7632,10 +7620,10 @@
         <v>5</v>
       </c>
       <c r="G228" s="2">
-        <v>13.000</v>
+        <v>174.000</v>
       </c>
       <c r="H228" s="3">
-        <v>1823.27</v>
+        <v>12398.34</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7655,13 +7643,13 @@
         <v>460</v>
       </c>
       <c r="F229" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G229" s="2">
-        <v>19.000</v>
+        <v>27.800</v>
       </c>
       <c r="H229" s="3">
-        <v>855.19</v>
+        <v>6392.90</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7681,13 +7669,13 @@
         <v>462</v>
       </c>
       <c r="F230" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G230" s="2">
-        <v>211.000</v>
+        <v>16.000</v>
       </c>
       <c r="H230" s="3">
-        <v>15034.76</v>
+        <v>7011.29</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7707,13 +7695,13 @@
         <v>464</v>
       </c>
       <c r="F231" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G231" s="2">
-        <v>27.800</v>
+        <v>5.000</v>
       </c>
       <c r="H231" s="3">
-        <v>6392.90</v>
+        <v>662.53</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7733,13 +7721,13 @@
         <v>466</v>
       </c>
       <c r="F232" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G232" s="2">
-        <v>16.000</v>
+        <v>3.000</v>
       </c>
       <c r="H232" s="3">
-        <v>7011.29</v>
+        <v>747.25</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7762,10 +7750,10 @@
         <v>5</v>
       </c>
       <c r="G233" s="2">
-        <v>5.000</v>
+        <v>2.000</v>
       </c>
       <c r="H233" s="3">
-        <v>662.53</v>
+        <v>719.47</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7788,10 +7776,10 @@
         <v>5</v>
       </c>
       <c r="G234" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="H234" s="3">
-        <v>747.25</v>
+        <v>432.77</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7814,10 +7802,10 @@
         <v>5</v>
       </c>
       <c r="G235" s="2">
-        <v>2.000</v>
+        <v>13.000</v>
       </c>
       <c r="H235" s="3">
-        <v>719.47</v>
+        <v>726.82</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7840,10 +7828,10 @@
         <v>5</v>
       </c>
       <c r="G236" s="2">
-        <v>1.000</v>
+        <v>4.000</v>
       </c>
       <c r="H236" s="3">
-        <v>432.77</v>
+        <v>103.20</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7866,10 +7854,10 @@
         <v>5</v>
       </c>
       <c r="G237" s="2">
-        <v>14.000</v>
+        <v>97.000</v>
       </c>
       <c r="H237" s="3">
-        <v>782.73</v>
+        <v>433.16</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7892,10 +7880,10 @@
         <v>5</v>
       </c>
       <c r="G238" s="2">
-        <v>4.000</v>
+        <v>107.000</v>
       </c>
       <c r="H238" s="3">
-        <v>103.20</v>
+        <v>10127.98</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7918,10 +7906,10 @@
         <v>5</v>
       </c>
       <c r="G239" s="2">
-        <v>97.000</v>
+        <v>58.000</v>
       </c>
       <c r="H239" s="3">
-        <v>433.16</v>
+        <v>5525.09</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7944,10 +7932,10 @@
         <v>5</v>
       </c>
       <c r="G240" s="2">
-        <v>109.000</v>
+        <v>1.000</v>
       </c>
       <c r="H240" s="3">
-        <v>10317.29</v>
+        <v>1448.47</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7970,10 +7958,10 @@
         <v>5</v>
       </c>
       <c r="G241" s="2">
-        <v>58.000</v>
+        <v>9.000</v>
       </c>
       <c r="H241" s="3">
-        <v>5525.09</v>
+        <v>2570.78</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7996,10 +7984,10 @@
         <v>5</v>
       </c>
       <c r="G242" s="2">
-        <v>1.000</v>
+        <v>310.000</v>
       </c>
       <c r="H242" s="3">
-        <v>1448.47</v>
+        <v>9285.72</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8022,10 +8010,10 @@
         <v>5</v>
       </c>
       <c r="G243" s="2">
-        <v>9.000</v>
+        <v>4.000</v>
       </c>
       <c r="H243" s="3">
-        <v>2570.78</v>
+        <v>9163.74</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8048,10 +8036,10 @@
         <v>5</v>
       </c>
       <c r="G244" s="2">
-        <v>310.000</v>
+        <v>3.000</v>
       </c>
       <c r="H244" s="3">
-        <v>9285.72</v>
+        <v>295.57</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8074,10 +8062,10 @@
         <v>5</v>
       </c>
       <c r="G245" s="2">
-        <v>4.000</v>
+        <v>18.000</v>
       </c>
       <c r="H245" s="3">
-        <v>9163.74</v>
+        <v>2360.52</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8100,10 +8088,10 @@
         <v>5</v>
       </c>
       <c r="G246" s="2">
-        <v>3.000</v>
+        <v>174.000</v>
       </c>
       <c r="H246" s="3">
-        <v>295.57</v>
+        <v>5905.85</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8126,10 +8114,10 @@
         <v>5</v>
       </c>
       <c r="G247" s="2">
-        <v>18.000</v>
+        <v>1.000</v>
       </c>
       <c r="H247" s="3">
-        <v>2360.52</v>
+        <v>112.24</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8152,10 +8140,10 @@
         <v>5</v>
       </c>
       <c r="G248" s="2">
-        <v>154.000</v>
+        <v>11.000</v>
       </c>
       <c r="H248" s="3">
-        <v>5227.02</v>
+        <v>2176.56</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8178,10 +8166,10 @@
         <v>5</v>
       </c>
       <c r="G249" s="2">
-        <v>1.000</v>
+        <v>3.000</v>
       </c>
       <c r="H249" s="3">
-        <v>112.24</v>
+        <v>170.34</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8201,13 +8189,13 @@
         <v>502</v>
       </c>
       <c r="F250" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G250" s="2">
-        <v>11.000</v>
+        <v>7.000</v>
       </c>
       <c r="H250" s="3">
-        <v>2176.56</v>
+        <v>1520.59</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8230,10 +8218,10 @@
         <v>5</v>
       </c>
       <c r="G251" s="2">
-        <v>3.000</v>
+        <v>25.000</v>
       </c>
       <c r="H251" s="3">
-        <v>170.34</v>
+        <v>1242.33</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8253,13 +8241,13 @@
         <v>506</v>
       </c>
       <c r="F252" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G252" s="2">
-        <v>7.000</v>
+        <v>10.000</v>
       </c>
       <c r="H252" s="3">
-        <v>1520.59</v>
+        <v>201.79</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8282,86 +8270,34 @@
         <v>5</v>
       </c>
       <c r="G253" s="2">
-        <v>25.000</v>
+        <v>43.000</v>
       </c>
       <c r="H253" s="3">
-        <v>1242.33</v>
+        <v>2003.95</v>
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" t="s">
-        <v>0</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1</v>
-      </c>
-      <c r="C254" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254" t="s">
+      <c r="A254" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="E254" t="s">
-        <v>510</v>
-      </c>
-      <c r="F254" t="s">
-        <v>5</v>
-      </c>
-      <c r="G254" s="2">
-        <v>10.000</v>
-      </c>
-      <c r="H254" s="3">
-        <v>201.79</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" t="s">
-        <v>0</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1</v>
-      </c>
-      <c r="C255" t="s">
-        <v>2</v>
-      </c>
-      <c r="D255" t="s">
-        <v>511</v>
-      </c>
-      <c r="E255" t="s">
-        <v>512</v>
-      </c>
-      <c r="F255" t="s">
-        <v>5</v>
-      </c>
-      <c r="G255" s="2">
-        <v>43.000</v>
-      </c>
-      <c r="H255" s="3">
-        <v>2003.95</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="G256" s="5"/>
-      <c r="H256" s="6">
-        <v>2380074.11</v>
+      <c r="B254" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G254" s="5"/>
+      <c r="H254" s="6">
+        <v>2371840.34</v>
       </c>
     </row>
   </sheetData>

--- a/estoque.XLSX
+++ b/estoque.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="507">
   <si>
     <t>0006</t>
   </si>
@@ -19,18 +19,24 @@
     <t>CONSÓRCIO MANUTENÇÃO NOVA SP</t>
   </si>
   <si>
+    <t>50001070</t>
+  </si>
+  <si>
+    <t>LACRE ANTIFRAUDE P HIDRÔMETRO COMPR 01 M</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>4600041302</t>
+  </si>
+  <si>
     <t>50000530</t>
   </si>
   <si>
     <t>HIDROM VOL DN20 PRE.EQ QN 1.5 M3/H - ASI</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>4600041302</t>
-  </si>
-  <si>
     <t>50000472</t>
   </si>
   <si>
@@ -43,12 +49,6 @@
     <t>HIDRO ULTRAS Qn 1,5 (Q3=2,5) - PULSADO</t>
   </si>
   <si>
-    <t>50000305</t>
-  </si>
-  <si>
-    <t>TUBETE METALICO 1POL</t>
-  </si>
-  <si>
     <t>50000252</t>
   </si>
   <si>
@@ -172,12 +172,6 @@
     <t>TUBO PVC RIG JEI/JERI ESG DN 200 CM 6M</t>
   </si>
   <si>
-    <t>30028857</t>
-  </si>
-  <si>
-    <t>TUBO PVC RIG JEI/JERI ESG DN 150 CM 6M</t>
-  </si>
-  <si>
     <t>30028856</t>
   </si>
   <si>
@@ -550,6 +544,12 @@
     <t>LUVA CORRER BB ESG DN 200 - JE</t>
   </si>
   <si>
+    <t>30005894</t>
+  </si>
+  <si>
+    <t>LUVA CORRER BB ESG DN 100 - JE</t>
+  </si>
+  <si>
     <t>30005893</t>
   </si>
   <si>
@@ -1100,12 +1100,6 @@
   </si>
   <si>
     <t>CURVA 90 GR FF P/ PVC - EN 12842 DN 100</t>
-  </si>
-  <si>
-    <t>30002609</t>
-  </si>
-  <si>
-    <t>EXTREMIDADE FF P FLG DN75 PN10/16 L=350</t>
   </si>
   <si>
     <t>30002394</t>
@@ -1653,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1673,28 +1667,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1714,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>1454.000</v>
+        <v>78.000</v>
       </c>
       <c r="G2" s="3">
-        <v>200150.37</v>
+        <v>279.95</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -1740,10 +1734,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>115.000</v>
+        <v>1384.000</v>
       </c>
       <c r="G3" s="3">
-        <v>20859.34</v>
+        <v>190514.52</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -1766,10 +1760,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="2">
-        <v>198.000</v>
+        <v>115.000</v>
       </c>
       <c r="G4" s="3">
-        <v>115052.92</v>
+        <v>20859.34</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -1792,10 +1786,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>2.000</v>
+        <v>198.000</v>
       </c>
       <c r="G5" s="3">
-        <v>18.65</v>
+        <v>115052.92</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -1821,7 +1815,7 @@
         <v>7.000</v>
       </c>
       <c r="G6" s="3">
-        <v>3052.54</v>
+        <v>3052.53</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -1847,7 +1841,7 @@
         <v>5.000</v>
       </c>
       <c r="G7" s="3">
-        <v>2291.22</v>
+        <v>2663.85</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -1870,10 +1864,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="2">
-        <v>1985.000</v>
+        <v>1979.000</v>
       </c>
       <c r="G8" s="3">
-        <v>53751.25</v>
+        <v>53590.71</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -2000,10 +1994,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="2">
-        <v>1696.000</v>
+        <v>1990.000</v>
       </c>
       <c r="G13" s="3">
-        <v>144952.23</v>
+        <v>170079.22</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
@@ -2078,10 +2072,10 @@
         <v>4</v>
       </c>
       <c r="F16" s="2">
-        <v>352.000</v>
+        <v>182.000</v>
       </c>
       <c r="G16" s="3">
-        <v>29795.28</v>
+        <v>15405.49</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
@@ -2156,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="F19" s="2">
-        <v>60.000</v>
+        <v>59.000</v>
       </c>
       <c r="G19" s="3">
-        <v>8758.07</v>
+        <v>8612.11</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
@@ -2182,10 +2176,10 @@
         <v>4</v>
       </c>
       <c r="F20" s="2">
-        <v>32.000</v>
+        <v>49.000</v>
       </c>
       <c r="G20" s="3">
-        <v>14526.96</v>
+        <v>22506.31</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
@@ -2208,10 +2202,10 @@
         <v>4</v>
       </c>
       <c r="F21" s="2">
-        <v>721.000</v>
+        <v>638.000</v>
       </c>
       <c r="G21" s="3">
-        <v>1910.50</v>
+        <v>1656.53</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
@@ -2260,10 +2254,10 @@
         <v>46</v>
       </c>
       <c r="F23" s="2">
-        <v>169.700</v>
+        <v>193.100</v>
       </c>
       <c r="G23" s="3">
-        <v>1773.61</v>
+        <v>2018.17</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
@@ -2286,10 +2280,10 @@
         <v>46</v>
       </c>
       <c r="F24" s="2">
-        <v>192.000</v>
+        <v>282.000</v>
       </c>
       <c r="G24" s="3">
-        <v>18786.33</v>
+        <v>27592.43</v>
       </c>
       <c r="H24" t="s">
         <v>5</v>
@@ -2312,10 +2306,10 @@
         <v>46</v>
       </c>
       <c r="F25" s="2">
-        <v>1597.500</v>
+        <v>1626.220</v>
       </c>
       <c r="G25" s="3">
-        <v>52924.20</v>
+        <v>53875.68</v>
       </c>
       <c r="H25" t="s">
         <v>5</v>
@@ -2338,10 +2332,10 @@
         <v>46</v>
       </c>
       <c r="F26" s="2">
-        <v>8.890</v>
+        <v>2783.000</v>
       </c>
       <c r="G26" s="3">
-        <v>203.78</v>
+        <v>29752.70</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
@@ -2364,10 +2358,10 @@
         <v>46</v>
       </c>
       <c r="F27" s="2">
-        <v>3027.200</v>
+        <v>78.310</v>
       </c>
       <c r="G27" s="3">
-        <v>32363.27</v>
+        <v>7083.14</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
@@ -2390,10 +2384,10 @@
         <v>46</v>
       </c>
       <c r="F28" s="2">
-        <v>78.310</v>
+        <v>56.600</v>
       </c>
       <c r="G28" s="3">
-        <v>7083.14</v>
+        <v>1829.18</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
@@ -2413,13 +2407,13 @@
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F29" s="2">
-        <v>56.600</v>
+        <v>7.000</v>
       </c>
       <c r="G29" s="3">
-        <v>1829.18</v>
+        <v>1219.43</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
@@ -2442,10 +2436,10 @@
         <v>4</v>
       </c>
       <c r="F30" s="2">
-        <v>7.000</v>
+        <v>190.000</v>
       </c>
       <c r="G30" s="3">
-        <v>1219.43</v>
+        <v>3525.45</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
@@ -2468,10 +2462,10 @@
         <v>4</v>
       </c>
       <c r="F31" s="2">
-        <v>202.000</v>
+        <v>25.000</v>
       </c>
       <c r="G31" s="3">
-        <v>3748.11</v>
+        <v>412.50</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
@@ -2494,10 +2488,10 @@
         <v>4</v>
       </c>
       <c r="F32" s="2">
-        <v>25.000</v>
+        <v>12.000</v>
       </c>
       <c r="G32" s="3">
-        <v>412.50</v>
+        <v>2426.24</v>
       </c>
       <c r="H32" t="s">
         <v>5</v>
@@ -2520,10 +2514,10 @@
         <v>4</v>
       </c>
       <c r="F33" s="2">
-        <v>12.000</v>
+        <v>4.000</v>
       </c>
       <c r="G33" s="3">
-        <v>2426.24</v>
+        <v>4802.74</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
@@ -2546,10 +2540,10 @@
         <v>4</v>
       </c>
       <c r="F34" s="2">
-        <v>4.000</v>
+        <v>3.000</v>
       </c>
       <c r="G34" s="3">
-        <v>4802.74</v>
+        <v>1028.70</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
@@ -2569,13 +2563,13 @@
         <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F35" s="2">
-        <v>3.000</v>
+        <v>6.000</v>
       </c>
       <c r="G35" s="3">
-        <v>1028.70</v>
+        <v>3106.60</v>
       </c>
       <c r="H35" t="s">
         <v>5</v>
@@ -2598,10 +2592,10 @@
         <v>46</v>
       </c>
       <c r="F36" s="2">
-        <v>6.000</v>
+        <v>170.120</v>
       </c>
       <c r="G36" s="3">
-        <v>3106.60</v>
+        <v>8835.78</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
@@ -2621,13 +2615,13 @@
         <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F37" s="2">
-        <v>170.120</v>
+        <v>1.000</v>
       </c>
       <c r="G37" s="3">
-        <v>8835.78</v>
+        <v>29.64</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
@@ -2653,7 +2647,7 @@
         <v>1.000</v>
       </c>
       <c r="G38" s="3">
-        <v>29.64</v>
+        <v>726.22</v>
       </c>
       <c r="H38" t="s">
         <v>5</v>
@@ -2676,10 +2670,10 @@
         <v>4</v>
       </c>
       <c r="F39" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G39" s="3">
-        <v>726.22</v>
+        <v>651.09</v>
       </c>
       <c r="H39" t="s">
         <v>5</v>
@@ -2702,10 +2696,10 @@
         <v>4</v>
       </c>
       <c r="F40" s="2">
-        <v>2.000</v>
+        <v>29.000</v>
       </c>
       <c r="G40" s="3">
-        <v>651.09</v>
+        <v>1159.29</v>
       </c>
       <c r="H40" t="s">
         <v>5</v>
@@ -2728,10 +2722,10 @@
         <v>4</v>
       </c>
       <c r="F41" s="2">
-        <v>29.000</v>
+        <v>7.000</v>
       </c>
       <c r="G41" s="3">
-        <v>1159.29</v>
+        <v>683.07</v>
       </c>
       <c r="H41" t="s">
         <v>5</v>
@@ -2754,10 +2748,10 @@
         <v>4</v>
       </c>
       <c r="F42" s="2">
-        <v>7.000</v>
+        <v>8.000</v>
       </c>
       <c r="G42" s="3">
-        <v>683.07</v>
+        <v>1141.60</v>
       </c>
       <c r="H42" t="s">
         <v>5</v>
@@ -2780,10 +2774,10 @@
         <v>4</v>
       </c>
       <c r="F43" s="2">
-        <v>8.000</v>
+        <v>9.000</v>
       </c>
       <c r="G43" s="3">
-        <v>1141.60</v>
+        <v>488.13</v>
       </c>
       <c r="H43" t="s">
         <v>5</v>
@@ -2806,10 +2800,10 @@
         <v>4</v>
       </c>
       <c r="F44" s="2">
-        <v>9.000</v>
+        <v>36.000</v>
       </c>
       <c r="G44" s="3">
-        <v>488.13</v>
+        <v>3977.52</v>
       </c>
       <c r="H44" t="s">
         <v>5</v>
@@ -2832,10 +2826,10 @@
         <v>4</v>
       </c>
       <c r="F45" s="2">
-        <v>21.000</v>
+        <v>1.000</v>
       </c>
       <c r="G45" s="3">
-        <v>2320.22</v>
+        <v>5663.01</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
@@ -2861,7 +2855,7 @@
         <v>1.000</v>
       </c>
       <c r="G46" s="3">
-        <v>5663.01</v>
+        <v>131.57</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
@@ -2884,10 +2878,10 @@
         <v>4</v>
       </c>
       <c r="F47" s="2">
-        <v>1.000</v>
+        <v>6.000</v>
       </c>
       <c r="G47" s="3">
-        <v>131.57</v>
+        <v>344.01</v>
       </c>
       <c r="H47" t="s">
         <v>5</v>
@@ -2910,10 +2904,10 @@
         <v>4</v>
       </c>
       <c r="F48" s="2">
-        <v>6.000</v>
+        <v>33.000</v>
       </c>
       <c r="G48" s="3">
-        <v>344.01</v>
+        <v>2603.78</v>
       </c>
       <c r="H48" t="s">
         <v>5</v>
@@ -2936,10 +2930,10 @@
         <v>4</v>
       </c>
       <c r="F49" s="2">
-        <v>33.000</v>
+        <v>17.000</v>
       </c>
       <c r="G49" s="3">
-        <v>2603.78</v>
+        <v>369.87</v>
       </c>
       <c r="H49" t="s">
         <v>5</v>
@@ -2962,10 +2956,10 @@
         <v>4</v>
       </c>
       <c r="F50" s="2">
-        <v>17.000</v>
+        <v>69.000</v>
       </c>
       <c r="G50" s="3">
-        <v>369.87</v>
+        <v>19044.27</v>
       </c>
       <c r="H50" t="s">
         <v>5</v>
@@ -2985,13 +2979,13 @@
         <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F51" s="2">
-        <v>68.000</v>
+        <v>167.870</v>
       </c>
       <c r="G51" s="3">
-        <v>18768.26</v>
+        <v>3606.18</v>
       </c>
       <c r="H51" t="s">
         <v>5</v>
@@ -3014,10 +3008,10 @@
         <v>46</v>
       </c>
       <c r="F52" s="2">
-        <v>187.680</v>
+        <v>1206.730</v>
       </c>
       <c r="G52" s="3">
-        <v>4031.74</v>
+        <v>45371.86</v>
       </c>
       <c r="H52" t="s">
         <v>5</v>
@@ -3040,10 +3034,10 @@
         <v>46</v>
       </c>
       <c r="F53" s="2">
-        <v>1206.730</v>
+        <v>2641.340</v>
       </c>
       <c r="G53" s="3">
-        <v>45371.86</v>
+        <v>10554.58</v>
       </c>
       <c r="H53" t="s">
         <v>5</v>
@@ -3066,10 +3060,10 @@
         <v>46</v>
       </c>
       <c r="F54" s="2">
-        <v>2630.340</v>
+        <v>11.000</v>
       </c>
       <c r="G54" s="3">
-        <v>10510.64</v>
+        <v>974.64</v>
       </c>
       <c r="H54" t="s">
         <v>5</v>
@@ -3089,13 +3083,13 @@
         <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F55" s="2">
-        <v>11.000</v>
+        <v>17.000</v>
       </c>
       <c r="G55" s="3">
-        <v>974.64</v>
+        <v>7823.48</v>
       </c>
       <c r="H55" t="s">
         <v>5</v>
@@ -3118,10 +3112,10 @@
         <v>4</v>
       </c>
       <c r="F56" s="2">
-        <v>17.000</v>
+        <v>1.000</v>
       </c>
       <c r="G56" s="3">
-        <v>7823.48</v>
+        <v>3610.20</v>
       </c>
       <c r="H56" t="s">
         <v>5</v>
@@ -3147,7 +3141,7 @@
         <v>1.000</v>
       </c>
       <c r="G57" s="3">
-        <v>3610.20</v>
+        <v>1728.34</v>
       </c>
       <c r="H57" t="s">
         <v>5</v>
@@ -3170,10 +3164,10 @@
         <v>4</v>
       </c>
       <c r="F58" s="2">
-        <v>1.000</v>
+        <v>12.000</v>
       </c>
       <c r="G58" s="3">
-        <v>1728.34</v>
+        <v>6793.82</v>
       </c>
       <c r="H58" t="s">
         <v>5</v>
@@ -3196,10 +3190,10 @@
         <v>4</v>
       </c>
       <c r="F59" s="2">
-        <v>12.000</v>
+        <v>8.000</v>
       </c>
       <c r="G59" s="3">
-        <v>6793.82</v>
+        <v>2259.05</v>
       </c>
       <c r="H59" t="s">
         <v>5</v>
@@ -3222,10 +3216,10 @@
         <v>4</v>
       </c>
       <c r="F60" s="2">
-        <v>8.000</v>
+        <v>6.000</v>
       </c>
       <c r="G60" s="3">
-        <v>2259.05</v>
+        <v>2371.80</v>
       </c>
       <c r="H60" t="s">
         <v>5</v>
@@ -3248,10 +3242,10 @@
         <v>4</v>
       </c>
       <c r="F61" s="2">
-        <v>6.000</v>
+        <v>5.000</v>
       </c>
       <c r="G61" s="3">
-        <v>2371.80</v>
+        <v>2649.74</v>
       </c>
       <c r="H61" t="s">
         <v>5</v>
@@ -3274,10 +3268,10 @@
         <v>4</v>
       </c>
       <c r="F62" s="2">
-        <v>5.000</v>
+        <v>83.000</v>
       </c>
       <c r="G62" s="3">
-        <v>2649.74</v>
+        <v>457.25</v>
       </c>
       <c r="H62" t="s">
         <v>5</v>
@@ -3297,13 +3291,13 @@
         <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2">
-        <v>85.000</v>
+        <v>23.000</v>
       </c>
       <c r="G63" s="3">
-        <v>468.26</v>
+        <v>3976.22</v>
       </c>
       <c r="H63" t="s">
         <v>5</v>
@@ -3326,10 +3320,10 @@
         <v>46</v>
       </c>
       <c r="F64" s="2">
-        <v>23.000</v>
+        <v>46.000</v>
       </c>
       <c r="G64" s="3">
-        <v>3976.22</v>
+        <v>4359.41</v>
       </c>
       <c r="H64" t="s">
         <v>5</v>
@@ -3352,10 +3346,10 @@
         <v>46</v>
       </c>
       <c r="F65" s="2">
-        <v>46.000</v>
+        <v>13.000</v>
       </c>
       <c r="G65" s="3">
-        <v>4359.41</v>
+        <v>3437.72</v>
       </c>
       <c r="H65" t="s">
         <v>5</v>
@@ -3375,13 +3369,13 @@
         <v>134</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F66" s="2">
-        <v>13.000</v>
+        <v>1.000</v>
       </c>
       <c r="G66" s="3">
-        <v>3437.72</v>
+        <v>257.35</v>
       </c>
       <c r="H66" t="s">
         <v>5</v>
@@ -3404,10 +3398,10 @@
         <v>4</v>
       </c>
       <c r="F67" s="2">
-        <v>1.000</v>
+        <v>19.000</v>
       </c>
       <c r="G67" s="3">
-        <v>257.35</v>
+        <v>1201.67</v>
       </c>
       <c r="H67" t="s">
         <v>5</v>
@@ -3430,10 +3424,10 @@
         <v>4</v>
       </c>
       <c r="F68" s="2">
-        <v>19.000</v>
+        <v>417.000</v>
       </c>
       <c r="G68" s="3">
-        <v>1201.67</v>
+        <v>8556.01</v>
       </c>
       <c r="H68" t="s">
         <v>5</v>
@@ -3456,10 +3450,10 @@
         <v>4</v>
       </c>
       <c r="F69" s="2">
-        <v>435.000</v>
+        <v>2.000</v>
       </c>
       <c r="G69" s="3">
-        <v>9196.74</v>
+        <v>8149.76</v>
       </c>
       <c r="H69" t="s">
         <v>5</v>
@@ -3482,10 +3476,10 @@
         <v>4</v>
       </c>
       <c r="F70" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G70" s="3">
-        <v>8149.76</v>
+        <v>348.30</v>
       </c>
       <c r="H70" t="s">
         <v>5</v>
@@ -3508,10 +3502,10 @@
         <v>4</v>
       </c>
       <c r="F71" s="2">
-        <v>1.000</v>
+        <v>17.000</v>
       </c>
       <c r="G71" s="3">
-        <v>348.30</v>
+        <v>1069.27</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -3534,10 +3528,10 @@
         <v>4</v>
       </c>
       <c r="F72" s="2">
-        <v>17.000</v>
+        <v>1.000</v>
       </c>
       <c r="G72" s="3">
-        <v>1053.19</v>
+        <v>23.34</v>
       </c>
       <c r="H72" t="s">
         <v>5</v>
@@ -3560,10 +3554,10 @@
         <v>4</v>
       </c>
       <c r="F73" s="2">
-        <v>1.000</v>
+        <v>43.000</v>
       </c>
       <c r="G73" s="3">
-        <v>23.34</v>
+        <v>544.57</v>
       </c>
       <c r="H73" t="s">
         <v>5</v>
@@ -3586,10 +3580,10 @@
         <v>4</v>
       </c>
       <c r="F74" s="2">
-        <v>43.000</v>
+        <v>34.000</v>
       </c>
       <c r="G74" s="3">
-        <v>544.57</v>
+        <v>6336.59</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -3612,10 +3606,10 @@
         <v>4</v>
       </c>
       <c r="F75" s="2">
-        <v>28.000</v>
+        <v>368.000</v>
       </c>
       <c r="G75" s="3">
-        <v>5218.37</v>
+        <v>5775.76</v>
       </c>
       <c r="H75" t="s">
         <v>5</v>
@@ -3638,10 +3632,10 @@
         <v>4</v>
       </c>
       <c r="F76" s="2">
-        <v>332.000</v>
+        <v>1.000</v>
       </c>
       <c r="G76" s="3">
-        <v>5269.33</v>
+        <v>830.65</v>
       </c>
       <c r="H76" t="s">
         <v>5</v>
@@ -3664,10 +3658,10 @@
         <v>4</v>
       </c>
       <c r="F77" s="2">
-        <v>1.000</v>
+        <v>52.000</v>
       </c>
       <c r="G77" s="3">
-        <v>830.65</v>
+        <v>4758.61</v>
       </c>
       <c r="H77" t="s">
         <v>5</v>
@@ -3690,10 +3684,10 @@
         <v>4</v>
       </c>
       <c r="F78" s="2">
-        <v>54.000</v>
+        <v>9.000</v>
       </c>
       <c r="G78" s="3">
-        <v>4941.63</v>
+        <v>214.33</v>
       </c>
       <c r="H78" t="s">
         <v>5</v>
@@ -3716,10 +3710,10 @@
         <v>4</v>
       </c>
       <c r="F79" s="2">
-        <v>9.000</v>
+        <v>2.000</v>
       </c>
       <c r="G79" s="3">
-        <v>214.33</v>
+        <v>120.85</v>
       </c>
       <c r="H79" t="s">
         <v>5</v>
@@ -3742,10 +3736,10 @@
         <v>4</v>
       </c>
       <c r="F80" s="2">
-        <v>2.000</v>
+        <v>1149.000</v>
       </c>
       <c r="G80" s="3">
-        <v>120.85</v>
+        <v>21205.94</v>
       </c>
       <c r="H80" t="s">
         <v>5</v>
@@ -3768,10 +3762,10 @@
         <v>4</v>
       </c>
       <c r="F81" s="2">
-        <v>1253.000</v>
+        <v>3.000</v>
       </c>
       <c r="G81" s="3">
-        <v>23125.58</v>
+        <v>2778.04</v>
       </c>
       <c r="H81" t="s">
         <v>5</v>
@@ -3794,10 +3788,10 @@
         <v>4</v>
       </c>
       <c r="F82" s="2">
-        <v>3.000</v>
+        <v>4.000</v>
       </c>
       <c r="G82" s="3">
-        <v>2778.04</v>
+        <v>4210.13</v>
       </c>
       <c r="H82" t="s">
         <v>5</v>
@@ -3820,10 +3814,10 @@
         <v>4</v>
       </c>
       <c r="F83" s="2">
-        <v>4.000</v>
+        <v>6.000</v>
       </c>
       <c r="G83" s="3">
-        <v>4210.13</v>
+        <v>3826.79</v>
       </c>
       <c r="H83" t="s">
         <v>5</v>
@@ -3846,10 +3840,10 @@
         <v>4</v>
       </c>
       <c r="F84" s="2">
-        <v>6.000</v>
+        <v>12.000</v>
       </c>
       <c r="G84" s="3">
-        <v>3826.79</v>
+        <v>1826.75</v>
       </c>
       <c r="H84" t="s">
         <v>5</v>
@@ -3872,10 +3866,10 @@
         <v>4</v>
       </c>
       <c r="F85" s="2">
-        <v>12.000</v>
+        <v>2.000</v>
       </c>
       <c r="G85" s="3">
-        <v>1826.75</v>
+        <v>159.15</v>
       </c>
       <c r="H85" t="s">
         <v>5</v>
@@ -3898,10 +3892,10 @@
         <v>4</v>
       </c>
       <c r="F86" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G86" s="3">
-        <v>159.15</v>
+        <v>194.13</v>
       </c>
       <c r="H86" t="s">
         <v>5</v>
@@ -3924,10 +3918,10 @@
         <v>4</v>
       </c>
       <c r="F87" s="2">
-        <v>1.000</v>
+        <v>42.000</v>
       </c>
       <c r="G87" s="3">
-        <v>194.13</v>
+        <v>638.80</v>
       </c>
       <c r="H87" t="s">
         <v>5</v>
@@ -3950,10 +3944,10 @@
         <v>4</v>
       </c>
       <c r="F88" s="2">
-        <v>42.000</v>
+        <v>118.000</v>
       </c>
       <c r="G88" s="3">
-        <v>638.80</v>
+        <v>669.48</v>
       </c>
       <c r="H88" t="s">
         <v>5</v>
@@ -4057,7 +4051,7 @@
         <v>4.000</v>
       </c>
       <c r="G92" s="3">
-        <v>4003.21</v>
+        <v>4347.36</v>
       </c>
       <c r="H92" t="s">
         <v>5</v>
@@ -4132,10 +4126,10 @@
         <v>4</v>
       </c>
       <c r="F95" s="2">
-        <v>72.000</v>
+        <v>69.000</v>
       </c>
       <c r="G95" s="3">
-        <v>9463.99</v>
+        <v>9069.66</v>
       </c>
       <c r="H95" t="s">
         <v>5</v>
@@ -4262,10 +4256,10 @@
         <v>4</v>
       </c>
       <c r="F100" s="2">
-        <v>680.000</v>
+        <v>607.000</v>
       </c>
       <c r="G100" s="3">
-        <v>2870.38</v>
+        <v>2562.25</v>
       </c>
       <c r="H100" t="s">
         <v>5</v>
@@ -4288,10 +4282,10 @@
         <v>4</v>
       </c>
       <c r="F101" s="2">
-        <v>48.000</v>
+        <v>42.000</v>
       </c>
       <c r="G101" s="3">
-        <v>1620.68</v>
+        <v>1418.10</v>
       </c>
       <c r="H101" t="s">
         <v>5</v>
@@ -4314,10 +4308,10 @@
         <v>4</v>
       </c>
       <c r="F102" s="2">
-        <v>132.000</v>
+        <v>131.000</v>
       </c>
       <c r="G102" s="3">
-        <v>6559.80</v>
+        <v>6510.10</v>
       </c>
       <c r="H102" t="s">
         <v>5</v>
@@ -4340,10 +4334,10 @@
         <v>4</v>
       </c>
       <c r="F103" s="2">
-        <v>238.000</v>
+        <v>282.000</v>
       </c>
       <c r="G103" s="3">
-        <v>8954.79</v>
+        <v>10609.48</v>
       </c>
       <c r="H103" t="s">
         <v>5</v>
@@ -4369,7 +4363,7 @@
         <v>10.000</v>
       </c>
       <c r="G104" s="3">
-        <v>2229.94</v>
+        <v>3152.34</v>
       </c>
       <c r="H104" t="s">
         <v>5</v>
@@ -4447,7 +4441,7 @@
         <v>13.000</v>
       </c>
       <c r="G107" s="3">
-        <v>1460.31</v>
+        <v>1460.30</v>
       </c>
       <c r="H107" t="s">
         <v>5</v>
@@ -4600,10 +4594,10 @@
         <v>4</v>
       </c>
       <c r="F113" s="2">
-        <v>2.000</v>
+        <v>4.000</v>
       </c>
       <c r="G113" s="3">
-        <v>303.21</v>
+        <v>606.42</v>
       </c>
       <c r="H113" t="s">
         <v>5</v>
@@ -4652,10 +4646,10 @@
         <v>4</v>
       </c>
       <c r="F115" s="2">
-        <v>4.000</v>
+        <v>9.000</v>
       </c>
       <c r="G115" s="3">
-        <v>114.45</v>
+        <v>257.52</v>
       </c>
       <c r="H115" t="s">
         <v>5</v>
@@ -4678,10 +4672,10 @@
         <v>4</v>
       </c>
       <c r="F116" s="2">
-        <v>703.000</v>
+        <v>777.000</v>
       </c>
       <c r="G116" s="3">
-        <v>3802.18</v>
+        <v>4202.39</v>
       </c>
       <c r="H116" t="s">
         <v>5</v>
@@ -4938,10 +4932,10 @@
         <v>4</v>
       </c>
       <c r="F126" s="2">
-        <v>139.000</v>
+        <v>133.000</v>
       </c>
       <c r="G126" s="3">
-        <v>17389.99</v>
+        <v>16719.20</v>
       </c>
       <c r="H126" t="s">
         <v>5</v>
@@ -4964,10 +4958,10 @@
         <v>4</v>
       </c>
       <c r="F127" s="2">
-        <v>34.000</v>
+        <v>30.000</v>
       </c>
       <c r="G127" s="3">
-        <v>3495.03</v>
+        <v>3083.85</v>
       </c>
       <c r="H127" t="s">
         <v>5</v>
@@ -4990,10 +4984,10 @@
         <v>4</v>
       </c>
       <c r="F128" s="2">
-        <v>34.000</v>
+        <v>76.000</v>
       </c>
       <c r="G128" s="3">
-        <v>11316.73</v>
+        <v>41778.89</v>
       </c>
       <c r="H128" t="s">
         <v>5</v>
@@ -5016,10 +5010,10 @@
         <v>4</v>
       </c>
       <c r="F129" s="2">
-        <v>205.000</v>
+        <v>218.000</v>
       </c>
       <c r="G129" s="3">
-        <v>32501.28</v>
+        <v>34562.35</v>
       </c>
       <c r="H129" t="s">
         <v>5</v>
@@ -5094,10 +5088,10 @@
         <v>4</v>
       </c>
       <c r="F132" s="2">
-        <v>175.000</v>
+        <v>171.000</v>
       </c>
       <c r="G132" s="3">
-        <v>8220.60</v>
+        <v>8032.71</v>
       </c>
       <c r="H132" t="s">
         <v>5</v>
@@ -5201,7 +5195,7 @@
         <v>7.000</v>
       </c>
       <c r="G136" s="3">
-        <v>343.80</v>
+        <v>343.82</v>
       </c>
       <c r="H136" t="s">
         <v>5</v>
@@ -5614,10 +5608,10 @@
         <v>4</v>
       </c>
       <c r="F152" s="2">
-        <v>13.000</v>
+        <v>12.000</v>
       </c>
       <c r="G152" s="3">
-        <v>5603.19</v>
+        <v>5172.18</v>
       </c>
       <c r="H152" t="s">
         <v>5</v>
@@ -5640,10 +5634,10 @@
         <v>4</v>
       </c>
       <c r="F153" s="2">
-        <v>208.000</v>
+        <v>196.000</v>
       </c>
       <c r="G153" s="3">
-        <v>1217.84</v>
+        <v>1147.58</v>
       </c>
       <c r="H153" t="s">
         <v>5</v>
@@ -5900,10 +5894,10 @@
         <v>4</v>
       </c>
       <c r="F163" s="2">
-        <v>187.000</v>
+        <v>182.000</v>
       </c>
       <c r="G163" s="3">
-        <v>7048.97</v>
+        <v>6860.49</v>
       </c>
       <c r="H163" t="s">
         <v>5</v>
@@ -5952,10 +5946,10 @@
         <v>4</v>
       </c>
       <c r="F165" s="2">
-        <v>317.000</v>
+        <v>360.000</v>
       </c>
       <c r="G165" s="3">
-        <v>55354.03</v>
+        <v>62862.61</v>
       </c>
       <c r="H165" t="s">
         <v>5</v>
@@ -5978,10 +5972,10 @@
         <v>4</v>
       </c>
       <c r="F166" s="2">
-        <v>555.000</v>
+        <v>623.000</v>
       </c>
       <c r="G166" s="3">
-        <v>18887.79</v>
+        <v>21200.57</v>
       </c>
       <c r="H166" t="s">
         <v>5</v>
@@ -6238,10 +6232,10 @@
         <v>4</v>
       </c>
       <c r="F176" s="2">
-        <v>109.000</v>
+        <v>104.000</v>
       </c>
       <c r="G176" s="3">
-        <v>4276.34</v>
+        <v>4080.18</v>
       </c>
       <c r="H176" t="s">
         <v>5</v>
@@ -6264,10 +6258,10 @@
         <v>4</v>
       </c>
       <c r="F177" s="2">
-        <v>641.000</v>
+        <v>634.000</v>
       </c>
       <c r="G177" s="3">
-        <v>4624.78</v>
+        <v>4574.28</v>
       </c>
       <c r="H177" t="s">
         <v>5</v>
@@ -6316,10 +6310,10 @@
         <v>4</v>
       </c>
       <c r="F179" s="2">
-        <v>1112.000</v>
+        <v>1207.000</v>
       </c>
       <c r="G179" s="3">
-        <v>7280.11</v>
+        <v>7902.01</v>
       </c>
       <c r="H179" t="s">
         <v>5</v>
@@ -6342,10 +6336,10 @@
         <v>4</v>
       </c>
       <c r="F180" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G180" s="3">
-        <v>223.95</v>
+        <v>111.98</v>
       </c>
       <c r="H180" t="s">
         <v>5</v>
@@ -6368,10 +6362,10 @@
         <v>4</v>
       </c>
       <c r="F181" s="2">
-        <v>1.000</v>
+        <v>1676.000</v>
       </c>
       <c r="G181" s="3">
-        <v>118.26</v>
+        <v>16948.07</v>
       </c>
       <c r="H181" t="s">
         <v>5</v>
@@ -6394,10 +6388,10 @@
         <v>4</v>
       </c>
       <c r="F182" s="2">
-        <v>1894.000</v>
+        <v>47.000</v>
       </c>
       <c r="G182" s="3">
-        <v>19152.33</v>
+        <v>1271.16</v>
       </c>
       <c r="H182" t="s">
         <v>5</v>
@@ -6420,10 +6414,10 @@
         <v>4</v>
       </c>
       <c r="F183" s="2">
-        <v>58.000</v>
+        <v>16.000</v>
       </c>
       <c r="G183" s="3">
-        <v>1568.68</v>
+        <v>520.62</v>
       </c>
       <c r="H183" t="s">
         <v>5</v>
@@ -6446,10 +6440,10 @@
         <v>4</v>
       </c>
       <c r="F184" s="2">
-        <v>16.000</v>
+        <v>19.000</v>
       </c>
       <c r="G184" s="3">
-        <v>520.62</v>
+        <v>730.60</v>
       </c>
       <c r="H184" t="s">
         <v>5</v>
@@ -6472,10 +6466,10 @@
         <v>4</v>
       </c>
       <c r="F185" s="2">
-        <v>20.000</v>
+        <v>1.000</v>
       </c>
       <c r="G185" s="3">
-        <v>769.05</v>
+        <v>98.83</v>
       </c>
       <c r="H185" t="s">
         <v>5</v>
@@ -6501,7 +6495,7 @@
         <v>1.000</v>
       </c>
       <c r="G186" s="3">
-        <v>98.83</v>
+        <v>863.17</v>
       </c>
       <c r="H186" t="s">
         <v>5</v>
@@ -6524,10 +6518,10 @@
         <v>4</v>
       </c>
       <c r="F187" s="2">
-        <v>1.000</v>
+        <v>49.000</v>
       </c>
       <c r="G187" s="3">
-        <v>863.17</v>
+        <v>3087.46</v>
       </c>
       <c r="H187" t="s">
         <v>5</v>
@@ -6550,10 +6544,10 @@
         <v>4</v>
       </c>
       <c r="F188" s="2">
-        <v>49.000</v>
+        <v>1.000</v>
       </c>
       <c r="G188" s="3">
-        <v>3087.46</v>
+        <v>2480.45</v>
       </c>
       <c r="H188" t="s">
         <v>5</v>
@@ -6576,10 +6570,10 @@
         <v>4</v>
       </c>
       <c r="F189" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G189" s="3">
-        <v>2480.45</v>
+        <v>306.81</v>
       </c>
       <c r="H189" t="s">
         <v>5</v>
@@ -6602,10 +6596,10 @@
         <v>4</v>
       </c>
       <c r="F190" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G190" s="3">
-        <v>153.40</v>
+        <v>5453.26</v>
       </c>
       <c r="H190" t="s">
         <v>5</v>
@@ -6628,10 +6622,10 @@
         <v>4</v>
       </c>
       <c r="F191" s="2">
-        <v>2.000</v>
+        <v>29.000</v>
       </c>
       <c r="G191" s="3">
-        <v>5453.26</v>
+        <v>14835.05</v>
       </c>
       <c r="H191" t="s">
         <v>5</v>
@@ -6654,10 +6648,10 @@
         <v>4</v>
       </c>
       <c r="F192" s="2">
-        <v>28.000</v>
+        <v>323.000</v>
       </c>
       <c r="G192" s="3">
-        <v>14323.49</v>
+        <v>235.89</v>
       </c>
       <c r="H192" t="s">
         <v>5</v>
@@ -6680,10 +6674,10 @@
         <v>4</v>
       </c>
       <c r="F193" s="2">
-        <v>329.000</v>
+        <v>19.000</v>
       </c>
       <c r="G193" s="3">
-        <v>240.27</v>
+        <v>723.49</v>
       </c>
       <c r="H193" t="s">
         <v>5</v>
@@ -6706,10 +6700,10 @@
         <v>4</v>
       </c>
       <c r="F194" s="2">
-        <v>19.000</v>
+        <v>14.000</v>
       </c>
       <c r="G194" s="3">
-        <v>723.49</v>
+        <v>532.00</v>
       </c>
       <c r="H194" t="s">
         <v>5</v>
@@ -6732,10 +6726,10 @@
         <v>4</v>
       </c>
       <c r="F195" s="2">
-        <v>14.000</v>
+        <v>3.000</v>
       </c>
       <c r="G195" s="3">
-        <v>532.00</v>
+        <v>434.25</v>
       </c>
       <c r="H195" t="s">
         <v>5</v>
@@ -6758,10 +6752,10 @@
         <v>4</v>
       </c>
       <c r="F196" s="2">
-        <v>3.000</v>
+        <v>1.000</v>
       </c>
       <c r="G196" s="3">
-        <v>434.25</v>
+        <v>562.67</v>
       </c>
       <c r="H196" t="s">
         <v>5</v>
@@ -6787,7 +6781,7 @@
         <v>1.000</v>
       </c>
       <c r="G197" s="3">
-        <v>562.67</v>
+        <v>316.84</v>
       </c>
       <c r="H197" t="s">
         <v>5</v>
@@ -6810,10 +6804,10 @@
         <v>4</v>
       </c>
       <c r="F198" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="G198" s="3">
-        <v>316.84</v>
+        <v>2566.21</v>
       </c>
       <c r="H198" t="s">
         <v>5</v>
@@ -6836,10 +6830,10 @@
         <v>4</v>
       </c>
       <c r="F199" s="2">
-        <v>7.000</v>
+        <v>37.000</v>
       </c>
       <c r="G199" s="3">
-        <v>2566.21</v>
+        <v>17101.19</v>
       </c>
       <c r="H199" t="s">
         <v>5</v>
@@ -6862,10 +6856,10 @@
         <v>4</v>
       </c>
       <c r="F200" s="2">
-        <v>37.000</v>
+        <v>10.000</v>
       </c>
       <c r="G200" s="3">
-        <v>17101.18</v>
+        <v>3640.65</v>
       </c>
       <c r="H200" t="s">
         <v>5</v>
@@ -6885,13 +6879,13 @@
         <v>404</v>
       </c>
       <c r="E201" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F201" s="2">
-        <v>10.000</v>
+        <v>7733.100</v>
       </c>
       <c r="G201" s="3">
-        <v>3640.65</v>
+        <v>18128.66</v>
       </c>
       <c r="H201" t="s">
         <v>5</v>
@@ -6911,13 +6905,13 @@
         <v>406</v>
       </c>
       <c r="E202" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F202" s="2">
-        <v>8357.100</v>
+        <v>47.000</v>
       </c>
       <c r="G202" s="3">
-        <v>19591.49</v>
+        <v>1079.96</v>
       </c>
       <c r="H202" t="s">
         <v>5</v>
@@ -6940,10 +6934,10 @@
         <v>4</v>
       </c>
       <c r="F203" s="2">
-        <v>44.000</v>
+        <v>92.000</v>
       </c>
       <c r="G203" s="3">
-        <v>1011.02</v>
+        <v>3279.26</v>
       </c>
       <c r="H203" t="s">
         <v>5</v>
@@ -6966,10 +6960,10 @@
         <v>4</v>
       </c>
       <c r="F204" s="2">
-        <v>93.000</v>
+        <v>1.000</v>
       </c>
       <c r="G204" s="3">
-        <v>3314.90</v>
+        <v>303.12</v>
       </c>
       <c r="H204" t="s">
         <v>5</v>
@@ -6992,10 +6986,10 @@
         <v>4</v>
       </c>
       <c r="F205" s="2">
-        <v>1.000</v>
+        <v>14.000</v>
       </c>
       <c r="G205" s="3">
-        <v>303.12</v>
+        <v>1053.91</v>
       </c>
       <c r="H205" t="s">
         <v>5</v>
@@ -7018,10 +7012,10 @@
         <v>4</v>
       </c>
       <c r="F206" s="2">
-        <v>14.000</v>
+        <v>1.000</v>
       </c>
       <c r="G206" s="3">
-        <v>1053.91</v>
+        <v>15.67</v>
       </c>
       <c r="H206" t="s">
         <v>5</v>
@@ -7044,10 +7038,10 @@
         <v>4</v>
       </c>
       <c r="F207" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G207" s="3">
-        <v>15.67</v>
+        <v>1632.07</v>
       </c>
       <c r="H207" t="s">
         <v>5</v>
@@ -7070,10 +7064,10 @@
         <v>4</v>
       </c>
       <c r="F208" s="2">
-        <v>2.000</v>
+        <v>97.000</v>
       </c>
       <c r="G208" s="3">
-        <v>1632.07</v>
+        <v>1548.40</v>
       </c>
       <c r="H208" t="s">
         <v>5</v>
@@ -7096,10 +7090,10 @@
         <v>4</v>
       </c>
       <c r="F209" s="2">
-        <v>87.000</v>
+        <v>2.000</v>
       </c>
       <c r="G209" s="3">
-        <v>1388.77</v>
+        <v>3527.49</v>
       </c>
       <c r="H209" t="s">
         <v>5</v>
@@ -7122,10 +7116,10 @@
         <v>4</v>
       </c>
       <c r="F210" s="2">
-        <v>2.000</v>
+        <v>21.000</v>
       </c>
       <c r="G210" s="3">
-        <v>3527.49</v>
+        <v>3910.09</v>
       </c>
       <c r="H210" t="s">
         <v>5</v>
@@ -7148,10 +7142,10 @@
         <v>4</v>
       </c>
       <c r="F211" s="2">
-        <v>19.000</v>
+        <v>357.000</v>
       </c>
       <c r="G211" s="3">
-        <v>3537.70</v>
+        <v>22279.79</v>
       </c>
       <c r="H211" t="s">
         <v>5</v>
@@ -7174,10 +7168,10 @@
         <v>4</v>
       </c>
       <c r="F212" s="2">
-        <v>358.000</v>
+        <v>1307.000</v>
       </c>
       <c r="G212" s="3">
-        <v>22353.40</v>
+        <v>11904.10</v>
       </c>
       <c r="H212" t="s">
         <v>5</v>
@@ -7200,10 +7194,10 @@
         <v>4</v>
       </c>
       <c r="F213" s="2">
-        <v>1453.000</v>
+        <v>3.000</v>
       </c>
       <c r="G213" s="3">
-        <v>12484.39</v>
+        <v>1263.43</v>
       </c>
       <c r="H213" t="s">
         <v>5</v>
@@ -7226,10 +7220,10 @@
         <v>4</v>
       </c>
       <c r="F214" s="2">
-        <v>3.000</v>
+        <v>624.000</v>
       </c>
       <c r="G214" s="3">
-        <v>1263.43</v>
+        <v>1279.20</v>
       </c>
       <c r="H214" t="s">
         <v>5</v>
@@ -7252,10 +7246,10 @@
         <v>4</v>
       </c>
       <c r="F215" s="2">
-        <v>628.000</v>
+        <v>3.000</v>
       </c>
       <c r="G215" s="3">
-        <v>1287.40</v>
+        <v>821.95</v>
       </c>
       <c r="H215" t="s">
         <v>5</v>
@@ -7278,10 +7272,10 @@
         <v>4</v>
       </c>
       <c r="F216" s="2">
-        <v>22.000</v>
+        <v>19.000</v>
       </c>
       <c r="G216" s="3">
-        <v>6027.71</v>
+        <v>16589.86</v>
       </c>
       <c r="H216" t="s">
         <v>5</v>
@@ -7304,10 +7298,10 @@
         <v>4</v>
       </c>
       <c r="F217" s="2">
-        <v>18.000</v>
+        <v>16.000</v>
       </c>
       <c r="G217" s="3">
-        <v>15716.71</v>
+        <v>2244.02</v>
       </c>
       <c r="H217" t="s">
         <v>5</v>
@@ -7330,10 +7324,10 @@
         <v>4</v>
       </c>
       <c r="F218" s="2">
-        <v>16.000</v>
+        <v>1.000</v>
       </c>
       <c r="G218" s="3">
-        <v>2244.02</v>
+        <v>17.78</v>
       </c>
       <c r="H218" t="s">
         <v>5</v>
@@ -7356,10 +7350,10 @@
         <v>4</v>
       </c>
       <c r="F219" s="2">
-        <v>1.000</v>
+        <v>19.000</v>
       </c>
       <c r="G219" s="3">
-        <v>17.78</v>
+        <v>855.20</v>
       </c>
       <c r="H219" t="s">
         <v>5</v>
@@ -7382,10 +7376,10 @@
         <v>4</v>
       </c>
       <c r="F220" s="2">
-        <v>19.000</v>
+        <v>191.000</v>
       </c>
       <c r="G220" s="3">
-        <v>855.20</v>
+        <v>13609.69</v>
       </c>
       <c r="H220" t="s">
         <v>5</v>
@@ -7405,13 +7399,13 @@
         <v>444</v>
       </c>
       <c r="E221" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F221" s="2">
-        <v>228.000</v>
+        <v>27.800</v>
       </c>
       <c r="G221" s="3">
-        <v>16246.11</v>
+        <v>6392.90</v>
       </c>
       <c r="H221" t="s">
         <v>5</v>
@@ -7434,10 +7428,10 @@
         <v>46</v>
       </c>
       <c r="F222" s="2">
-        <v>27.800</v>
+        <v>16.000</v>
       </c>
       <c r="G222" s="3">
-        <v>6392.90</v>
+        <v>7011.29</v>
       </c>
       <c r="H222" t="s">
         <v>5</v>
@@ -7457,13 +7451,13 @@
         <v>448</v>
       </c>
       <c r="E223" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F223" s="2">
-        <v>16.000</v>
+        <v>5.000</v>
       </c>
       <c r="G223" s="3">
-        <v>7011.29</v>
+        <v>662.53</v>
       </c>
       <c r="H223" t="s">
         <v>5</v>
@@ -7486,10 +7480,10 @@
         <v>4</v>
       </c>
       <c r="F224" s="2">
-        <v>5.000</v>
+        <v>4.000</v>
       </c>
       <c r="G224" s="3">
-        <v>662.53</v>
+        <v>996.34</v>
       </c>
       <c r="H224" t="s">
         <v>5</v>
@@ -7512,10 +7506,10 @@
         <v>4</v>
       </c>
       <c r="F225" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="G225" s="3">
-        <v>996.34</v>
+        <v>513.12</v>
       </c>
       <c r="H225" t="s">
         <v>5</v>
@@ -7541,7 +7535,7 @@
         <v>2.000</v>
       </c>
       <c r="G226" s="3">
-        <v>513.12</v>
+        <v>719.47</v>
       </c>
       <c r="H226" t="s">
         <v>5</v>
@@ -7564,10 +7558,10 @@
         <v>4</v>
       </c>
       <c r="F227" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G227" s="3">
-        <v>719.47</v>
+        <v>432.77</v>
       </c>
       <c r="H227" t="s">
         <v>5</v>
@@ -7590,10 +7584,10 @@
         <v>4</v>
       </c>
       <c r="F228" s="2">
-        <v>1.000</v>
+        <v>20.000</v>
       </c>
       <c r="G228" s="3">
-        <v>432.77</v>
+        <v>1118.18</v>
       </c>
       <c r="H228" t="s">
         <v>5</v>
@@ -7616,10 +7610,10 @@
         <v>4</v>
       </c>
       <c r="F229" s="2">
-        <v>14.000</v>
+        <v>4.000</v>
       </c>
       <c r="G229" s="3">
-        <v>782.73</v>
+        <v>103.20</v>
       </c>
       <c r="H229" t="s">
         <v>5</v>
@@ -7642,10 +7636,10 @@
         <v>4</v>
       </c>
       <c r="F230" s="2">
-        <v>4.000</v>
+        <v>127.000</v>
       </c>
       <c r="G230" s="3">
-        <v>103.20</v>
+        <v>567.13</v>
       </c>
       <c r="H230" t="s">
         <v>5</v>
@@ -7668,10 +7662,10 @@
         <v>4</v>
       </c>
       <c r="F231" s="2">
-        <v>127.000</v>
+        <v>107.000</v>
       </c>
       <c r="G231" s="3">
-        <v>567.13</v>
+        <v>10127.99</v>
       </c>
       <c r="H231" t="s">
         <v>5</v>
@@ -7694,10 +7688,10 @@
         <v>4</v>
       </c>
       <c r="F232" s="2">
-        <v>97.000</v>
+        <v>64.000</v>
       </c>
       <c r="G232" s="3">
-        <v>9181.45</v>
+        <v>6294.72</v>
       </c>
       <c r="H232" t="s">
         <v>5</v>
@@ -7720,10 +7714,10 @@
         <v>4</v>
       </c>
       <c r="F233" s="2">
-        <v>54.000</v>
+        <v>1.000</v>
       </c>
       <c r="G233" s="3">
-        <v>5311.17</v>
+        <v>1448.47</v>
       </c>
       <c r="H233" t="s">
         <v>5</v>
@@ -7746,10 +7740,10 @@
         <v>4</v>
       </c>
       <c r="F234" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G234" s="3">
-        <v>1448.47</v>
+        <v>571.29</v>
       </c>
       <c r="H234" t="s">
         <v>5</v>
@@ -7772,10 +7766,10 @@
         <v>4</v>
       </c>
       <c r="F235" s="2">
-        <v>9.000</v>
+        <v>323.000</v>
       </c>
       <c r="G235" s="3">
-        <v>2570.78</v>
+        <v>9675.18</v>
       </c>
       <c r="H235" t="s">
         <v>5</v>
@@ -7798,10 +7792,10 @@
         <v>4</v>
       </c>
       <c r="F236" s="2">
-        <v>324.000</v>
+        <v>4.000</v>
       </c>
       <c r="G236" s="3">
-        <v>9705.12</v>
+        <v>9163.74</v>
       </c>
       <c r="H236" t="s">
         <v>5</v>
@@ -7824,10 +7818,10 @@
         <v>4</v>
       </c>
       <c r="F237" s="2">
-        <v>4.000</v>
+        <v>3.000</v>
       </c>
       <c r="G237" s="3">
-        <v>9163.74</v>
+        <v>295.57</v>
       </c>
       <c r="H237" t="s">
         <v>5</v>
@@ -7850,10 +7844,10 @@
         <v>4</v>
       </c>
       <c r="F238" s="2">
-        <v>3.000</v>
+        <v>14.000</v>
       </c>
       <c r="G238" s="3">
-        <v>295.57</v>
+        <v>1835.96</v>
       </c>
       <c r="H238" t="s">
         <v>5</v>
@@ -7876,10 +7870,10 @@
         <v>4</v>
       </c>
       <c r="F239" s="2">
-        <v>14.000</v>
+        <v>171.000</v>
       </c>
       <c r="G239" s="3">
-        <v>1835.96</v>
+        <v>5804.03</v>
       </c>
       <c r="H239" t="s">
         <v>5</v>
@@ -7902,10 +7896,10 @@
         <v>4</v>
       </c>
       <c r="F240" s="2">
-        <v>172.000</v>
+        <v>1.000</v>
       </c>
       <c r="G240" s="3">
-        <v>5837.97</v>
+        <v>112.24</v>
       </c>
       <c r="H240" t="s">
         <v>5</v>
@@ -7928,10 +7922,10 @@
         <v>4</v>
       </c>
       <c r="F241" s="2">
-        <v>1.000</v>
+        <v>9.000</v>
       </c>
       <c r="G241" s="3">
-        <v>112.24</v>
+        <v>1780.82</v>
       </c>
       <c r="H241" t="s">
         <v>5</v>
@@ -7954,10 +7948,10 @@
         <v>4</v>
       </c>
       <c r="F242" s="2">
-        <v>9.000</v>
+        <v>6.000</v>
       </c>
       <c r="G242" s="3">
-        <v>1780.82</v>
+        <v>340.68</v>
       </c>
       <c r="H242" t="s">
         <v>5</v>
@@ -7977,13 +7971,13 @@
         <v>488</v>
       </c>
       <c r="E243" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F243" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="G243" s="3">
-        <v>56.78</v>
+        <v>1520.59</v>
       </c>
       <c r="H243" t="s">
         <v>5</v>
@@ -8003,13 +7997,13 @@
         <v>490</v>
       </c>
       <c r="E244" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F244" s="2">
-        <v>7.000</v>
+        <v>25.000</v>
       </c>
       <c r="G244" s="3">
-        <v>1520.59</v>
+        <v>1242.33</v>
       </c>
       <c r="H244" t="s">
         <v>5</v>
@@ -8032,10 +8026,10 @@
         <v>4</v>
       </c>
       <c r="F245" s="2">
-        <v>25.000</v>
+        <v>10.000</v>
       </c>
       <c r="G245" s="3">
-        <v>1242.33</v>
+        <v>201.79</v>
       </c>
       <c r="H245" t="s">
         <v>5</v>
@@ -8058,10 +8052,10 @@
         <v>4</v>
       </c>
       <c r="F246" s="2">
-        <v>10.000</v>
+        <v>30.000</v>
       </c>
       <c r="G246" s="3">
-        <v>201.79</v>
+        <v>1398.09</v>
       </c>
       <c r="H246" t="s">
         <v>5</v>
@@ -8081,66 +8075,40 @@
         <v>496</v>
       </c>
       <c r="E247" t="s">
-        <v>4</v>
+        <v>497</v>
       </c>
       <c r="F247" s="2">
-        <v>35.000</v>
+        <v>20.000</v>
       </c>
       <c r="G247" s="3">
-        <v>1631.10</v>
+        <v>29.80</v>
       </c>
       <c r="H247" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" t="s">
-        <v>0</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1</v>
-      </c>
-      <c r="C248" t="s">
-        <v>497</v>
-      </c>
-      <c r="D248" t="s">
+      <c r="A248" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E248" t="s">
-        <v>499</v>
-      </c>
-      <c r="F248" s="2">
-        <v>20.000</v>
-      </c>
-      <c r="G248" s="3">
-        <v>29.80</v>
-      </c>
-      <c r="H248" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="D249" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F249" s="5"/>
-      <c r="G249" s="6">
-        <v>1689690.58</v>
-      </c>
-      <c r="H249" s="4" t="s">
-        <v>500</v>
+      <c r="B248" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F248" s="5"/>
+      <c r="G248" s="6">
+        <v>1740105.14</v>
+      </c>
+      <c r="H248" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/estoque.XLSX
+++ b/estoque.XLSX
@@ -1708,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>78.000</v>
+        <v>70.000</v>
       </c>
       <c r="G2" s="3">
-        <v>279.95</v>
+        <v>251.24</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -1734,10 +1734,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>1384.000</v>
+        <v>1382.000</v>
       </c>
       <c r="G3" s="3">
-        <v>190514.52</v>
+        <v>190239.21</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -1864,10 +1864,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="2">
-        <v>1979.000</v>
+        <v>1976.000</v>
       </c>
       <c r="G8" s="3">
-        <v>53590.71</v>
+        <v>53509.47</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -1994,10 +1994,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="2">
-        <v>1990.000</v>
+        <v>1983.000</v>
       </c>
       <c r="G13" s="3">
-        <v>170079.22</v>
+        <v>169480.95</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
@@ -2072,10 +2072,10 @@
         <v>4</v>
       </c>
       <c r="F16" s="2">
-        <v>182.000</v>
+        <v>174.000</v>
       </c>
       <c r="G16" s="3">
-        <v>15405.49</v>
+        <v>14728.33</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
@@ -2202,10 +2202,10 @@
         <v>4</v>
       </c>
       <c r="F21" s="2">
-        <v>638.000</v>
+        <v>635.000</v>
       </c>
       <c r="G21" s="3">
-        <v>1656.53</v>
+        <v>1648.74</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
@@ -2332,10 +2332,10 @@
         <v>46</v>
       </c>
       <c r="F26" s="2">
-        <v>2783.000</v>
+        <v>2780.500</v>
       </c>
       <c r="G26" s="3">
-        <v>29752.70</v>
+        <v>29725.97</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
@@ -2436,10 +2436,10 @@
         <v>4</v>
       </c>
       <c r="F30" s="2">
-        <v>190.000</v>
+        <v>189.000</v>
       </c>
       <c r="G30" s="3">
-        <v>3525.45</v>
+        <v>3506.90</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
@@ -3580,10 +3580,10 @@
         <v>4</v>
       </c>
       <c r="F74" s="2">
-        <v>34.000</v>
+        <v>33.000</v>
       </c>
       <c r="G74" s="3">
-        <v>6336.59</v>
+        <v>6150.22</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -3736,10 +3736,10 @@
         <v>4</v>
       </c>
       <c r="F80" s="2">
-        <v>1149.000</v>
+        <v>1142.000</v>
       </c>
       <c r="G80" s="3">
-        <v>21205.94</v>
+        <v>21076.74</v>
       </c>
       <c r="H80" t="s">
         <v>5</v>
@@ -4932,10 +4932,10 @@
         <v>4</v>
       </c>
       <c r="F126" s="2">
-        <v>133.000</v>
+        <v>129.000</v>
       </c>
       <c r="G126" s="3">
-        <v>16719.20</v>
+        <v>16216.36</v>
       </c>
       <c r="H126" t="s">
         <v>5</v>
@@ -4984,10 +4984,10 @@
         <v>4</v>
       </c>
       <c r="F128" s="2">
-        <v>76.000</v>
+        <v>73.000</v>
       </c>
       <c r="G128" s="3">
-        <v>41778.89</v>
+        <v>40129.73</v>
       </c>
       <c r="H128" t="s">
         <v>5</v>
@@ -5972,10 +5972,10 @@
         <v>4</v>
       </c>
       <c r="F166" s="2">
-        <v>623.000</v>
+        <v>622.000</v>
       </c>
       <c r="G166" s="3">
-        <v>21200.57</v>
+        <v>21166.54</v>
       </c>
       <c r="H166" t="s">
         <v>5</v>
@@ -6313,7 +6313,7 @@
         <v>1207.000</v>
       </c>
       <c r="G179" s="3">
-        <v>7902.01</v>
+        <v>7902.00</v>
       </c>
       <c r="H179" t="s">
         <v>5</v>
@@ -6362,10 +6362,10 @@
         <v>4</v>
       </c>
       <c r="F181" s="2">
-        <v>1676.000</v>
+        <v>1673.000</v>
       </c>
       <c r="G181" s="3">
-        <v>16948.07</v>
+        <v>16917.74</v>
       </c>
       <c r="H181" t="s">
         <v>5</v>
@@ -6882,10 +6882,10 @@
         <v>46</v>
       </c>
       <c r="F201" s="2">
-        <v>7733.100</v>
+        <v>7680.100</v>
       </c>
       <c r="G201" s="3">
-        <v>18128.66</v>
+        <v>18004.41</v>
       </c>
       <c r="H201" t="s">
         <v>5</v>
@@ -7168,10 +7168,10 @@
         <v>4</v>
       </c>
       <c r="F212" s="2">
-        <v>1307.000</v>
+        <v>1305.000</v>
       </c>
       <c r="G212" s="3">
-        <v>11904.10</v>
+        <v>11885.88</v>
       </c>
       <c r="H212" t="s">
         <v>5</v>
@@ -8052,10 +8052,10 @@
         <v>4</v>
       </c>
       <c r="F246" s="2">
-        <v>30.000</v>
+        <v>29.000</v>
       </c>
       <c r="G246" s="3">
-        <v>1398.09</v>
+        <v>1351.49</v>
       </c>
       <c r="H246" t="s">
         <v>5</v>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="6">
-        <v>1740105.14</v>
+        <v>1735670.37</v>
       </c>
       <c r="H248" s="4" t="s">
         <v>498</v>

--- a/estoque.XLSX
+++ b/estoque.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="505">
   <si>
     <t>0006</t>
   </si>
@@ -19,10 +19,10 @@
     <t>CONSÓRCIO MANUTENÇÃO NOVA SP</t>
   </si>
   <si>
-    <t>50001070</t>
-  </si>
-  <si>
-    <t>LACRE ANTIFRAUDE P HIDRÔMETRO COMPR 01 M</t>
+    <t>50000530</t>
+  </si>
+  <si>
+    <t>HIDROM VOL DN20 PRE.EQ QN 1.5 M3/H - ASI</t>
   </si>
   <si>
     <t>un</t>
@@ -31,12 +31,6 @@
     <t>4600041302</t>
   </si>
   <si>
-    <t>50000530</t>
-  </si>
-  <si>
-    <t>HIDROM VOL DN20 PRE.EQ QN 1.5 M3/H - ASI</t>
-  </si>
-  <si>
     <t>50000472</t>
   </si>
   <si>
@@ -496,6 +490,12 @@
     <t>REDUCAO FF PONTA BOLSA JE2GS DN100 X 75</t>
   </si>
   <si>
+    <t>30006864</t>
+  </si>
+  <si>
+    <t>REDUCAO CONC ELETROF - DE 110 X 90</t>
+  </si>
+  <si>
     <t>30006747</t>
   </si>
   <si>
@@ -1418,12 +1418,6 @@
   </si>
   <si>
     <t>CURVA 45GR FF FLANGES DN300 PN10</t>
-  </si>
-  <si>
-    <t>30000288</t>
-  </si>
-  <si>
-    <t>COLAR TOMADA FF CINTA INOX DN75 X DNR50</t>
   </si>
   <si>
     <t>30000287</t>
@@ -1647,7 +1641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1667,28 +1661,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1708,10 +1702,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>70.000</v>
+        <v>1367.000</v>
       </c>
       <c r="G2" s="3">
-        <v>251.24</v>
+        <v>188174.38</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -1734,10 +1728,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>1382.000</v>
+        <v>115.000</v>
       </c>
       <c r="G3" s="3">
-        <v>190239.21</v>
+        <v>20859.34</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -1760,10 +1754,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="2">
-        <v>115.000</v>
+        <v>198.000</v>
       </c>
       <c r="G4" s="3">
-        <v>20859.34</v>
+        <v>115052.92</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -1786,10 +1780,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>198.000</v>
+        <v>7.000</v>
       </c>
       <c r="G5" s="3">
-        <v>115052.92</v>
+        <v>3052.53</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -1812,10 +1806,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="2">
-        <v>7.000</v>
+        <v>5.000</v>
       </c>
       <c r="G6" s="3">
-        <v>3052.53</v>
+        <v>2663.85</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -1838,10 +1832,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>5.000</v>
+        <v>2204.000</v>
       </c>
       <c r="G7" s="3">
-        <v>2663.85</v>
+        <v>59683.01</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -1864,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="2">
-        <v>1976.000</v>
+        <v>353.000</v>
       </c>
       <c r="G8" s="3">
-        <v>53509.47</v>
+        <v>30142.81</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -1890,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>353.000</v>
+        <v>11.000</v>
       </c>
       <c r="G9" s="3">
-        <v>30142.81</v>
+        <v>145.79</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -1916,10 +1910,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="2">
-        <v>11.000</v>
+        <v>6.000</v>
       </c>
       <c r="G10" s="3">
-        <v>145.79</v>
+        <v>45.92</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -1942,10 +1936,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="2">
-        <v>6.000</v>
+        <v>5.000</v>
       </c>
       <c r="G11" s="3">
-        <v>45.92</v>
+        <v>8445.28</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -1968,10 +1962,10 @@
         <v>4</v>
       </c>
       <c r="F12" s="2">
-        <v>5.000</v>
+        <v>2186.000</v>
       </c>
       <c r="G12" s="3">
-        <v>8445.28</v>
+        <v>186830.31</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -1994,10 +1988,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="2">
-        <v>1983.000</v>
+        <v>1.000</v>
       </c>
       <c r="G13" s="3">
-        <v>169480.95</v>
+        <v>2.97</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
@@ -2020,10 +2014,10 @@
         <v>4</v>
       </c>
       <c r="F14" s="2">
-        <v>1.000</v>
+        <v>17.000</v>
       </c>
       <c r="G14" s="3">
-        <v>2.97</v>
+        <v>21086.43</v>
       </c>
       <c r="H14" t="s">
         <v>5</v>
@@ -2046,10 +2040,10 @@
         <v>4</v>
       </c>
       <c r="F15" s="2">
-        <v>17.000</v>
+        <v>2.000</v>
       </c>
       <c r="G15" s="3">
-        <v>21086.43</v>
+        <v>169.29</v>
       </c>
       <c r="H15" t="s">
         <v>5</v>
@@ -2072,10 +2066,10 @@
         <v>4</v>
       </c>
       <c r="F16" s="2">
-        <v>174.000</v>
+        <v>24.000</v>
       </c>
       <c r="G16" s="3">
-        <v>14728.33</v>
+        <v>11306.03</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
@@ -2098,10 +2092,10 @@
         <v>4</v>
       </c>
       <c r="F17" s="2">
-        <v>24.000</v>
+        <v>2.000</v>
       </c>
       <c r="G17" s="3">
-        <v>11306.03</v>
+        <v>2436.37</v>
       </c>
       <c r="H17" t="s">
         <v>5</v>
@@ -2124,10 +2118,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="2">
-        <v>2.000</v>
+        <v>58.000</v>
       </c>
       <c r="G18" s="3">
-        <v>2436.37</v>
+        <v>8466.14</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -2150,10 +2144,10 @@
         <v>4</v>
       </c>
       <c r="F19" s="2">
-        <v>59.000</v>
+        <v>69.000</v>
       </c>
       <c r="G19" s="3">
-        <v>8612.11</v>
+        <v>31688.91</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
@@ -2176,10 +2170,10 @@
         <v>4</v>
       </c>
       <c r="F20" s="2">
-        <v>49.000</v>
+        <v>1600.000</v>
       </c>
       <c r="G20" s="3">
-        <v>22506.31</v>
+        <v>4154.50</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
@@ -2199,13 +2193,13 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2">
-        <v>635.000</v>
+        <v>59.100</v>
       </c>
       <c r="G21" s="3">
-        <v>1648.74</v>
+        <v>9804.93</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
@@ -2219,19 +2213,19 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
       <c r="F22" s="2">
-        <v>59.100</v>
+        <v>190.100</v>
       </c>
       <c r="G22" s="3">
-        <v>9804.93</v>
+        <v>1986.82</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
@@ -2251,13 +2245,13 @@
         <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2">
-        <v>193.100</v>
+        <v>232.450</v>
       </c>
       <c r="G23" s="3">
-        <v>2018.17</v>
+        <v>22744.18</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
@@ -2277,13 +2271,13 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2">
-        <v>282.000</v>
+        <v>869.830</v>
       </c>
       <c r="G24" s="3">
-        <v>27592.43</v>
+        <v>28816.94</v>
       </c>
       <c r="H24" t="s">
         <v>5</v>
@@ -2303,13 +2297,13 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" s="2">
-        <v>1626.220</v>
+        <v>2279.610</v>
       </c>
       <c r="G25" s="3">
-        <v>53875.68</v>
+        <v>24377.01</v>
       </c>
       <c r="H25" t="s">
         <v>5</v>
@@ -2329,13 +2323,13 @@
         <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2">
-        <v>2780.500</v>
+        <v>78.310</v>
       </c>
       <c r="G26" s="3">
-        <v>29725.97</v>
+        <v>7083.14</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
@@ -2355,13 +2349,13 @@
         <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="2">
-        <v>78.310</v>
+        <v>56.600</v>
       </c>
       <c r="G27" s="3">
-        <v>7083.14</v>
+        <v>1829.18</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
@@ -2381,13 +2375,13 @@
         <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2">
-        <v>56.600</v>
+        <v>7.000</v>
       </c>
       <c r="G28" s="3">
-        <v>1829.18</v>
+        <v>1219.43</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
@@ -2410,10 +2404,10 @@
         <v>4</v>
       </c>
       <c r="F29" s="2">
-        <v>7.000</v>
+        <v>157.000</v>
       </c>
       <c r="G29" s="3">
-        <v>1219.43</v>
+        <v>2917.04</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
@@ -2436,10 +2430,10 @@
         <v>4</v>
       </c>
       <c r="F30" s="2">
-        <v>189.000</v>
+        <v>26.000</v>
       </c>
       <c r="G30" s="3">
-        <v>3506.90</v>
+        <v>429.00</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
@@ -2462,10 +2456,10 @@
         <v>4</v>
       </c>
       <c r="F31" s="2">
-        <v>25.000</v>
+        <v>12.000</v>
       </c>
       <c r="G31" s="3">
-        <v>412.50</v>
+        <v>2426.24</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
@@ -2488,10 +2482,10 @@
         <v>4</v>
       </c>
       <c r="F32" s="2">
-        <v>12.000</v>
+        <v>4.000</v>
       </c>
       <c r="G32" s="3">
-        <v>2426.24</v>
+        <v>4802.74</v>
       </c>
       <c r="H32" t="s">
         <v>5</v>
@@ -2514,10 +2508,10 @@
         <v>4</v>
       </c>
       <c r="F33" s="2">
-        <v>4.000</v>
+        <v>3.000</v>
       </c>
       <c r="G33" s="3">
-        <v>4802.74</v>
+        <v>1028.70</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
@@ -2537,13 +2531,13 @@
         <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F34" s="2">
-        <v>3.000</v>
+        <v>6.000</v>
       </c>
       <c r="G34" s="3">
-        <v>1028.70</v>
+        <v>3106.60</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
@@ -2563,13 +2557,13 @@
         <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F35" s="2">
-        <v>6.000</v>
+        <v>170.120</v>
       </c>
       <c r="G35" s="3">
-        <v>3106.60</v>
+        <v>8835.78</v>
       </c>
       <c r="H35" t="s">
         <v>5</v>
@@ -2589,13 +2583,13 @@
         <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2">
-        <v>170.120</v>
+        <v>1.000</v>
       </c>
       <c r="G36" s="3">
-        <v>8835.78</v>
+        <v>29.64</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
@@ -2621,7 +2615,7 @@
         <v>1.000</v>
       </c>
       <c r="G37" s="3">
-        <v>29.64</v>
+        <v>726.22</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
@@ -2644,10 +2638,10 @@
         <v>4</v>
       </c>
       <c r="F38" s="2">
-        <v>1.000</v>
+        <v>2.000</v>
       </c>
       <c r="G38" s="3">
-        <v>726.22</v>
+        <v>651.09</v>
       </c>
       <c r="H38" t="s">
         <v>5</v>
@@ -2670,10 +2664,10 @@
         <v>4</v>
       </c>
       <c r="F39" s="2">
-        <v>2.000</v>
+        <v>28.000</v>
       </c>
       <c r="G39" s="3">
-        <v>651.09</v>
+        <v>1119.31</v>
       </c>
       <c r="H39" t="s">
         <v>5</v>
@@ -2696,10 +2690,10 @@
         <v>4</v>
       </c>
       <c r="F40" s="2">
-        <v>29.000</v>
+        <v>7.000</v>
       </c>
       <c r="G40" s="3">
-        <v>1159.29</v>
+        <v>683.07</v>
       </c>
       <c r="H40" t="s">
         <v>5</v>
@@ -2722,10 +2716,10 @@
         <v>4</v>
       </c>
       <c r="F41" s="2">
-        <v>7.000</v>
+        <v>8.000</v>
       </c>
       <c r="G41" s="3">
-        <v>683.07</v>
+        <v>1141.60</v>
       </c>
       <c r="H41" t="s">
         <v>5</v>
@@ -2748,10 +2742,10 @@
         <v>4</v>
       </c>
       <c r="F42" s="2">
-        <v>8.000</v>
+        <v>5.000</v>
       </c>
       <c r="G42" s="3">
-        <v>1141.60</v>
+        <v>271.19</v>
       </c>
       <c r="H42" t="s">
         <v>5</v>
@@ -2774,10 +2768,10 @@
         <v>4</v>
       </c>
       <c r="F43" s="2">
-        <v>9.000</v>
+        <v>27.000</v>
       </c>
       <c r="G43" s="3">
-        <v>488.13</v>
+        <v>2983.14</v>
       </c>
       <c r="H43" t="s">
         <v>5</v>
@@ -2800,10 +2794,10 @@
         <v>4</v>
       </c>
       <c r="F44" s="2">
-        <v>36.000</v>
+        <v>1.000</v>
       </c>
       <c r="G44" s="3">
-        <v>3977.52</v>
+        <v>5663.01</v>
       </c>
       <c r="H44" t="s">
         <v>5</v>
@@ -2829,7 +2823,7 @@
         <v>1.000</v>
       </c>
       <c r="G45" s="3">
-        <v>5663.01</v>
+        <v>131.57</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
@@ -2852,10 +2846,10 @@
         <v>4</v>
       </c>
       <c r="F46" s="2">
-        <v>1.000</v>
+        <v>6.000</v>
       </c>
       <c r="G46" s="3">
-        <v>131.57</v>
+        <v>344.01</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
@@ -2878,10 +2872,10 @@
         <v>4</v>
       </c>
       <c r="F47" s="2">
-        <v>6.000</v>
+        <v>33.000</v>
       </c>
       <c r="G47" s="3">
-        <v>344.01</v>
+        <v>2603.78</v>
       </c>
       <c r="H47" t="s">
         <v>5</v>
@@ -2904,10 +2898,10 @@
         <v>4</v>
       </c>
       <c r="F48" s="2">
-        <v>33.000</v>
+        <v>15.000</v>
       </c>
       <c r="G48" s="3">
-        <v>2603.78</v>
+        <v>326.35</v>
       </c>
       <c r="H48" t="s">
         <v>5</v>
@@ -2930,10 +2924,10 @@
         <v>4</v>
       </c>
       <c r="F49" s="2">
-        <v>17.000</v>
+        <v>69.000</v>
       </c>
       <c r="G49" s="3">
-        <v>369.87</v>
+        <v>19044.27</v>
       </c>
       <c r="H49" t="s">
         <v>5</v>
@@ -2953,13 +2947,13 @@
         <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F50" s="2">
-        <v>69.000</v>
+        <v>171.370</v>
       </c>
       <c r="G50" s="3">
-        <v>19044.27</v>
+        <v>3681.37</v>
       </c>
       <c r="H50" t="s">
         <v>5</v>
@@ -2979,13 +2973,13 @@
         <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2">
-        <v>167.870</v>
+        <v>1206.730</v>
       </c>
       <c r="G51" s="3">
-        <v>3606.18</v>
+        <v>45371.86</v>
       </c>
       <c r="H51" t="s">
         <v>5</v>
@@ -3005,13 +2999,13 @@
         <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2">
-        <v>1206.730</v>
+        <v>2511.110</v>
       </c>
       <c r="G52" s="3">
-        <v>45371.86</v>
+        <v>10034.19</v>
       </c>
       <c r="H52" t="s">
         <v>5</v>
@@ -3031,13 +3025,13 @@
         <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F53" s="2">
-        <v>2641.340</v>
+        <v>11.000</v>
       </c>
       <c r="G53" s="3">
-        <v>10554.58</v>
+        <v>974.64</v>
       </c>
       <c r="H53" t="s">
         <v>5</v>
@@ -3057,13 +3051,13 @@
         <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F54" s="2">
-        <v>11.000</v>
+        <v>17.000</v>
       </c>
       <c r="G54" s="3">
-        <v>974.64</v>
+        <v>7823.48</v>
       </c>
       <c r="H54" t="s">
         <v>5</v>
@@ -3086,10 +3080,10 @@
         <v>4</v>
       </c>
       <c r="F55" s="2">
-        <v>17.000</v>
+        <v>1.000</v>
       </c>
       <c r="G55" s="3">
-        <v>7823.48</v>
+        <v>3610.20</v>
       </c>
       <c r="H55" t="s">
         <v>5</v>
@@ -3115,7 +3109,7 @@
         <v>1.000</v>
       </c>
       <c r="G56" s="3">
-        <v>3610.20</v>
+        <v>1728.34</v>
       </c>
       <c r="H56" t="s">
         <v>5</v>
@@ -3138,10 +3132,10 @@
         <v>4</v>
       </c>
       <c r="F57" s="2">
-        <v>1.000</v>
+        <v>12.000</v>
       </c>
       <c r="G57" s="3">
-        <v>1728.34</v>
+        <v>6793.81</v>
       </c>
       <c r="H57" t="s">
         <v>5</v>
@@ -3164,10 +3158,10 @@
         <v>4</v>
       </c>
       <c r="F58" s="2">
-        <v>12.000</v>
+        <v>8.000</v>
       </c>
       <c r="G58" s="3">
-        <v>6793.82</v>
+        <v>2259.05</v>
       </c>
       <c r="H58" t="s">
         <v>5</v>
@@ -3190,10 +3184,10 @@
         <v>4</v>
       </c>
       <c r="F59" s="2">
-        <v>8.000</v>
+        <v>6.000</v>
       </c>
       <c r="G59" s="3">
-        <v>2259.05</v>
+        <v>2371.80</v>
       </c>
       <c r="H59" t="s">
         <v>5</v>
@@ -3216,10 +3210,10 @@
         <v>4</v>
       </c>
       <c r="F60" s="2">
-        <v>6.000</v>
+        <v>5.000</v>
       </c>
       <c r="G60" s="3">
-        <v>2371.80</v>
+        <v>2649.74</v>
       </c>
       <c r="H60" t="s">
         <v>5</v>
@@ -3242,10 +3236,10 @@
         <v>4</v>
       </c>
       <c r="F61" s="2">
-        <v>5.000</v>
+        <v>81.000</v>
       </c>
       <c r="G61" s="3">
-        <v>2649.74</v>
+        <v>446.23</v>
       </c>
       <c r="H61" t="s">
         <v>5</v>
@@ -3265,13 +3259,13 @@
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F62" s="2">
-        <v>83.000</v>
+        <v>17.000</v>
       </c>
       <c r="G62" s="3">
-        <v>457.25</v>
+        <v>2938.94</v>
       </c>
       <c r="H62" t="s">
         <v>5</v>
@@ -3291,13 +3285,13 @@
         <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2">
-        <v>23.000</v>
+        <v>46.000</v>
       </c>
       <c r="G63" s="3">
-        <v>3976.22</v>
+        <v>4359.41</v>
       </c>
       <c r="H63" t="s">
         <v>5</v>
@@ -3317,13 +3311,13 @@
         <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2">
-        <v>46.000</v>
+        <v>13.000</v>
       </c>
       <c r="G64" s="3">
-        <v>4359.41</v>
+        <v>3437.72</v>
       </c>
       <c r="H64" t="s">
         <v>5</v>
@@ -3343,13 +3337,13 @@
         <v>132</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F65" s="2">
-        <v>13.000</v>
+        <v>1.000</v>
       </c>
       <c r="G65" s="3">
-        <v>3437.72</v>
+        <v>257.35</v>
       </c>
       <c r="H65" t="s">
         <v>5</v>
@@ -3372,10 +3366,10 @@
         <v>4</v>
       </c>
       <c r="F66" s="2">
-        <v>1.000</v>
+        <v>19.000</v>
       </c>
       <c r="G66" s="3">
-        <v>257.35</v>
+        <v>1201.67</v>
       </c>
       <c r="H66" t="s">
         <v>5</v>
@@ -3398,10 +3392,10 @@
         <v>4</v>
       </c>
       <c r="F67" s="2">
-        <v>19.000</v>
+        <v>413.000</v>
       </c>
       <c r="G67" s="3">
-        <v>1201.67</v>
+        <v>8473.93</v>
       </c>
       <c r="H67" t="s">
         <v>5</v>
@@ -3424,10 +3418,10 @@
         <v>4</v>
       </c>
       <c r="F68" s="2">
-        <v>417.000</v>
+        <v>2.000</v>
       </c>
       <c r="G68" s="3">
-        <v>8556.01</v>
+        <v>8149.76</v>
       </c>
       <c r="H68" t="s">
         <v>5</v>
@@ -3450,10 +3444,10 @@
         <v>4</v>
       </c>
       <c r="F69" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G69" s="3">
-        <v>8149.76</v>
+        <v>348.30</v>
       </c>
       <c r="H69" t="s">
         <v>5</v>
@@ -3476,10 +3470,10 @@
         <v>4</v>
       </c>
       <c r="F70" s="2">
-        <v>1.000</v>
+        <v>17.000</v>
       </c>
       <c r="G70" s="3">
-        <v>348.30</v>
+        <v>1069.27</v>
       </c>
       <c r="H70" t="s">
         <v>5</v>
@@ -3502,10 +3496,10 @@
         <v>4</v>
       </c>
       <c r="F71" s="2">
-        <v>17.000</v>
+        <v>1.000</v>
       </c>
       <c r="G71" s="3">
-        <v>1069.27</v>
+        <v>23.34</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -3528,10 +3522,10 @@
         <v>4</v>
       </c>
       <c r="F72" s="2">
-        <v>1.000</v>
+        <v>43.000</v>
       </c>
       <c r="G72" s="3">
-        <v>23.34</v>
+        <v>544.57</v>
       </c>
       <c r="H72" t="s">
         <v>5</v>
@@ -3554,10 +3548,10 @@
         <v>4</v>
       </c>
       <c r="F73" s="2">
-        <v>43.000</v>
+        <v>71.000</v>
       </c>
       <c r="G73" s="3">
-        <v>544.57</v>
+        <v>13232.29</v>
       </c>
       <c r="H73" t="s">
         <v>5</v>
@@ -3580,10 +3574,10 @@
         <v>4</v>
       </c>
       <c r="F74" s="2">
-        <v>33.000</v>
+        <v>386.000</v>
       </c>
       <c r="G74" s="3">
-        <v>6150.22</v>
+        <v>6058.36</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -3606,10 +3600,10 @@
         <v>4</v>
       </c>
       <c r="F75" s="2">
-        <v>368.000</v>
+        <v>1.000</v>
       </c>
       <c r="G75" s="3">
-        <v>5775.76</v>
+        <v>830.65</v>
       </c>
       <c r="H75" t="s">
         <v>5</v>
@@ -3632,10 +3626,10 @@
         <v>4</v>
       </c>
       <c r="F76" s="2">
-        <v>1.000</v>
+        <v>52.000</v>
       </c>
       <c r="G76" s="3">
-        <v>830.65</v>
+        <v>4758.61</v>
       </c>
       <c r="H76" t="s">
         <v>5</v>
@@ -3658,10 +3652,10 @@
         <v>4</v>
       </c>
       <c r="F77" s="2">
-        <v>52.000</v>
+        <v>9.000</v>
       </c>
       <c r="G77" s="3">
-        <v>4758.61</v>
+        <v>214.33</v>
       </c>
       <c r="H77" t="s">
         <v>5</v>
@@ -3684,10 +3678,10 @@
         <v>4</v>
       </c>
       <c r="F78" s="2">
-        <v>9.000</v>
+        <v>4.000</v>
       </c>
       <c r="G78" s="3">
-        <v>214.33</v>
+        <v>241.69</v>
       </c>
       <c r="H78" t="s">
         <v>5</v>
@@ -3710,10 +3704,10 @@
         <v>4</v>
       </c>
       <c r="F79" s="2">
-        <v>2.000</v>
+        <v>1.000</v>
       </c>
       <c r="G79" s="3">
-        <v>120.85</v>
+        <v>266.42</v>
       </c>
       <c r="H79" t="s">
         <v>5</v>
@@ -3736,10 +3730,10 @@
         <v>4</v>
       </c>
       <c r="F80" s="2">
-        <v>1142.000</v>
+        <v>1071.000</v>
       </c>
       <c r="G80" s="3">
-        <v>21076.74</v>
+        <v>19766.32</v>
       </c>
       <c r="H80" t="s">
         <v>5</v>
@@ -3866,10 +3860,10 @@
         <v>4</v>
       </c>
       <c r="F85" s="2">
-        <v>2.000</v>
+        <v>3.000</v>
       </c>
       <c r="G85" s="3">
-        <v>159.15</v>
+        <v>238.73</v>
       </c>
       <c r="H85" t="s">
         <v>5</v>
@@ -3918,10 +3912,10 @@
         <v>4</v>
       </c>
       <c r="F87" s="2">
-        <v>42.000</v>
+        <v>43.000</v>
       </c>
       <c r="G87" s="3">
-        <v>638.80</v>
+        <v>654.01</v>
       </c>
       <c r="H87" t="s">
         <v>5</v>
@@ -3944,10 +3938,10 @@
         <v>4</v>
       </c>
       <c r="F88" s="2">
-        <v>118.000</v>
+        <v>125.000</v>
       </c>
       <c r="G88" s="3">
-        <v>669.48</v>
+        <v>709.20</v>
       </c>
       <c r="H88" t="s">
         <v>5</v>
@@ -3970,10 +3964,10 @@
         <v>4</v>
       </c>
       <c r="F89" s="2">
-        <v>16.000</v>
+        <v>17.000</v>
       </c>
       <c r="G89" s="3">
-        <v>23077.85</v>
+        <v>24520.21</v>
       </c>
       <c r="H89" t="s">
         <v>5</v>
@@ -4126,10 +4120,10 @@
         <v>4</v>
       </c>
       <c r="F95" s="2">
-        <v>69.000</v>
+        <v>72.000</v>
       </c>
       <c r="G95" s="3">
-        <v>9069.66</v>
+        <v>9464.00</v>
       </c>
       <c r="H95" t="s">
         <v>5</v>
@@ -4178,10 +4172,10 @@
         <v>4</v>
       </c>
       <c r="F97" s="2">
-        <v>12.000</v>
+        <v>11.000</v>
       </c>
       <c r="G97" s="3">
-        <v>1433.47</v>
+        <v>1314.02</v>
       </c>
       <c r="H97" t="s">
         <v>5</v>
@@ -4256,10 +4250,10 @@
         <v>4</v>
       </c>
       <c r="F100" s="2">
-        <v>607.000</v>
+        <v>653.000</v>
       </c>
       <c r="G100" s="3">
-        <v>2562.25</v>
+        <v>2756.42</v>
       </c>
       <c r="H100" t="s">
         <v>5</v>
@@ -4282,10 +4276,10 @@
         <v>4</v>
       </c>
       <c r="F101" s="2">
-        <v>42.000</v>
+        <v>46.000</v>
       </c>
       <c r="G101" s="3">
-        <v>1418.10</v>
+        <v>1553.16</v>
       </c>
       <c r="H101" t="s">
         <v>5</v>
@@ -4334,10 +4328,10 @@
         <v>4</v>
       </c>
       <c r="F103" s="2">
-        <v>282.000</v>
+        <v>243.000</v>
       </c>
       <c r="G103" s="3">
-        <v>10609.48</v>
+        <v>9140.43</v>
       </c>
       <c r="H103" t="s">
         <v>5</v>
@@ -4464,10 +4458,10 @@
         <v>4</v>
       </c>
       <c r="F108" s="2">
-        <v>8.000</v>
+        <v>10.000</v>
       </c>
       <c r="G108" s="3">
-        <v>1484.30</v>
+        <v>1855.37</v>
       </c>
       <c r="H108" t="s">
         <v>5</v>
@@ -4568,10 +4562,10 @@
         <v>4</v>
       </c>
       <c r="F112" s="2">
-        <v>38.000</v>
+        <v>31.000</v>
       </c>
       <c r="G112" s="3">
-        <v>3473.48</v>
+        <v>2833.63</v>
       </c>
       <c r="H112" t="s">
         <v>5</v>
@@ -4620,10 +4614,10 @@
         <v>4</v>
       </c>
       <c r="F114" s="2">
-        <v>53.000</v>
+        <v>55.000</v>
       </c>
       <c r="G114" s="3">
-        <v>3027.66</v>
+        <v>3141.91</v>
       </c>
       <c r="H114" t="s">
         <v>5</v>
@@ -4646,10 +4640,10 @@
         <v>4</v>
       </c>
       <c r="F115" s="2">
-        <v>9.000</v>
+        <v>11.000</v>
       </c>
       <c r="G115" s="3">
-        <v>257.52</v>
+        <v>314.75</v>
       </c>
       <c r="H115" t="s">
         <v>5</v>
@@ -4672,10 +4666,10 @@
         <v>4</v>
       </c>
       <c r="F116" s="2">
-        <v>777.000</v>
+        <v>795.000</v>
       </c>
       <c r="G116" s="3">
-        <v>4202.39</v>
+        <v>4300.15</v>
       </c>
       <c r="H116" t="s">
         <v>5</v>
@@ -4698,10 +4692,10 @@
         <v>4</v>
       </c>
       <c r="F117" s="2">
-        <v>19.000</v>
+        <v>20.000</v>
       </c>
       <c r="G117" s="3">
-        <v>1071.31</v>
+        <v>1127.70</v>
       </c>
       <c r="H117" t="s">
         <v>5</v>
@@ -4776,10 +4770,10 @@
         <v>4</v>
       </c>
       <c r="F120" s="2">
-        <v>27.000</v>
+        <v>33.000</v>
       </c>
       <c r="G120" s="3">
-        <v>2861.97</v>
+        <v>3497.96</v>
       </c>
       <c r="H120" t="s">
         <v>5</v>
@@ -4932,10 +4926,10 @@
         <v>4</v>
       </c>
       <c r="F126" s="2">
-        <v>129.000</v>
+        <v>96.000</v>
       </c>
       <c r="G126" s="3">
-        <v>16216.36</v>
+        <v>12067.95</v>
       </c>
       <c r="H126" t="s">
         <v>5</v>
@@ -4984,10 +4978,10 @@
         <v>4</v>
       </c>
       <c r="F128" s="2">
-        <v>73.000</v>
+        <v>83.000</v>
       </c>
       <c r="G128" s="3">
-        <v>40129.73</v>
+        <v>45626.96</v>
       </c>
       <c r="H128" t="s">
         <v>5</v>
@@ -5010,10 +5004,10 @@
         <v>4</v>
       </c>
       <c r="F129" s="2">
-        <v>218.000</v>
+        <v>216.000</v>
       </c>
       <c r="G129" s="3">
-        <v>34562.35</v>
+        <v>34245.28</v>
       </c>
       <c r="H129" t="s">
         <v>5</v>
@@ -5036,10 +5030,10 @@
         <v>4</v>
       </c>
       <c r="F130" s="2">
-        <v>18.000</v>
+        <v>14.000</v>
       </c>
       <c r="G130" s="3">
-        <v>571.21</v>
+        <v>444.27</v>
       </c>
       <c r="H130" t="s">
         <v>5</v>
@@ -5192,10 +5186,10 @@
         <v>4</v>
       </c>
       <c r="F136" s="2">
-        <v>7.000</v>
+        <v>8.000</v>
       </c>
       <c r="G136" s="3">
-        <v>343.82</v>
+        <v>392.93</v>
       </c>
       <c r="H136" t="s">
         <v>5</v>
@@ -5374,10 +5368,10 @@
         <v>4</v>
       </c>
       <c r="F143" s="2">
-        <v>3.000</v>
+        <v>4.000</v>
       </c>
       <c r="G143" s="3">
-        <v>750.46</v>
+        <v>1000.62</v>
       </c>
       <c r="H143" t="s">
         <v>5</v>
@@ -5449,7 +5443,7 @@
         <v>294</v>
       </c>
       <c r="E146" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F146" s="2">
         <v>20.300</v>
@@ -5475,7 +5469,7 @@
         <v>296</v>
       </c>
       <c r="E147" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F147" s="2">
         <v>6.000</v>
@@ -5634,10 +5628,10 @@
         <v>4</v>
       </c>
       <c r="F153" s="2">
-        <v>196.000</v>
+        <v>195.000</v>
       </c>
       <c r="G153" s="3">
-        <v>1147.58</v>
+        <v>1141.72</v>
       </c>
       <c r="H153" t="s">
         <v>5</v>
@@ -5657,7 +5651,7 @@
         <v>310</v>
       </c>
       <c r="E154" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F154" s="2">
         <v>47.250</v>
@@ -5715,7 +5709,7 @@
         <v>11.000</v>
       </c>
       <c r="G156" s="3">
-        <v>832.20</v>
+        <v>832.21</v>
       </c>
       <c r="H156" t="s">
         <v>5</v>
@@ -5946,10 +5940,10 @@
         <v>4</v>
       </c>
       <c r="F165" s="2">
-        <v>360.000</v>
+        <v>292.000</v>
       </c>
       <c r="G165" s="3">
-        <v>62862.61</v>
+        <v>50988.56</v>
       </c>
       <c r="H165" t="s">
         <v>5</v>
@@ -5972,10 +5966,10 @@
         <v>4</v>
       </c>
       <c r="F166" s="2">
-        <v>622.000</v>
+        <v>608.000</v>
       </c>
       <c r="G166" s="3">
-        <v>21166.54</v>
+        <v>20690.12</v>
       </c>
       <c r="H166" t="s">
         <v>5</v>
@@ -6128,10 +6122,10 @@
         <v>4</v>
       </c>
       <c r="F172" s="2">
-        <v>4.000</v>
+        <v>2.000</v>
       </c>
       <c r="G172" s="3">
-        <v>358.24</v>
+        <v>179.12</v>
       </c>
       <c r="H172" t="s">
         <v>5</v>
@@ -6180,10 +6174,10 @@
         <v>4</v>
       </c>
       <c r="F174" s="2">
-        <v>11.000</v>
+        <v>9.000</v>
       </c>
       <c r="G174" s="3">
-        <v>4265.57</v>
+        <v>3490.01</v>
       </c>
       <c r="H174" t="s">
         <v>5</v>
@@ -6258,10 +6252,10 @@
         <v>4</v>
       </c>
       <c r="F177" s="2">
-        <v>634.000</v>
+        <v>564.000</v>
       </c>
       <c r="G177" s="3">
-        <v>4574.28</v>
+        <v>4069.74</v>
       </c>
       <c r="H177" t="s">
         <v>5</v>
@@ -6310,10 +6304,10 @@
         <v>4</v>
       </c>
       <c r="F179" s="2">
-        <v>1207.000</v>
+        <v>1132.000</v>
       </c>
       <c r="G179" s="3">
-        <v>7902.00</v>
+        <v>7410.89</v>
       </c>
       <c r="H179" t="s">
         <v>5</v>
@@ -6362,10 +6356,10 @@
         <v>4</v>
       </c>
       <c r="F181" s="2">
-        <v>1673.000</v>
+        <v>1713.000</v>
       </c>
       <c r="G181" s="3">
-        <v>16917.74</v>
+        <v>17600.98</v>
       </c>
       <c r="H181" t="s">
         <v>5</v>
@@ -6388,10 +6382,10 @@
         <v>4</v>
       </c>
       <c r="F182" s="2">
-        <v>47.000</v>
+        <v>49.000</v>
       </c>
       <c r="G182" s="3">
-        <v>1271.16</v>
+        <v>1325.26</v>
       </c>
       <c r="H182" t="s">
         <v>5</v>
@@ -6648,10 +6642,10 @@
         <v>4</v>
       </c>
       <c r="F192" s="2">
-        <v>323.000</v>
+        <v>306.000</v>
       </c>
       <c r="G192" s="3">
-        <v>235.89</v>
+        <v>223.48</v>
       </c>
       <c r="H192" t="s">
         <v>5</v>
@@ -6879,13 +6873,13 @@
         <v>404</v>
       </c>
       <c r="E201" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F201" s="2">
-        <v>7680.100</v>
+        <v>6650.000</v>
       </c>
       <c r="G201" s="3">
-        <v>18004.41</v>
+        <v>15589.56</v>
       </c>
       <c r="H201" t="s">
         <v>5</v>
@@ -6908,10 +6902,10 @@
         <v>4</v>
       </c>
       <c r="F202" s="2">
-        <v>47.000</v>
+        <v>46.000</v>
       </c>
       <c r="G202" s="3">
-        <v>1079.96</v>
+        <v>1056.98</v>
       </c>
       <c r="H202" t="s">
         <v>5</v>
@@ -7012,10 +7006,10 @@
         <v>4</v>
       </c>
       <c r="F206" s="2">
-        <v>1.000</v>
+        <v>7.000</v>
       </c>
       <c r="G206" s="3">
-        <v>15.67</v>
+        <v>109.67</v>
       </c>
       <c r="H206" t="s">
         <v>5</v>
@@ -7064,10 +7058,10 @@
         <v>4</v>
       </c>
       <c r="F208" s="2">
-        <v>97.000</v>
+        <v>98.000</v>
       </c>
       <c r="G208" s="3">
-        <v>1548.40</v>
+        <v>1564.36</v>
       </c>
       <c r="H208" t="s">
         <v>5</v>
@@ -7116,10 +7110,10 @@
         <v>4</v>
       </c>
       <c r="F210" s="2">
-        <v>21.000</v>
+        <v>14.000</v>
       </c>
       <c r="G210" s="3">
-        <v>3910.09</v>
+        <v>2606.73</v>
       </c>
       <c r="H210" t="s">
         <v>5</v>
@@ -7142,10 +7136,10 @@
         <v>4</v>
       </c>
       <c r="F211" s="2">
-        <v>357.000</v>
+        <v>371.000</v>
       </c>
       <c r="G211" s="3">
-        <v>22279.79</v>
+        <v>23153.51</v>
       </c>
       <c r="H211" t="s">
         <v>5</v>
@@ -7168,10 +7162,10 @@
         <v>4</v>
       </c>
       <c r="F212" s="2">
-        <v>1305.000</v>
+        <v>1502.000</v>
       </c>
       <c r="G212" s="3">
-        <v>11885.88</v>
+        <v>13678.57</v>
       </c>
       <c r="H212" t="s">
         <v>5</v>
@@ -7246,10 +7240,10 @@
         <v>4</v>
       </c>
       <c r="F215" s="2">
-        <v>3.000</v>
+        <v>4.000</v>
       </c>
       <c r="G215" s="3">
-        <v>821.95</v>
+        <v>1095.94</v>
       </c>
       <c r="H215" t="s">
         <v>5</v>
@@ -7376,10 +7370,10 @@
         <v>4</v>
       </c>
       <c r="F220" s="2">
-        <v>191.000</v>
+        <v>189.000</v>
       </c>
       <c r="G220" s="3">
-        <v>13609.69</v>
+        <v>13467.18</v>
       </c>
       <c r="H220" t="s">
         <v>5</v>
@@ -7399,7 +7393,7 @@
         <v>444</v>
       </c>
       <c r="E221" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F221" s="2">
         <v>27.800</v>
@@ -7425,7 +7419,7 @@
         <v>446</v>
       </c>
       <c r="E222" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F222" s="2">
         <v>16.000</v>
@@ -7584,10 +7578,10 @@
         <v>4</v>
       </c>
       <c r="F228" s="2">
-        <v>20.000</v>
+        <v>19.000</v>
       </c>
       <c r="G228" s="3">
-        <v>1118.18</v>
+        <v>1062.27</v>
       </c>
       <c r="H228" t="s">
         <v>5</v>
@@ -7636,10 +7630,10 @@
         <v>4</v>
       </c>
       <c r="F230" s="2">
-        <v>127.000</v>
+        <v>126.000</v>
       </c>
       <c r="G230" s="3">
-        <v>567.13</v>
+        <v>562.66</v>
       </c>
       <c r="H230" t="s">
         <v>5</v>
@@ -7662,10 +7656,10 @@
         <v>4</v>
       </c>
       <c r="F231" s="2">
-        <v>107.000</v>
+        <v>105.000</v>
       </c>
       <c r="G231" s="3">
-        <v>10127.99</v>
+        <v>9938.68</v>
       </c>
       <c r="H231" t="s">
         <v>5</v>
@@ -7688,10 +7682,10 @@
         <v>4</v>
       </c>
       <c r="F232" s="2">
-        <v>64.000</v>
+        <v>62.000</v>
       </c>
       <c r="G232" s="3">
-        <v>6294.72</v>
+        <v>6098.01</v>
       </c>
       <c r="H232" t="s">
         <v>5</v>
@@ -7740,10 +7734,10 @@
         <v>4</v>
       </c>
       <c r="F234" s="2">
-        <v>2.000</v>
+        <v>323.000</v>
       </c>
       <c r="G234" s="3">
-        <v>571.29</v>
+        <v>9675.19</v>
       </c>
       <c r="H234" t="s">
         <v>5</v>
@@ -7766,10 +7760,10 @@
         <v>4</v>
       </c>
       <c r="F235" s="2">
-        <v>323.000</v>
+        <v>4.000</v>
       </c>
       <c r="G235" s="3">
-        <v>9675.18</v>
+        <v>9163.74</v>
       </c>
       <c r="H235" t="s">
         <v>5</v>
@@ -7792,10 +7786,10 @@
         <v>4</v>
       </c>
       <c r="F236" s="2">
-        <v>4.000</v>
+        <v>3.000</v>
       </c>
       <c r="G236" s="3">
-        <v>9163.74</v>
+        <v>295.57</v>
       </c>
       <c r="H236" t="s">
         <v>5</v>
@@ -7818,10 +7812,10 @@
         <v>4</v>
       </c>
       <c r="F237" s="2">
-        <v>3.000</v>
+        <v>14.000</v>
       </c>
       <c r="G237" s="3">
-        <v>295.57</v>
+        <v>1835.96</v>
       </c>
       <c r="H237" t="s">
         <v>5</v>
@@ -7844,10 +7838,10 @@
         <v>4</v>
       </c>
       <c r="F238" s="2">
-        <v>14.000</v>
+        <v>171.000</v>
       </c>
       <c r="G238" s="3">
-        <v>1835.96</v>
+        <v>5804.03</v>
       </c>
       <c r="H238" t="s">
         <v>5</v>
@@ -7870,10 +7864,10 @@
         <v>4</v>
       </c>
       <c r="F239" s="2">
-        <v>171.000</v>
+        <v>1.000</v>
       </c>
       <c r="G239" s="3">
-        <v>5804.03</v>
+        <v>112.24</v>
       </c>
       <c r="H239" t="s">
         <v>5</v>
@@ -7896,10 +7890,10 @@
         <v>4</v>
       </c>
       <c r="F240" s="2">
-        <v>1.000</v>
+        <v>9.000</v>
       </c>
       <c r="G240" s="3">
-        <v>112.24</v>
+        <v>1780.82</v>
       </c>
       <c r="H240" t="s">
         <v>5</v>
@@ -7922,10 +7916,10 @@
         <v>4</v>
       </c>
       <c r="F241" s="2">
-        <v>9.000</v>
+        <v>6.000</v>
       </c>
       <c r="G241" s="3">
-        <v>1780.82</v>
+        <v>340.68</v>
       </c>
       <c r="H241" t="s">
         <v>5</v>
@@ -7945,13 +7939,13 @@
         <v>486</v>
       </c>
       <c r="E242" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F242" s="2">
-        <v>6.000</v>
+        <v>7.000</v>
       </c>
       <c r="G242" s="3">
-        <v>340.68</v>
+        <v>1520.59</v>
       </c>
       <c r="H242" t="s">
         <v>5</v>
@@ -7971,13 +7965,13 @@
         <v>488</v>
       </c>
       <c r="E243" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F243" s="2">
-        <v>7.000</v>
+        <v>25.000</v>
       </c>
       <c r="G243" s="3">
-        <v>1520.59</v>
+        <v>1242.33</v>
       </c>
       <c r="H243" t="s">
         <v>5</v>
@@ -8000,10 +7994,10 @@
         <v>4</v>
       </c>
       <c r="F244" s="2">
-        <v>25.000</v>
+        <v>10.000</v>
       </c>
       <c r="G244" s="3">
-        <v>1242.33</v>
+        <v>201.79</v>
       </c>
       <c r="H244" t="s">
         <v>5</v>
@@ -8026,10 +8020,10 @@
         <v>4</v>
       </c>
       <c r="F245" s="2">
-        <v>10.000</v>
+        <v>29.000</v>
       </c>
       <c r="G245" s="3">
-        <v>201.79</v>
+        <v>1351.49</v>
       </c>
       <c r="H245" t="s">
         <v>5</v>
@@ -8049,66 +8043,40 @@
         <v>494</v>
       </c>
       <c r="E246" t="s">
-        <v>4</v>
+        <v>495</v>
       </c>
       <c r="F246" s="2">
-        <v>29.000</v>
+        <v>40.000</v>
       </c>
       <c r="G246" s="3">
-        <v>1351.49</v>
+        <v>59.60</v>
       </c>
       <c r="H246" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1</v>
-      </c>
-      <c r="C247" t="s">
-        <v>495</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="A247" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E247" t="s">
-        <v>497</v>
-      </c>
-      <c r="F247" s="2">
-        <v>20.000</v>
-      </c>
-      <c r="G247" s="3">
-        <v>29.80</v>
-      </c>
-      <c r="H247" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D248" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="F248" s="5"/>
-      <c r="G248" s="6">
-        <v>1735670.37</v>
-      </c>
-      <c r="H248" s="4" t="s">
-        <v>498</v>
+      <c r="B247" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F247" s="5"/>
+      <c r="G247" s="6">
+        <v>1708776.91</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
